--- a/UDMI-CREATION/DELTA/VAV/VAV-ALL.xlsx
+++ b/UDMI-CREATION/DELTA/VAV/VAV-ALL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google\Commissioning\GCP_ONBOARDING\KYOTOW\UDMI-CREATION\DELTA\VAV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\UDMI-CREATION\DELTA\VAV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD9D3EB-D32A-4675-9739-7D270EA796FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD55801F-0792-4C16-B254-400F1C2546B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="690" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="690" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13460" uniqueCount="1356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13996" uniqueCount="1363">
   <si>
     <t>dbo.section</t>
   </si>
@@ -4104,6 +4104,27 @@
   </si>
   <si>
     <t>W-S-9059</t>
+  </si>
+  <si>
+    <t>VAV-436</t>
+  </si>
+  <si>
+    <t>VAV-437</t>
+  </si>
+  <si>
+    <t>VAV-438</t>
+  </si>
+  <si>
+    <t>VAV-439</t>
+  </si>
+  <si>
+    <t>VAV-451</t>
+  </si>
+  <si>
+    <t>VAV-452</t>
+  </si>
+  <si>
+    <t>VAV-453</t>
   </si>
 </sst>
 </file>
@@ -4714,10 +4735,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U433"/>
   <sheetViews>
-    <sheetView zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A305" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="E284" sqref="E284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -23848,11 +23869,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H2108"/>
+  <dimension ref="A1:H2181"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1919" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1924" sqref="D1924"/>
+    <sheetView showFormulas="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2104" sqref="E2104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -46274,7 +46295,7 @@
     </row>
     <row r="1498" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1498" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B1498" s="10" t="s">
         <v>71</v>
@@ -46288,7 +46309,7 @@
     </row>
     <row r="1499" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1499" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B1499" s="10" t="s">
         <v>72</v>
@@ -46302,7 +46323,7 @@
     </row>
     <row r="1500" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1500" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B1500" s="10" t="s">
         <v>73</v>
@@ -46316,7 +46337,7 @@
     </row>
     <row r="1501" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1501" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B1501" s="10" t="s">
         <v>69</v>
@@ -46330,7 +46351,7 @@
     </row>
     <row r="1502" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1502" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B1502" s="10" t="s">
         <v>70</v>
@@ -46344,7 +46365,7 @@
     </row>
     <row r="1503" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1503" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B1503" s="10" t="s">
         <v>71</v>
@@ -46358,7 +46379,7 @@
     </row>
     <row r="1504" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1504" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B1504" s="10" t="s">
         <v>72</v>
@@ -46372,7 +46393,7 @@
     </row>
     <row r="1505" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1505" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B1505" s="10" t="s">
         <v>73</v>
@@ -46386,7 +46407,7 @@
     </row>
     <row r="1506" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1506" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B1506" s="10" t="s">
         <v>69</v>
@@ -46400,7 +46421,7 @@
     </row>
     <row r="1507" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1507" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B1507" s="10" t="s">
         <v>70</v>
@@ -46414,7 +46435,7 @@
     </row>
     <row r="1508" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1508" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B1508" s="10" t="s">
         <v>71</v>
@@ -46428,7 +46449,7 @@
     </row>
     <row r="1509" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1509" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B1509" s="10" t="s">
         <v>72</v>
@@ -46442,7 +46463,7 @@
     </row>
     <row r="1510" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1510" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B1510" s="10" t="s">
         <v>73</v>
@@ -46456,7 +46477,7 @@
     </row>
     <row r="1511" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1511" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B1511" s="10" t="s">
         <v>69</v>
@@ -46470,7 +46491,7 @@
     </row>
     <row r="1512" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1512" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B1512" s="10" t="s">
         <v>70</v>
@@ -46484,7 +46505,7 @@
     </row>
     <row r="1513" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1513" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B1513" s="10" t="s">
         <v>71</v>
@@ -46498,7 +46519,7 @@
     </row>
     <row r="1514" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1514" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B1514" s="10" t="s">
         <v>72</v>
@@ -46512,7 +46533,7 @@
     </row>
     <row r="1515" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1515" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B1515" s="10" t="s">
         <v>73</v>
@@ -46526,7 +46547,7 @@
     </row>
     <row r="1516" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1516" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B1516" s="10" t="s">
         <v>69</v>
@@ -46540,7 +46561,7 @@
     </row>
     <row r="1517" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1517" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B1517" s="10" t="s">
         <v>70</v>
@@ -46554,7 +46575,7 @@
     </row>
     <row r="1518" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1518" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B1518" s="10" t="s">
         <v>71</v>
@@ -46568,7 +46589,7 @@
     </row>
     <row r="1519" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1519" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B1519" s="10" t="s">
         <v>72</v>
@@ -46582,7 +46603,7 @@
     </row>
     <row r="1520" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1520" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B1520" s="10" t="s">
         <v>73</v>
@@ -46596,7 +46617,7 @@
     </row>
     <row r="1521" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1521" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B1521" s="10" t="s">
         <v>69</v>
@@ -46610,7 +46631,7 @@
     </row>
     <row r="1522" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1522" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B1522" s="10" t="s">
         <v>70</v>
@@ -46624,7 +46645,7 @@
     </row>
     <row r="1523" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1523" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B1523" s="10" t="s">
         <v>71</v>
@@ -46638,7 +46659,7 @@
     </row>
     <row r="1524" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1524" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B1524" s="10" t="s">
         <v>72</v>
@@ -46652,7 +46673,7 @@
     </row>
     <row r="1525" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1525" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B1525" s="10" t="s">
         <v>73</v>
@@ -46666,7 +46687,7 @@
     </row>
     <row r="1526" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1526" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B1526" s="10" t="s">
         <v>69</v>
@@ -46680,7 +46701,7 @@
     </row>
     <row r="1527" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1527" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B1527" s="10" t="s">
         <v>70</v>
@@ -46694,7 +46715,7 @@
     </row>
     <row r="1528" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1528" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B1528" s="10" t="s">
         <v>71</v>
@@ -46708,7 +46729,7 @@
     </row>
     <row r="1529" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1529" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B1529" s="10" t="s">
         <v>72</v>
@@ -46722,7 +46743,7 @@
     </row>
     <row r="1530" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1530" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B1530" s="10" t="s">
         <v>73</v>
@@ -46736,7 +46757,7 @@
     </row>
     <row r="1531" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1531" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B1531" s="10" t="s">
         <v>69</v>
@@ -46750,7 +46771,7 @@
     </row>
     <row r="1532" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1532" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B1532" s="10" t="s">
         <v>70</v>
@@ -46764,7 +46785,7 @@
     </row>
     <row r="1533" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1533" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B1533" s="10" t="s">
         <v>71</v>
@@ -46778,7 +46799,7 @@
     </row>
     <row r="1534" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1534" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B1534" s="10" t="s">
         <v>72</v>
@@ -46792,7 +46813,7 @@
     </row>
     <row r="1535" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1535" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B1535" s="10" t="s">
         <v>73</v>
@@ -46806,7 +46827,7 @@
     </row>
     <row r="1536" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1536" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B1536" s="10" t="s">
         <v>69</v>
@@ -46820,7 +46841,7 @@
     </row>
     <row r="1537" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1537" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B1537" s="10" t="s">
         <v>70</v>
@@ -46834,7 +46855,7 @@
     </row>
     <row r="1538" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1538" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B1538" s="10" t="s">
         <v>71</v>
@@ -46848,7 +46869,7 @@
     </row>
     <row r="1539" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1539" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B1539" s="10" t="s">
         <v>72</v>
@@ -46862,7 +46883,7 @@
     </row>
     <row r="1540" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1540" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B1540" s="10" t="s">
         <v>73</v>
@@ -46876,7 +46897,7 @@
     </row>
     <row r="1541" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1541" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B1541" s="10" t="s">
         <v>69</v>
@@ -46890,7 +46911,7 @@
     </row>
     <row r="1542" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1542" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B1542" s="10" t="s">
         <v>70</v>
@@ -46904,7 +46925,7 @@
     </row>
     <row r="1543" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1543" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B1543" s="10" t="s">
         <v>71</v>
@@ -46918,7 +46939,7 @@
     </row>
     <row r="1544" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1544" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B1544" s="10" t="s">
         <v>72</v>
@@ -46932,7 +46953,7 @@
     </row>
     <row r="1545" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1545" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B1545" s="10" t="s">
         <v>73</v>
@@ -46946,7 +46967,7 @@
     </row>
     <row r="1546" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1546" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B1546" s="10" t="s">
         <v>69</v>
@@ -46960,7 +46981,7 @@
     </row>
     <row r="1547" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1547" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B1547" s="10" t="s">
         <v>70</v>
@@ -46974,7 +46995,7 @@
     </row>
     <row r="1548" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1548" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B1548" s="10" t="s">
         <v>71</v>
@@ -46988,7 +47009,7 @@
     </row>
     <row r="1549" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1549" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B1549" s="10" t="s">
         <v>72</v>
@@ -47002,7 +47023,7 @@
     </row>
     <row r="1550" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1550" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B1550" s="10" t="s">
         <v>73</v>
@@ -47016,7 +47037,7 @@
     </row>
     <row r="1551" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1551" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B1551" s="10" t="s">
         <v>69</v>
@@ -47030,7 +47051,7 @@
     </row>
     <row r="1552" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1552" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B1552" s="10" t="s">
         <v>70</v>
@@ -47044,7 +47065,7 @@
     </row>
     <row r="1553" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1553" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B1553" s="10" t="s">
         <v>71</v>
@@ -47058,7 +47079,7 @@
     </row>
     <row r="1554" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1554" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B1554" s="10" t="s">
         <v>72</v>
@@ -47072,7 +47093,7 @@
     </row>
     <row r="1555" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1555" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B1555" s="10" t="s">
         <v>73</v>
@@ -47086,7 +47107,7 @@
     </row>
     <row r="1556" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1556" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B1556" s="10" t="s">
         <v>69</v>
@@ -47100,7 +47121,7 @@
     </row>
     <row r="1557" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1557" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B1557" s="10" t="s">
         <v>70</v>
@@ -47114,7 +47135,7 @@
     </row>
     <row r="1558" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1558" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B1558" s="10" t="s">
         <v>71</v>
@@ -47128,7 +47149,7 @@
     </row>
     <row r="1559" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1559" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B1559" s="10" t="s">
         <v>72</v>
@@ -47142,7 +47163,7 @@
     </row>
     <row r="1560" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1560" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B1560" s="10" t="s">
         <v>73</v>
@@ -47156,7 +47177,7 @@
     </row>
     <row r="1561" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1561" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B1561" s="10" t="s">
         <v>69</v>
@@ -47170,7 +47191,7 @@
     </row>
     <row r="1562" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1562" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B1562" s="10" t="s">
         <v>70</v>
@@ -47184,7 +47205,7 @@
     </row>
     <row r="1563" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1563" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B1563" s="10" t="s">
         <v>71</v>
@@ -47198,7 +47219,7 @@
     </row>
     <row r="1564" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1564" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B1564" s="10" t="s">
         <v>72</v>
@@ -47212,7 +47233,7 @@
     </row>
     <row r="1565" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1565" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B1565" s="10" t="s">
         <v>73</v>
@@ -47226,7 +47247,7 @@
     </row>
     <row r="1566" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1566" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B1566" s="10" t="s">
         <v>69</v>
@@ -47240,7 +47261,7 @@
     </row>
     <row r="1567" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1567" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B1567" s="10" t="s">
         <v>70</v>
@@ -47254,7 +47275,7 @@
     </row>
     <row r="1568" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1568" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B1568" s="10" t="s">
         <v>71</v>
@@ -47268,7 +47289,7 @@
     </row>
     <row r="1569" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1569" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B1569" s="10" t="s">
         <v>72</v>
@@ -47282,7 +47303,7 @@
     </row>
     <row r="1570" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1570" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B1570" s="10" t="s">
         <v>73</v>
@@ -47296,7 +47317,7 @@
     </row>
     <row r="1571" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1571" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B1571" s="10" t="s">
         <v>69</v>
@@ -47310,7 +47331,7 @@
     </row>
     <row r="1572" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1572" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B1572" s="10" t="s">
         <v>70</v>
@@ -47324,7 +47345,7 @@
     </row>
     <row r="1573" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1573" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B1573" s="10" t="s">
         <v>71</v>
@@ -47338,7 +47359,7 @@
     </row>
     <row r="1574" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1574" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B1574" s="10" t="s">
         <v>72</v>
@@ -47352,7 +47373,7 @@
     </row>
     <row r="1575" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1575" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B1575" s="10" t="s">
         <v>73</v>
@@ -47366,7 +47387,7 @@
     </row>
     <row r="1576" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1576" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B1576" s="10" t="s">
         <v>69</v>
@@ -47380,7 +47401,7 @@
     </row>
     <row r="1577" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1577" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B1577" s="10" t="s">
         <v>70</v>
@@ -47394,7 +47415,7 @@
     </row>
     <row r="1578" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1578" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B1578" s="10" t="s">
         <v>71</v>
@@ -47408,7 +47429,7 @@
     </row>
     <row r="1579" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1579" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B1579" s="10" t="s">
         <v>72</v>
@@ -47422,7 +47443,7 @@
     </row>
     <row r="1580" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1580" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B1580" s="10" t="s">
         <v>73</v>
@@ -47436,7 +47457,7 @@
     </row>
     <row r="1581" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1581" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B1581" s="10" t="s">
         <v>69</v>
@@ -47450,7 +47471,7 @@
     </row>
     <row r="1582" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1582" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B1582" s="10" t="s">
         <v>70</v>
@@ -47464,7 +47485,7 @@
     </row>
     <row r="1583" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1583" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B1583" s="10" t="s">
         <v>71</v>
@@ -47478,7 +47499,7 @@
     </row>
     <row r="1584" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1584" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B1584" s="10" t="s">
         <v>72</v>
@@ -47492,7 +47513,7 @@
     </row>
     <row r="1585" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1585" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B1585" s="10" t="s">
         <v>73</v>
@@ -47506,7 +47527,7 @@
     </row>
     <row r="1586" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1586" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B1586" s="10" t="s">
         <v>69</v>
@@ -47520,7 +47541,7 @@
     </row>
     <row r="1587" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1587" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B1587" s="10" t="s">
         <v>70</v>
@@ -47534,7 +47555,7 @@
     </row>
     <row r="1588" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1588" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B1588" s="10" t="s">
         <v>71</v>
@@ -47548,7 +47569,7 @@
     </row>
     <row r="1589" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1589" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B1589" s="10" t="s">
         <v>72</v>
@@ -47562,7 +47583,7 @@
     </row>
     <row r="1590" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1590" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B1590" s="10" t="s">
         <v>73</v>
@@ -47576,7 +47597,7 @@
     </row>
     <row r="1591" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1591" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B1591" s="10" t="s">
         <v>69</v>
@@ -47590,7 +47611,7 @@
     </row>
     <row r="1592" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1592" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B1592" s="10" t="s">
         <v>70</v>
@@ -47604,7 +47625,7 @@
     </row>
     <row r="1593" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1593" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B1593" s="10" t="s">
         <v>71</v>
@@ -47618,7 +47639,7 @@
     </row>
     <row r="1594" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1594" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B1594" s="10" t="s">
         <v>72</v>
@@ -47632,7 +47653,7 @@
     </row>
     <row r="1595" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1595" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B1595" s="10" t="s">
         <v>73</v>
@@ -47646,7 +47667,7 @@
     </row>
     <row r="1596" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1596" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B1596" s="10" t="s">
         <v>69</v>
@@ -47660,7 +47681,7 @@
     </row>
     <row r="1597" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1597" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B1597" s="10" t="s">
         <v>70</v>
@@ -47674,7 +47695,7 @@
     </row>
     <row r="1598" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1598" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B1598" s="10" t="s">
         <v>71</v>
@@ -47688,7 +47709,7 @@
     </row>
     <row r="1599" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1599" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B1599" s="10" t="s">
         <v>72</v>
@@ -47702,7 +47723,7 @@
     </row>
     <row r="1600" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1600" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B1600" s="10" t="s">
         <v>73</v>
@@ -47716,7 +47737,7 @@
     </row>
     <row r="1601" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1601" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B1601" s="10" t="s">
         <v>69</v>
@@ -47730,7 +47751,7 @@
     </row>
     <row r="1602" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1602" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B1602" s="10" t="s">
         <v>70</v>
@@ -47744,7 +47765,7 @@
     </row>
     <row r="1603" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1603" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B1603" s="10" t="s">
         <v>71</v>
@@ -47758,7 +47779,7 @@
     </row>
     <row r="1604" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1604" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B1604" s="10" t="s">
         <v>72</v>
@@ -47772,7 +47793,7 @@
     </row>
     <row r="1605" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1605" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B1605" s="10" t="s">
         <v>73</v>
@@ -47786,7 +47807,7 @@
     </row>
     <row r="1606" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1606" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B1606" s="10" t="s">
         <v>69</v>
@@ -47800,7 +47821,7 @@
     </row>
     <row r="1607" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1607" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B1607" s="10" t="s">
         <v>70</v>
@@ -47814,7 +47835,7 @@
     </row>
     <row r="1608" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1608" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B1608" s="10" t="s">
         <v>71</v>
@@ -47828,7 +47849,7 @@
     </row>
     <row r="1609" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1609" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B1609" s="10" t="s">
         <v>72</v>
@@ -47842,7 +47863,7 @@
     </row>
     <row r="1610" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1610" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B1610" s="10" t="s">
         <v>73</v>
@@ -47856,7 +47877,7 @@
     </row>
     <row r="1611" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1611" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B1611" s="10" t="s">
         <v>69</v>
@@ -47870,7 +47891,7 @@
     </row>
     <row r="1612" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1612" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B1612" s="10" t="s">
         <v>70</v>
@@ -47884,7 +47905,7 @@
     </row>
     <row r="1613" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1613" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B1613" s="10" t="s">
         <v>71</v>
@@ -47898,7 +47919,7 @@
     </row>
     <row r="1614" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1614" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B1614" s="10" t="s">
         <v>72</v>
@@ -47912,7 +47933,7 @@
     </row>
     <row r="1615" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1615" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="B1615" s="10" t="s">
         <v>73</v>
@@ -47926,7 +47947,7 @@
     </row>
     <row r="1616" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1616" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="B1616" s="10" t="s">
         <v>69</v>
@@ -47940,7 +47961,7 @@
     </row>
     <row r="1617" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1617" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B1617" s="10" t="s">
         <v>70</v>
@@ -47954,7 +47975,7 @@
     </row>
     <row r="1618" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1618" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B1618" s="10" t="s">
         <v>71</v>
@@ -47968,7 +47989,7 @@
     </row>
     <row r="1619" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1619" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="B1619" s="10" t="s">
         <v>72</v>
@@ -47982,7 +48003,7 @@
     </row>
     <row r="1620" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1620" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="B1620" s="10" t="s">
         <v>73</v>
@@ -47996,7 +48017,7 @@
     </row>
     <row r="1621" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1621" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="B1621" s="10" t="s">
         <v>69</v>
@@ -48010,7 +48031,7 @@
     </row>
     <row r="1622" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1622" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B1622" s="10" t="s">
         <v>70</v>
@@ -48024,7 +48045,7 @@
     </row>
     <row r="1623" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1623" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B1623" s="10" t="s">
         <v>71</v>
@@ -48038,7 +48059,7 @@
     </row>
     <row r="1624" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1624" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B1624" s="10" t="s">
         <v>72</v>
@@ -48052,7 +48073,7 @@
     </row>
     <row r="1625" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1625" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B1625" s="10" t="s">
         <v>73</v>
@@ -48066,7 +48087,7 @@
     </row>
     <row r="1626" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1626" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B1626" s="10" t="s">
         <v>69</v>
@@ -48080,7 +48101,7 @@
     </row>
     <row r="1627" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1627" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B1627" s="10" t="s">
         <v>70</v>
@@ -48094,7 +48115,7 @@
     </row>
     <row r="1628" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1628" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="B1628" s="10" t="s">
         <v>71</v>
@@ -48108,7 +48129,7 @@
     </row>
     <row r="1629" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1629" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="B1629" s="10" t="s">
         <v>72</v>
@@ -48122,7 +48143,7 @@
     </row>
     <row r="1630" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1630" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="B1630" s="10" t="s">
         <v>73</v>
@@ -48136,7 +48157,7 @@
     </row>
     <row r="1631" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1631" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="B1631" s="10" t="s">
         <v>69</v>
@@ -48150,7 +48171,7 @@
     </row>
     <row r="1632" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1632" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B1632" s="10" t="s">
         <v>70</v>
@@ -48164,7 +48185,7 @@
     </row>
     <row r="1633" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1633" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B1633" s="10" t="s">
         <v>71</v>
@@ -48178,7 +48199,7 @@
     </row>
     <row r="1634" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1634" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B1634" s="10" t="s">
         <v>72</v>
@@ -48192,7 +48213,7 @@
     </row>
     <row r="1635" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1635" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B1635" s="10" t="s">
         <v>73</v>
@@ -48206,7 +48227,7 @@
     </row>
     <row r="1636" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1636" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B1636" s="10" t="s">
         <v>69</v>
@@ -48220,7 +48241,7 @@
     </row>
     <row r="1637" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1637" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="B1637" s="10" t="s">
         <v>70</v>
@@ -48234,7 +48255,7 @@
     </row>
     <row r="1638" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1638" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="B1638" s="10" t="s">
         <v>71</v>
@@ -48248,7 +48269,7 @@
     </row>
     <row r="1639" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1639" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="B1639" s="10" t="s">
         <v>72</v>
@@ -48262,7 +48283,7 @@
     </row>
     <row r="1640" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1640" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B1640" s="10" t="s">
         <v>73</v>
@@ -48276,7 +48297,7 @@
     </row>
     <row r="1641" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1641" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B1641" s="10" t="s">
         <v>69</v>
@@ -48290,7 +48311,7 @@
     </row>
     <row r="1642" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1642" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B1642" s="10" t="s">
         <v>70</v>
@@ -48304,7 +48325,7 @@
     </row>
     <row r="1643" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1643" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B1643" s="10" t="s">
         <v>71</v>
@@ -48318,7 +48339,7 @@
     </row>
     <row r="1644" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1644" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B1644" s="10" t="s">
         <v>72</v>
@@ -48332,7 +48353,7 @@
     </row>
     <row r="1645" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1645" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B1645" s="10" t="s">
         <v>73</v>
@@ -48346,7 +48367,7 @@
     </row>
     <row r="1646" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1646" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B1646" s="10" t="s">
         <v>69</v>
@@ -48360,7 +48381,7 @@
     </row>
     <row r="1647" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1647" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B1647" s="10" t="s">
         <v>70</v>
@@ -48374,7 +48395,7 @@
     </row>
     <row r="1648" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1648" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B1648" s="10" t="s">
         <v>71</v>
@@ -48388,7 +48409,7 @@
     </row>
     <row r="1649" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1649" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B1649" s="10" t="s">
         <v>72</v>
@@ -48402,7 +48423,7 @@
     </row>
     <row r="1650" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1650" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B1650" s="10" t="s">
         <v>73</v>
@@ -48416,7 +48437,7 @@
     </row>
     <row r="1651" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1651" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B1651" s="10" t="s">
         <v>69</v>
@@ -48430,7 +48451,7 @@
     </row>
     <row r="1652" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1652" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B1652" s="10" t="s">
         <v>70</v>
@@ -48444,7 +48465,7 @@
     </row>
     <row r="1653" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1653" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="B1653" s="10" t="s">
         <v>71</v>
@@ -48458,7 +48479,7 @@
     </row>
     <row r="1654" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1654" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="B1654" s="10" t="s">
         <v>72</v>
@@ -48472,7 +48493,7 @@
     </row>
     <row r="1655" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1655" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="B1655" s="10" t="s">
         <v>73</v>
@@ -48486,7 +48507,7 @@
     </row>
     <row r="1656" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1656" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="B1656" s="10" t="s">
         <v>69</v>
@@ -48500,7 +48521,7 @@
     </row>
     <row r="1657" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1657" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B1657" s="10" t="s">
         <v>70</v>
@@ -48514,7 +48535,7 @@
     </row>
     <row r="1658" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1658" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B1658" s="10" t="s">
         <v>71</v>
@@ -48528,7 +48549,7 @@
     </row>
     <row r="1659" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1659" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B1659" s="10" t="s">
         <v>72</v>
@@ -48542,7 +48563,7 @@
     </row>
     <row r="1660" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1660" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B1660" s="10" t="s">
         <v>73</v>
@@ -48556,7 +48577,7 @@
     </row>
     <row r="1661" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1661" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="B1661" s="10" t="s">
         <v>69</v>
@@ -48570,7 +48591,7 @@
     </row>
     <row r="1662" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1662" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="B1662" s="10" t="s">
         <v>70</v>
@@ -48584,7 +48605,7 @@
     </row>
     <row r="1663" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1663" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="B1663" s="10" t="s">
         <v>71</v>
@@ -48598,7 +48619,7 @@
     </row>
     <row r="1664" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1664" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="B1664" s="10" t="s">
         <v>72</v>
@@ -48612,7 +48633,7 @@
     </row>
     <row r="1665" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1665" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="B1665" s="10" t="s">
         <v>73</v>
@@ -48626,7 +48647,7 @@
     </row>
     <row r="1666" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1666" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="B1666" s="10" t="s">
         <v>69</v>
@@ -48640,7 +48661,7 @@
     </row>
     <row r="1667" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1667" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B1667" s="10" t="s">
         <v>70</v>
@@ -48654,7 +48675,7 @@
     </row>
     <row r="1668" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1668" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B1668" s="10" t="s">
         <v>71</v>
@@ -48668,7 +48689,7 @@
     </row>
     <row r="1669" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1669" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="B1669" s="10" t="s">
         <v>72</v>
@@ -48682,7 +48703,7 @@
     </row>
     <row r="1670" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1670" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="B1670" s="10" t="s">
         <v>73</v>
@@ -48696,7 +48717,7 @@
     </row>
     <row r="1671" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1671" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="B1671" s="10" t="s">
         <v>69</v>
@@ -48710,7 +48731,7 @@
     </row>
     <row r="1672" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1672" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="B1672" s="10" t="s">
         <v>70</v>
@@ -48724,7 +48745,7 @@
     </row>
     <row r="1673" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1673" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="B1673" s="10" t="s">
         <v>71</v>
@@ -48738,7 +48759,7 @@
     </row>
     <row r="1674" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1674" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="B1674" s="10" t="s">
         <v>72</v>
@@ -48752,7 +48773,7 @@
     </row>
     <row r="1675" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1675" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="B1675" s="10" t="s">
         <v>73</v>
@@ -48766,7 +48787,7 @@
     </row>
     <row r="1676" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1676" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="B1676" s="10" t="s">
         <v>69</v>
@@ -48780,7 +48801,7 @@
     </row>
     <row r="1677" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1677" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="B1677" s="10" t="s">
         <v>70</v>
@@ -48794,7 +48815,7 @@
     </row>
     <row r="1678" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1678" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="B1678" s="10" t="s">
         <v>71</v>
@@ -48808,7 +48829,7 @@
     </row>
     <row r="1679" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1679" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="B1679" s="10" t="s">
         <v>72</v>
@@ -48822,7 +48843,7 @@
     </row>
     <row r="1680" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1680" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="B1680" s="10" t="s">
         <v>73</v>
@@ -48836,7 +48857,7 @@
     </row>
     <row r="1681" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1681" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="B1681" s="10" t="s">
         <v>69</v>
@@ -48850,7 +48871,7 @@
     </row>
     <row r="1682" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1682" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="B1682" s="10" t="s">
         <v>70</v>
@@ -48864,7 +48885,7 @@
     </row>
     <row r="1683" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1683" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="B1683" s="10" t="s">
         <v>71</v>
@@ -48878,7 +48899,7 @@
     </row>
     <row r="1684" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1684" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="B1684" s="10" t="s">
         <v>72</v>
@@ -48892,7 +48913,7 @@
     </row>
     <row r="1685" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1685" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="B1685" s="10" t="s">
         <v>73</v>
@@ -48906,7 +48927,7 @@
     </row>
     <row r="1686" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1686" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="B1686" s="10" t="s">
         <v>69</v>
@@ -48920,7 +48941,7 @@
     </row>
     <row r="1687" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1687" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="B1687" s="10" t="s">
         <v>70</v>
@@ -48934,7 +48955,7 @@
     </row>
     <row r="1688" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1688" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="B1688" s="10" t="s">
         <v>71</v>
@@ -48948,7 +48969,7 @@
     </row>
     <row r="1689" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1689" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="B1689" s="10" t="s">
         <v>72</v>
@@ -48962,7 +48983,7 @@
     </row>
     <row r="1690" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1690" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="B1690" s="10" t="s">
         <v>73</v>
@@ -48976,7 +48997,7 @@
     </row>
     <row r="1691" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1691" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="B1691" s="10" t="s">
         <v>69</v>
@@ -48990,7 +49011,7 @@
     </row>
     <row r="1692" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1692" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B1692" s="10" t="s">
         <v>70</v>
@@ -49004,7 +49025,7 @@
     </row>
     <row r="1693" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1693" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B1693" s="10" t="s">
         <v>71</v>
@@ -49018,7 +49039,7 @@
     </row>
     <row r="1694" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1694" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="B1694" s="10" t="s">
         <v>72</v>
@@ -49032,7 +49053,7 @@
     </row>
     <row r="1695" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1695" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="B1695" s="10" t="s">
         <v>73</v>
@@ -49046,7 +49067,7 @@
     </row>
     <row r="1696" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1696" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="B1696" s="10" t="s">
         <v>69</v>
@@ -49060,7 +49081,7 @@
     </row>
     <row r="1697" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1697" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="B1697" s="10" t="s">
         <v>70</v>
@@ -49074,7 +49095,7 @@
     </row>
     <row r="1698" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1698" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="B1698" s="10" t="s">
         <v>71</v>
@@ -49088,7 +49109,7 @@
     </row>
     <row r="1699" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1699" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="B1699" s="10" t="s">
         <v>72</v>
@@ -49102,7 +49123,7 @@
     </row>
     <row r="1700" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1700" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="B1700" s="10" t="s">
         <v>73</v>
@@ -49116,7 +49137,7 @@
     </row>
     <row r="1701" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1701" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="B1701" s="10" t="s">
         <v>69</v>
@@ -49130,7 +49151,7 @@
     </row>
     <row r="1702" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1702" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="B1702" s="10" t="s">
         <v>70</v>
@@ -49144,7 +49165,7 @@
     </row>
     <row r="1703" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1703" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="B1703" s="10" t="s">
         <v>71</v>
@@ -49158,7 +49179,7 @@
     </row>
     <row r="1704" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1704" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="B1704" s="10" t="s">
         <v>72</v>
@@ -49172,7 +49193,7 @@
     </row>
     <row r="1705" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1705" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="B1705" s="10" t="s">
         <v>73</v>
@@ -49186,7 +49207,7 @@
     </row>
     <row r="1706" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1706" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="B1706" s="10" t="s">
         <v>69</v>
@@ -49200,7 +49221,7 @@
     </row>
     <row r="1707" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1707" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="B1707" s="10" t="s">
         <v>70</v>
@@ -49214,7 +49235,7 @@
     </row>
     <row r="1708" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1708" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="B1708" s="10" t="s">
         <v>71</v>
@@ -49228,7 +49249,7 @@
     </row>
     <row r="1709" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1709" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="B1709" s="10" t="s">
         <v>72</v>
@@ -49242,7 +49263,7 @@
     </row>
     <row r="1710" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1710" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="B1710" s="10" t="s">
         <v>73</v>
@@ -49256,7 +49277,7 @@
     </row>
     <row r="1711" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1711" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="B1711" s="10" t="s">
         <v>69</v>
@@ -49270,7 +49291,7 @@
     </row>
     <row r="1712" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1712" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="B1712" s="10" t="s">
         <v>70</v>
@@ -49284,7 +49305,7 @@
     </row>
     <row r="1713" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1713" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="B1713" s="10" t="s">
         <v>71</v>
@@ -49298,7 +49319,7 @@
     </row>
     <row r="1714" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1714" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="B1714" s="10" t="s">
         <v>72</v>
@@ -49312,7 +49333,7 @@
     </row>
     <row r="1715" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1715" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="B1715" s="10" t="s">
         <v>73</v>
@@ -49326,7 +49347,7 @@
     </row>
     <row r="1716" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1716" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="B1716" s="10" t="s">
         <v>69</v>
@@ -49340,7 +49361,7 @@
     </row>
     <row r="1717" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1717" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="B1717" s="10" t="s">
         <v>70</v>
@@ -49354,7 +49375,7 @@
     </row>
     <row r="1718" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1718" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="B1718" s="10" t="s">
         <v>71</v>
@@ -49368,7 +49389,7 @@
     </row>
     <row r="1719" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1719" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="B1719" s="10" t="s">
         <v>72</v>
@@ -49382,7 +49403,7 @@
     </row>
     <row r="1720" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1720" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="B1720" s="10" t="s">
         <v>73</v>
@@ -49396,7 +49417,7 @@
     </row>
     <row r="1721" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1721" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="B1721" s="10" t="s">
         <v>69</v>
@@ -49410,7 +49431,7 @@
     </row>
     <row r="1722" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1722" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="B1722" s="10" t="s">
         <v>70</v>
@@ -49424,7 +49445,7 @@
     </row>
     <row r="1723" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1723" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="B1723" s="10" t="s">
         <v>71</v>
@@ -49438,7 +49459,7 @@
     </row>
     <row r="1724" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1724" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="B1724" s="10" t="s">
         <v>72</v>
@@ -49452,7 +49473,7 @@
     </row>
     <row r="1725" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1725" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="B1725" s="10" t="s">
         <v>73</v>
@@ -49466,7 +49487,7 @@
     </row>
     <row r="1726" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1726" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="B1726" s="10" t="s">
         <v>69</v>
@@ -49480,7 +49501,7 @@
     </row>
     <row r="1727" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1727" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="B1727" s="10" t="s">
         <v>70</v>
@@ -49494,7 +49515,7 @@
     </row>
     <row r="1728" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1728" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="B1728" s="10" t="s">
         <v>71</v>
@@ -49508,7 +49529,7 @@
     </row>
     <row r="1729" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1729" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="B1729" s="10" t="s">
         <v>72</v>
@@ -49522,7 +49543,7 @@
     </row>
     <row r="1730" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1730" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="B1730" s="10" t="s">
         <v>73</v>
@@ -49536,7 +49557,7 @@
     </row>
     <row r="1731" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1731" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="B1731" s="10" t="s">
         <v>69</v>
@@ -49550,7 +49571,7 @@
     </row>
     <row r="1732" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1732" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="B1732" s="10" t="s">
         <v>70</v>
@@ -49564,7 +49585,7 @@
     </row>
     <row r="1733" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1733" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="B1733" s="10" t="s">
         <v>71</v>
@@ -49578,7 +49599,7 @@
     </row>
     <row r="1734" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1734" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="B1734" s="10" t="s">
         <v>72</v>
@@ -49592,7 +49613,7 @@
     </row>
     <row r="1735" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1735" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="B1735" s="10" t="s">
         <v>73</v>
@@ -49606,7 +49627,7 @@
     </row>
     <row r="1736" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1736" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="B1736" s="10" t="s">
         <v>69</v>
@@ -49620,7 +49641,7 @@
     </row>
     <row r="1737" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1737" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="B1737" s="10" t="s">
         <v>70</v>
@@ -49634,7 +49655,7 @@
     </row>
     <row r="1738" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1738" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="B1738" s="10" t="s">
         <v>71</v>
@@ -49648,7 +49669,7 @@
     </row>
     <row r="1739" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1739" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="B1739" s="10" t="s">
         <v>72</v>
@@ -49662,7 +49683,7 @@
     </row>
     <row r="1740" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1740" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="B1740" s="10" t="s">
         <v>73</v>
@@ -49676,7 +49697,7 @@
     </row>
     <row r="1741" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1741" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="B1741" s="10" t="s">
         <v>69</v>
@@ -49690,7 +49711,7 @@
     </row>
     <row r="1742" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1742" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="B1742" s="10" t="s">
         <v>70</v>
@@ -49704,7 +49725,7 @@
     </row>
     <row r="1743" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1743" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="B1743" s="10" t="s">
         <v>71</v>
@@ -49718,7 +49739,7 @@
     </row>
     <row r="1744" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1744" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="B1744" s="10" t="s">
         <v>72</v>
@@ -49732,7 +49753,7 @@
     </row>
     <row r="1745" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1745" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="B1745" s="10" t="s">
         <v>73</v>
@@ -49746,7 +49767,7 @@
     </row>
     <row r="1746" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1746" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="B1746" s="10" t="s">
         <v>69</v>
@@ -49760,7 +49781,7 @@
     </row>
     <row r="1747" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1747" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="B1747" s="10" t="s">
         <v>70</v>
@@ -49774,7 +49795,7 @@
     </row>
     <row r="1748" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1748" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="B1748" s="10" t="s">
         <v>71</v>
@@ -49788,7 +49809,7 @@
     </row>
     <row r="1749" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1749" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="B1749" s="10" t="s">
         <v>72</v>
@@ -49802,7 +49823,7 @@
     </row>
     <row r="1750" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1750" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="B1750" s="10" t="s">
         <v>73</v>
@@ -49816,7 +49837,7 @@
     </row>
     <row r="1751" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1751" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="B1751" s="10" t="s">
         <v>69</v>
@@ -49830,7 +49851,7 @@
     </row>
     <row r="1752" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1752" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="B1752" s="10" t="s">
         <v>70</v>
@@ -49844,7 +49865,7 @@
     </row>
     <row r="1753" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1753" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="B1753" s="10" t="s">
         <v>71</v>
@@ -49858,7 +49879,7 @@
     </row>
     <row r="1754" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1754" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="B1754" s="10" t="s">
         <v>72</v>
@@ -49872,7 +49893,7 @@
     </row>
     <row r="1755" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1755" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="B1755" s="10" t="s">
         <v>73</v>
@@ -49886,7 +49907,7 @@
     </row>
     <row r="1756" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1756" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="B1756" s="10" t="s">
         <v>69</v>
@@ -49900,7 +49921,7 @@
     </row>
     <row r="1757" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1757" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="B1757" s="10" t="s">
         <v>70</v>
@@ -49914,7 +49935,7 @@
     </row>
     <row r="1758" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1758" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="B1758" s="10" t="s">
         <v>71</v>
@@ -49928,7 +49949,7 @@
     </row>
     <row r="1759" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1759" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="B1759" s="10" t="s">
         <v>72</v>
@@ -49942,7 +49963,7 @@
     </row>
     <row r="1760" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1760" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="B1760" s="10" t="s">
         <v>73</v>
@@ -49956,7 +49977,7 @@
     </row>
     <row r="1761" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1761" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="B1761" s="10" t="s">
         <v>69</v>
@@ -49970,7 +49991,7 @@
     </row>
     <row r="1762" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1762" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="B1762" s="10" t="s">
         <v>70</v>
@@ -49984,7 +50005,7 @@
     </row>
     <row r="1763" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1763" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="B1763" s="10" t="s">
         <v>71</v>
@@ -49998,7 +50019,7 @@
     </row>
     <row r="1764" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1764" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="B1764" s="10" t="s">
         <v>72</v>
@@ -50012,7 +50033,7 @@
     </row>
     <row r="1765" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1765" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="B1765" s="10" t="s">
         <v>73</v>
@@ -50026,7 +50047,7 @@
     </row>
     <row r="1766" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1766" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="B1766" s="10" t="s">
         <v>69</v>
@@ -50040,7 +50061,7 @@
     </row>
     <row r="1767" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1767" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="B1767" s="10" t="s">
         <v>70</v>
@@ -50054,7 +50075,7 @@
     </row>
     <row r="1768" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1768" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="B1768" s="10" t="s">
         <v>71</v>
@@ -50068,7 +50089,7 @@
     </row>
     <row r="1769" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1769" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="B1769" s="10" t="s">
         <v>72</v>
@@ -50082,7 +50103,7 @@
     </row>
     <row r="1770" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1770" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="B1770" s="10" t="s">
         <v>73</v>
@@ -50096,7 +50117,7 @@
     </row>
     <row r="1771" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1771" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="B1771" s="10" t="s">
         <v>69</v>
@@ -50110,7 +50131,7 @@
     </row>
     <row r="1772" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1772" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="B1772" s="10" t="s">
         <v>70</v>
@@ -50124,7 +50145,7 @@
     </row>
     <row r="1773" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1773" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="B1773" s="10" t="s">
         <v>71</v>
@@ -50138,7 +50159,7 @@
     </row>
     <row r="1774" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1774" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="B1774" s="10" t="s">
         <v>72</v>
@@ -50152,7 +50173,7 @@
     </row>
     <row r="1775" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1775" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="B1775" s="10" t="s">
         <v>73</v>
@@ -50166,7 +50187,7 @@
     </row>
     <row r="1776" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1776" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="B1776" s="10" t="s">
         <v>69</v>
@@ -50180,7 +50201,7 @@
     </row>
     <row r="1777" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1777" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="B1777" s="10" t="s">
         <v>70</v>
@@ -50194,7 +50215,7 @@
     </row>
     <row r="1778" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1778" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="B1778" s="10" t="s">
         <v>71</v>
@@ -50208,7 +50229,7 @@
     </row>
     <row r="1779" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1779" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="B1779" s="10" t="s">
         <v>72</v>
@@ -50222,7 +50243,7 @@
     </row>
     <row r="1780" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1780" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="B1780" s="10" t="s">
         <v>73</v>
@@ -50236,7 +50257,7 @@
     </row>
     <row r="1781" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1781" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="B1781" s="10" t="s">
         <v>69</v>
@@ -50250,7 +50271,7 @@
     </row>
     <row r="1782" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1782" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="B1782" s="10" t="s">
         <v>70</v>
@@ -50264,7 +50285,7 @@
     </row>
     <row r="1783" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1783" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="B1783" s="10" t="s">
         <v>71</v>
@@ -50278,7 +50299,7 @@
     </row>
     <row r="1784" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1784" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="B1784" s="10" t="s">
         <v>72</v>
@@ -50292,7 +50313,7 @@
     </row>
     <row r="1785" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1785" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="B1785" s="10" t="s">
         <v>73</v>
@@ -50306,7 +50327,7 @@
     </row>
     <row r="1786" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1786" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="B1786" s="10" t="s">
         <v>69</v>
@@ -50320,7 +50341,7 @@
     </row>
     <row r="1787" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1787" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="B1787" s="10" t="s">
         <v>70</v>
@@ -50334,7 +50355,7 @@
     </row>
     <row r="1788" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1788" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="B1788" s="10" t="s">
         <v>71</v>
@@ -50348,7 +50369,7 @@
     </row>
     <row r="1789" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1789" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="B1789" s="10" t="s">
         <v>72</v>
@@ -50362,7 +50383,7 @@
     </row>
     <row r="1790" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1790" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="B1790" s="10" t="s">
         <v>73</v>
@@ -50376,7 +50397,7 @@
     </row>
     <row r="1791" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1791" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="B1791" s="10" t="s">
         <v>69</v>
@@ -50390,7 +50411,7 @@
     </row>
     <row r="1792" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1792" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="B1792" s="10" t="s">
         <v>70</v>
@@ -50404,7 +50425,7 @@
     </row>
     <row r="1793" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1793" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="B1793" s="10" t="s">
         <v>71</v>
@@ -50418,7 +50439,7 @@
     </row>
     <row r="1794" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1794" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="B1794" s="10" t="s">
         <v>72</v>
@@ -50432,7 +50453,7 @@
     </row>
     <row r="1795" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1795" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="B1795" s="10" t="s">
         <v>73</v>
@@ -50446,7 +50467,7 @@
     </row>
     <row r="1796" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1796" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="B1796" s="10" t="s">
         <v>69</v>
@@ -50460,7 +50481,7 @@
     </row>
     <row r="1797" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1797" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="B1797" s="10" t="s">
         <v>70</v>
@@ -50474,7 +50495,7 @@
     </row>
     <row r="1798" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1798" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="B1798" s="10" t="s">
         <v>71</v>
@@ -50488,7 +50509,7 @@
     </row>
     <row r="1799" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1799" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="B1799" s="10" t="s">
         <v>72</v>
@@ -50502,7 +50523,7 @@
     </row>
     <row r="1800" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1800" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="B1800" s="10" t="s">
         <v>73</v>
@@ -50516,7 +50537,7 @@
     </row>
     <row r="1801" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1801" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="B1801" s="10" t="s">
         <v>69</v>
@@ -50530,7 +50551,7 @@
     </row>
     <row r="1802" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1802" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="B1802" s="10" t="s">
         <v>70</v>
@@ -50544,7 +50565,7 @@
     </row>
     <row r="1803" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1803" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="B1803" s="10" t="s">
         <v>71</v>
@@ -50558,7 +50579,7 @@
     </row>
     <row r="1804" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1804" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="B1804" s="10" t="s">
         <v>72</v>
@@ -50572,7 +50593,7 @@
     </row>
     <row r="1805" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1805" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="B1805" s="10" t="s">
         <v>73</v>
@@ -50586,7 +50607,7 @@
     </row>
     <row r="1806" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1806" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="B1806" s="10" t="s">
         <v>69</v>
@@ -50600,7 +50621,7 @@
     </row>
     <row r="1807" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1807" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="B1807" s="10" t="s">
         <v>70</v>
@@ -50614,7 +50635,7 @@
     </row>
     <row r="1808" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1808" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="B1808" s="10" t="s">
         <v>71</v>
@@ -50628,7 +50649,7 @@
     </row>
     <row r="1809" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1809" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="B1809" s="10" t="s">
         <v>72</v>
@@ -50642,7 +50663,7 @@
     </row>
     <row r="1810" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1810" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="B1810" s="10" t="s">
         <v>73</v>
@@ -50656,7 +50677,7 @@
     </row>
     <row r="1811" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1811" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="B1811" s="10" t="s">
         <v>69</v>
@@ -50670,7 +50691,7 @@
     </row>
     <row r="1812" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1812" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="B1812" s="10" t="s">
         <v>70</v>
@@ -50684,7 +50705,7 @@
     </row>
     <row r="1813" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1813" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="B1813" s="10" t="s">
         <v>71</v>
@@ -50698,7 +50719,7 @@
     </row>
     <row r="1814" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1814" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="B1814" s="10" t="s">
         <v>72</v>
@@ -50712,7 +50733,7 @@
     </row>
     <row r="1815" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1815" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="B1815" s="10" t="s">
         <v>73</v>
@@ -50726,7 +50747,7 @@
     </row>
     <row r="1816" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1816" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="B1816" s="10" t="s">
         <v>69</v>
@@ -50740,7 +50761,7 @@
     </row>
     <row r="1817" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1817" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="B1817" s="10" t="s">
         <v>70</v>
@@ -50754,7 +50775,7 @@
     </row>
     <row r="1818" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1818" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="B1818" s="10" t="s">
         <v>71</v>
@@ -50768,7 +50789,7 @@
     </row>
     <row r="1819" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1819" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="B1819" s="10" t="s">
         <v>72</v>
@@ -50782,7 +50803,7 @@
     </row>
     <row r="1820" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1820" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="B1820" s="10" t="s">
         <v>73</v>
@@ -50796,7 +50817,7 @@
     </row>
     <row r="1821" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1821" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="B1821" s="10" t="s">
         <v>69</v>
@@ -50810,7 +50831,7 @@
     </row>
     <row r="1822" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1822" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="B1822" s="10" t="s">
         <v>70</v>
@@ -50824,7 +50845,7 @@
     </row>
     <row r="1823" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1823" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="B1823" s="10" t="s">
         <v>71</v>
@@ -50838,7 +50859,7 @@
     </row>
     <row r="1824" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1824" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="B1824" s="10" t="s">
         <v>72</v>
@@ -50852,7 +50873,7 @@
     </row>
     <row r="1825" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1825" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="B1825" s="10" t="s">
         <v>73</v>
@@ -50866,7 +50887,7 @@
     </row>
     <row r="1826" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1826" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="B1826" s="10" t="s">
         <v>69</v>
@@ -50880,7 +50901,7 @@
     </row>
     <row r="1827" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1827" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="B1827" s="10" t="s">
         <v>70</v>
@@ -50894,7 +50915,7 @@
     </row>
     <row r="1828" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1828" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="B1828" s="10" t="s">
         <v>71</v>
@@ -50908,7 +50929,7 @@
     </row>
     <row r="1829" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1829" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="B1829" s="10" t="s">
         <v>72</v>
@@ -50922,7 +50943,7 @@
     </row>
     <row r="1830" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1830" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="B1830" s="10" t="s">
         <v>73</v>
@@ -50936,7 +50957,7 @@
     </row>
     <row r="1831" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1831" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="B1831" s="10" t="s">
         <v>69</v>
@@ -50950,7 +50971,7 @@
     </row>
     <row r="1832" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1832" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="B1832" s="10" t="s">
         <v>70</v>
@@ -50964,7 +50985,7 @@
     </row>
     <row r="1833" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1833" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="B1833" s="10" t="s">
         <v>71</v>
@@ -50978,7 +50999,7 @@
     </row>
     <row r="1834" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1834" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="B1834" s="10" t="s">
         <v>72</v>
@@ -50992,7 +51013,7 @@
     </row>
     <row r="1835" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1835" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="B1835" s="10" t="s">
         <v>73</v>
@@ -51006,7 +51027,7 @@
     </row>
     <row r="1836" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1836" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="B1836" s="10" t="s">
         <v>69</v>
@@ -51020,7 +51041,7 @@
     </row>
     <row r="1837" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1837" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="B1837" s="10" t="s">
         <v>70</v>
@@ -51034,7 +51055,7 @@
     </row>
     <row r="1838" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1838" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="B1838" s="10" t="s">
         <v>71</v>
@@ -51048,7 +51069,7 @@
     </row>
     <row r="1839" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1839" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="B1839" s="10" t="s">
         <v>72</v>
@@ -51062,7 +51083,7 @@
     </row>
     <row r="1840" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1840" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="B1840" s="10" t="s">
         <v>73</v>
@@ -51076,7 +51097,7 @@
     </row>
     <row r="1841" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1841" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="B1841" s="10" t="s">
         <v>69</v>
@@ -51090,7 +51111,7 @@
     </row>
     <row r="1842" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1842" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="B1842" s="10" t="s">
         <v>70</v>
@@ -51104,7 +51125,7 @@
     </row>
     <row r="1843" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1843" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="B1843" s="10" t="s">
         <v>71</v>
@@ -51118,7 +51139,7 @@
     </row>
     <row r="1844" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1844" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="B1844" s="10" t="s">
         <v>72</v>
@@ -51132,7 +51153,7 @@
     </row>
     <row r="1845" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1845" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="B1845" s="10" t="s">
         <v>73</v>
@@ -51146,7 +51167,7 @@
     </row>
     <row r="1846" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1846" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="B1846" s="10" t="s">
         <v>69</v>
@@ -51160,7 +51181,7 @@
     </row>
     <row r="1847" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1847" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="B1847" s="10" t="s">
         <v>70</v>
@@ -51174,7 +51195,7 @@
     </row>
     <row r="1848" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1848" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="B1848" s="10" t="s">
         <v>71</v>
@@ -51188,7 +51209,7 @@
     </row>
     <row r="1849" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1849" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="B1849" s="10" t="s">
         <v>72</v>
@@ -51202,7 +51223,7 @@
     </row>
     <row r="1850" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1850" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="B1850" s="10" t="s">
         <v>73</v>
@@ -51216,7 +51237,7 @@
     </row>
     <row r="1851" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1851" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="B1851" s="10" t="s">
         <v>69</v>
@@ -51230,7 +51251,7 @@
     </row>
     <row r="1852" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1852" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="B1852" s="10" t="s">
         <v>70</v>
@@ -51244,7 +51265,7 @@
     </row>
     <row r="1853" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1853" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="B1853" s="10" t="s">
         <v>71</v>
@@ -51258,7 +51279,7 @@
     </row>
     <row r="1854" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1854" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="B1854" s="10" t="s">
         <v>72</v>
@@ -51272,7 +51293,7 @@
     </row>
     <row r="1855" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1855" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="B1855" s="10" t="s">
         <v>73</v>
@@ -51286,7 +51307,7 @@
     </row>
     <row r="1856" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1856" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="B1856" s="10" t="s">
         <v>69</v>
@@ -51300,7 +51321,7 @@
     </row>
     <row r="1857" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1857" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="B1857" s="10" t="s">
         <v>70</v>
@@ -51314,7 +51335,7 @@
     </row>
     <row r="1858" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1858" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="B1858" s="10" t="s">
         <v>71</v>
@@ -51328,7 +51349,7 @@
     </row>
     <row r="1859" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1859" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="B1859" s="10" t="s">
         <v>72</v>
@@ -51342,7 +51363,7 @@
     </row>
     <row r="1860" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1860" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="B1860" s="10" t="s">
         <v>73</v>
@@ -51356,7 +51377,7 @@
     </row>
     <row r="1861" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1861" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="B1861" s="10" t="s">
         <v>69</v>
@@ -51370,7 +51391,7 @@
     </row>
     <row r="1862" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1862" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="B1862" s="10" t="s">
         <v>70</v>
@@ -51384,7 +51405,7 @@
     </row>
     <row r="1863" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1863" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="B1863" s="10" t="s">
         <v>71</v>
@@ -51398,7 +51419,7 @@
     </row>
     <row r="1864" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1864" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="B1864" s="10" t="s">
         <v>72</v>
@@ -51412,7 +51433,7 @@
     </row>
     <row r="1865" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1865" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="B1865" s="10" t="s">
         <v>73</v>
@@ -51426,7 +51447,7 @@
     </row>
     <row r="1866" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1866" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="B1866" s="10" t="s">
         <v>69</v>
@@ -51440,7 +51461,7 @@
     </row>
     <row r="1867" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1867" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="B1867" s="10" t="s">
         <v>70</v>
@@ -51454,7 +51475,7 @@
     </row>
     <row r="1868" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1868" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="B1868" s="10" t="s">
         <v>71</v>
@@ -51468,7 +51489,7 @@
     </row>
     <row r="1869" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1869" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="B1869" s="10" t="s">
         <v>72</v>
@@ -51482,7 +51503,7 @@
     </row>
     <row r="1870" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1870" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="B1870" s="10" t="s">
         <v>73</v>
@@ -51496,7 +51517,7 @@
     </row>
     <row r="1871" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1871" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="B1871" s="10" t="s">
         <v>69</v>
@@ -51510,7 +51531,7 @@
     </row>
     <row r="1872" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1872" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="B1872" s="10" t="s">
         <v>70</v>
@@ -51524,7 +51545,7 @@
     </row>
     <row r="1873" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1873" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="B1873" s="10" t="s">
         <v>71</v>
@@ -51538,7 +51559,7 @@
     </row>
     <row r="1874" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1874" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="B1874" s="10" t="s">
         <v>72</v>
@@ -51552,7 +51573,7 @@
     </row>
     <row r="1875" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1875" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="B1875" s="10" t="s">
         <v>73</v>
@@ -51566,7 +51587,7 @@
     </row>
     <row r="1876" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1876" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="B1876" s="10" t="s">
         <v>69</v>
@@ -51580,7 +51601,7 @@
     </row>
     <row r="1877" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1877" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="B1877" s="10" t="s">
         <v>70</v>
@@ -51594,7 +51615,7 @@
     </row>
     <row r="1878" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1878" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="B1878" s="10" t="s">
         <v>71</v>
@@ -51608,7 +51629,7 @@
     </row>
     <row r="1879" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1879" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="B1879" s="10" t="s">
         <v>72</v>
@@ -51622,7 +51643,7 @@
     </row>
     <row r="1880" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1880" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="B1880" s="10" t="s">
         <v>73</v>
@@ -51636,7 +51657,7 @@
     </row>
     <row r="1881" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1881" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="B1881" s="10" t="s">
         <v>69</v>
@@ -51650,7 +51671,7 @@
     </row>
     <row r="1882" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1882" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="B1882" s="10" t="s">
         <v>70</v>
@@ -51664,7 +51685,7 @@
     </row>
     <row r="1883" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1883" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="B1883" s="10" t="s">
         <v>71</v>
@@ -51678,7 +51699,7 @@
     </row>
     <row r="1884" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1884" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="B1884" s="10" t="s">
         <v>72</v>
@@ -51692,7 +51713,7 @@
     </row>
     <row r="1885" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1885" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="B1885" s="10" t="s">
         <v>73</v>
@@ -51706,7 +51727,7 @@
     </row>
     <row r="1886" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1886" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="B1886" s="10" t="s">
         <v>69</v>
@@ -51720,7 +51741,7 @@
     </row>
     <row r="1887" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1887" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="B1887" s="10" t="s">
         <v>70</v>
@@ -51734,7 +51755,7 @@
     </row>
     <row r="1888" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1888" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="B1888" s="10" t="s">
         <v>71</v>
@@ -51748,7 +51769,7 @@
     </row>
     <row r="1889" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1889" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="B1889" s="10" t="s">
         <v>72</v>
@@ -51762,7 +51783,7 @@
     </row>
     <row r="1890" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1890" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="B1890" s="10" t="s">
         <v>73</v>
@@ -51776,7 +51797,7 @@
     </row>
     <row r="1891" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1891" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="B1891" s="10" t="s">
         <v>69</v>
@@ -51790,7 +51811,7 @@
     </row>
     <row r="1892" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1892" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="B1892" s="10" t="s">
         <v>70</v>
@@ -51804,7 +51825,7 @@
     </row>
     <row r="1893" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1893" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="B1893" s="10" t="s">
         <v>71</v>
@@ -51818,7 +51839,7 @@
     </row>
     <row r="1894" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1894" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="B1894" s="10" t="s">
         <v>72</v>
@@ -51832,7 +51853,7 @@
     </row>
     <row r="1895" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1895" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="B1895" s="10" t="s">
         <v>73</v>
@@ -51846,7 +51867,7 @@
     </row>
     <row r="1896" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1896" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="B1896" s="10" t="s">
         <v>69</v>
@@ -51860,7 +51881,7 @@
     </row>
     <row r="1897" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1897" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="B1897" s="10" t="s">
         <v>70</v>
@@ -51874,7 +51895,7 @@
     </row>
     <row r="1898" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1898" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="B1898" s="10" t="s">
         <v>71</v>
@@ -51888,7 +51909,7 @@
     </row>
     <row r="1899" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1899" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="B1899" s="10" t="s">
         <v>72</v>
@@ -51902,7 +51923,7 @@
     </row>
     <row r="1900" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1900" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="B1900" s="10" t="s">
         <v>73</v>
@@ -51916,7 +51937,7 @@
     </row>
     <row r="1901" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1901" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="B1901" s="10" t="s">
         <v>69</v>
@@ -51930,7 +51951,7 @@
     </row>
     <row r="1902" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1902" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="B1902" s="10" t="s">
         <v>70</v>
@@ -51944,7 +51965,7 @@
     </row>
     <row r="1903" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1903" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="B1903" s="10" t="s">
         <v>71</v>
@@ -51958,7 +51979,7 @@
     </row>
     <row r="1904" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1904" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="B1904" s="10" t="s">
         <v>72</v>
@@ -51972,7 +51993,7 @@
     </row>
     <row r="1905" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1905" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="B1905" s="10" t="s">
         <v>73</v>
@@ -51986,7 +52007,7 @@
     </row>
     <row r="1906" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1906" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="B1906" s="10" t="s">
         <v>69</v>
@@ -52000,7 +52021,7 @@
     </row>
     <row r="1907" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1907" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="B1907" s="10" t="s">
         <v>70</v>
@@ -52014,7 +52035,7 @@
     </row>
     <row r="1908" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1908" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="B1908" s="10" t="s">
         <v>71</v>
@@ -52028,7 +52049,7 @@
     </row>
     <row r="1909" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1909" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="B1909" s="10" t="s">
         <v>72</v>
@@ -52042,7 +52063,7 @@
     </row>
     <row r="1910" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1910" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="B1910" s="10" t="s">
         <v>73</v>
@@ -52056,7 +52077,7 @@
     </row>
     <row r="1911" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1911" t="s">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="B1911" s="10" t="s">
         <v>69</v>
@@ -52070,7 +52091,7 @@
     </row>
     <row r="1912" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1912" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="B1912" s="10" t="s">
         <v>70</v>
@@ -52084,7 +52105,7 @@
     </row>
     <row r="1913" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1913" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="B1913" s="10" t="s">
         <v>71</v>
@@ -52098,7 +52119,7 @@
     </row>
     <row r="1914" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1914" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="B1914" s="10" t="s">
         <v>72</v>
@@ -52112,7 +52133,7 @@
     </row>
     <row r="1915" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1915" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="B1915" s="10" t="s">
         <v>73</v>
@@ -52126,7 +52147,7 @@
     </row>
     <row r="1916" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1916" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="B1916" s="10" t="s">
         <v>69</v>
@@ -52140,7 +52161,7 @@
     </row>
     <row r="1917" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1917" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="B1917" s="10" t="s">
         <v>70</v>
@@ -52154,7 +52175,7 @@
     </row>
     <row r="1918" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1918" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="B1918" s="10" t="s">
         <v>71</v>
@@ -52168,7 +52189,7 @@
     </row>
     <row r="1919" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1919" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="B1919" s="10" t="s">
         <v>72</v>
@@ -52182,7 +52203,7 @@
     </row>
     <row r="1920" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1920" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="B1920" s="10" t="s">
         <v>73</v>
@@ -52196,7 +52217,7 @@
     </row>
     <row r="1921" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1921" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="B1921" s="10" t="s">
         <v>69</v>
@@ -52210,7 +52231,7 @@
     </row>
     <row r="1922" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1922" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="B1922" s="10" t="s">
         <v>70</v>
@@ -52224,7 +52245,7 @@
     </row>
     <row r="1923" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1923" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="B1923" s="10" t="s">
         <v>71</v>
@@ -52238,7 +52259,7 @@
     </row>
     <row r="1924" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1924" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="B1924" s="10" t="s">
         <v>72</v>
@@ -52252,7 +52273,7 @@
     </row>
     <row r="1925" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1925" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="B1925" s="10" t="s">
         <v>73</v>
@@ -52266,7 +52287,7 @@
     </row>
     <row r="1926" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1926" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="B1926" s="10" t="s">
         <v>69</v>
@@ -52280,7 +52301,7 @@
     </row>
     <row r="1927" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1927" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="B1927" s="10" t="s">
         <v>70</v>
@@ -52294,7 +52315,7 @@
     </row>
     <row r="1928" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1928" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="B1928" s="10" t="s">
         <v>71</v>
@@ -52308,7 +52329,7 @@
     </row>
     <row r="1929" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1929" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="B1929" s="10" t="s">
         <v>72</v>
@@ -52322,7 +52343,7 @@
     </row>
     <row r="1930" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1930" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="B1930" s="10" t="s">
         <v>73</v>
@@ -52336,7 +52357,7 @@
     </row>
     <row r="1931" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1931" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="B1931" s="10" t="s">
         <v>69</v>
@@ -52350,7 +52371,7 @@
     </row>
     <row r="1932" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1932" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="B1932" s="10" t="s">
         <v>70</v>
@@ -52364,7 +52385,7 @@
     </row>
     <row r="1933" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1933" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="B1933" s="10" t="s">
         <v>71</v>
@@ -52378,7 +52399,7 @@
     </row>
     <row r="1934" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1934" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="B1934" s="10" t="s">
         <v>72</v>
@@ -52392,7 +52413,7 @@
     </row>
     <row r="1935" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1935" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="B1935" s="10" t="s">
         <v>73</v>
@@ -52406,7 +52427,7 @@
     </row>
     <row r="1936" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1936" t="s">
-        <v>493</v>
+        <v>473</v>
       </c>
       <c r="B1936" s="10" t="s">
         <v>69</v>
@@ -52420,7 +52441,7 @@
     </row>
     <row r="1937" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1937" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="B1937" s="10" t="s">
         <v>70</v>
@@ -52434,7 +52455,7 @@
     </row>
     <row r="1938" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1938" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="B1938" s="10" t="s">
         <v>71</v>
@@ -52448,7 +52469,7 @@
     </row>
     <row r="1939" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1939" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="B1939" s="10" t="s">
         <v>72</v>
@@ -52462,7 +52483,7 @@
     </row>
     <row r="1940" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1940" t="s">
-        <v>494</v>
+        <v>474</v>
       </c>
       <c r="B1940" s="10" t="s">
         <v>73</v>
@@ -52476,7 +52497,7 @@
     </row>
     <row r="1941" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1941" t="s">
-        <v>494</v>
+        <v>474</v>
       </c>
       <c r="B1941" s="10" t="s">
         <v>69</v>
@@ -52490,7 +52511,7 @@
     </row>
     <row r="1942" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1942" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="B1942" s="10" t="s">
         <v>70</v>
@@ -52504,7 +52525,7 @@
     </row>
     <row r="1943" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1943" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="B1943" s="10" t="s">
         <v>71</v>
@@ -52516,1821 +52537,3337 @@
         <v>75</v>
       </c>
     </row>
-    <row r="1944" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1944" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1944" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="B1944" s="10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C1944" s="9" t="s">
-        <v>68</v>
+        <v>509</v>
       </c>
       <c r="D1944" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="1945" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1945" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="B1945" s="10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C1945" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D1945" s="10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="1946" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1946" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="B1946" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1946" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1946" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A1947" t="s">
+        <v>476</v>
+      </c>
+      <c r="B1947" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1947" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D1947" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A1948" t="s">
+        <v>476</v>
+      </c>
+      <c r="B1948" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C1946" s="9" t="s">
+      <c r="C1948" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="D1946" s="10" t="s">
+      <c r="D1948" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="1947" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1947" t="s">
-        <v>495</v>
-      </c>
-      <c r="B1947" s="10" t="s">
+    <row r="1949" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1949" t="s">
+        <v>476</v>
+      </c>
+      <c r="B1949" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C1947" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="D1947" s="10" t="s">
+      <c r="C1949" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1949" s="10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="1948" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1948" t="s">
-        <v>496</v>
-      </c>
-      <c r="B1948" s="10" t="s">
+    <row r="1950" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1950" t="s">
+        <v>476</v>
+      </c>
+      <c r="B1950" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C1948" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="D1948" s="10" t="s">
+      <c r="C1950" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1950" s="10" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="1949" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A1949" t="s">
-        <v>496</v>
-      </c>
-      <c r="B1949" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1949" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1949" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="1950" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A1950" t="s">
-        <v>496</v>
-      </c>
-      <c r="B1950" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1950" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="D1950" s="10" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="1951" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1951" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
       <c r="B1951" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1951" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1951" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A1952" t="s">
+        <v>477</v>
+      </c>
+      <c r="B1952" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1952" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D1952" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A1953" t="s">
+        <v>477</v>
+      </c>
+      <c r="B1953" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C1951" s="9" t="s">
+      <c r="C1953" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="D1951" s="10" t="s">
+      <c r="D1953" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="1952" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1952" t="s">
-        <v>497</v>
-      </c>
-      <c r="B1952" s="10" t="s">
+    <row r="1954" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1954" t="s">
+        <v>477</v>
+      </c>
+      <c r="B1954" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C1952" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="D1952" s="10" t="s">
+      <c r="C1954" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1954" s="10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="1953" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1953" t="s">
-        <v>497</v>
-      </c>
-      <c r="B1953" s="10" t="s">
+    <row r="1955" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1955" t="s">
+        <v>477</v>
+      </c>
+      <c r="B1955" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C1953" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="D1953" s="10" t="s">
+      <c r="C1955" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1955" s="10" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="1954" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A1954" t="s">
-        <v>497</v>
-      </c>
-      <c r="B1954" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1954" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1954" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="1955" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A1955" t="s">
-        <v>497</v>
-      </c>
-      <c r="B1955" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1955" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="D1955" s="10" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="1956" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1956" t="s">
-        <v>497</v>
+        <v>477</v>
       </c>
       <c r="B1956" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1956" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1956" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A1957" t="s">
+        <v>478</v>
+      </c>
+      <c r="B1957" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1957" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D1957" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A1958" t="s">
+        <v>478</v>
+      </c>
+      <c r="B1958" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C1956" s="9" t="s">
+      <c r="C1958" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="D1956" s="10" t="s">
+      <c r="D1958" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="1957" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1957" t="s">
-        <v>498</v>
-      </c>
-      <c r="B1957" s="10" t="s">
+    <row r="1959" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1959" t="s">
+        <v>478</v>
+      </c>
+      <c r="B1959" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C1957" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="D1957" s="10" t="s">
+      <c r="C1959" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1959" s="10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="1958" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1958" t="s">
-        <v>498</v>
-      </c>
-      <c r="B1958" s="10" t="s">
+    <row r="1960" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1960" t="s">
+        <v>478</v>
+      </c>
+      <c r="B1960" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C1958" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="D1958" s="10" t="s">
+      <c r="C1960" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1960" s="10" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="1959" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A1959" t="s">
-        <v>498</v>
-      </c>
-      <c r="B1959" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1959" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1959" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="1960" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A1960" t="s">
-        <v>498</v>
-      </c>
-      <c r="B1960" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1960" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="D1960" s="10" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="1961" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1961" t="s">
-        <v>499</v>
+        <v>478</v>
       </c>
       <c r="B1961" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1961" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1961" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A1962" t="s">
+        <v>479</v>
+      </c>
+      <c r="B1962" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1962" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D1962" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A1963" t="s">
+        <v>479</v>
+      </c>
+      <c r="B1963" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C1961" s="9" t="s">
+      <c r="C1963" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="D1961" s="10" t="s">
+      <c r="D1963" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="1962" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1962" t="s">
-        <v>499</v>
-      </c>
-      <c r="B1962" s="10" t="s">
+    <row r="1964" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1964" t="s">
+        <v>479</v>
+      </c>
+      <c r="B1964" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C1962" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="D1962" s="10" t="s">
+      <c r="C1964" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1964" s="10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="1963" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1963" t="s">
-        <v>499</v>
-      </c>
-      <c r="B1963" s="10" t="s">
+    <row r="1965" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1965" t="s">
+        <v>479</v>
+      </c>
+      <c r="B1965" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C1963" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="D1963" s="10" t="s">
+      <c r="C1965" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1965" s="10" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="1964" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A1964" t="s">
-        <v>499</v>
-      </c>
-      <c r="B1964" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1964" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1964" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="1965" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A1965" t="s">
-        <v>500</v>
-      </c>
-      <c r="B1965" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1965" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="D1965" s="10" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="1966" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1966" t="s">
-        <v>500</v>
+        <v>479</v>
       </c>
       <c r="B1966" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1966" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1966" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A1967" t="s">
+        <v>480</v>
+      </c>
+      <c r="B1967" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1967" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D1967" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A1968" t="s">
+        <v>480</v>
+      </c>
+      <c r="B1968" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C1966" s="9" t="s">
+      <c r="C1968" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="D1966" s="10" t="s">
+      <c r="D1968" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="1967" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1967" t="s">
-        <v>500</v>
-      </c>
-      <c r="B1967" s="10" t="s">
+    <row r="1969" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1969" t="s">
+        <v>480</v>
+      </c>
+      <c r="B1969" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C1967" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="D1967" s="10" t="s">
+      <c r="C1969" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1969" s="10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="1968" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1968" t="s">
-        <v>500</v>
-      </c>
-      <c r="B1968" s="10" t="s">
+    <row r="1970" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1970" t="s">
+        <v>480</v>
+      </c>
+      <c r="B1970" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C1968" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="D1968" s="10" t="s">
+      <c r="C1970" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1970" s="10" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="1969" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A1969" t="s">
-        <v>501</v>
-      </c>
-      <c r="B1969" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1969" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1969" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="1970" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A1970" t="s">
-        <v>501</v>
-      </c>
-      <c r="B1970" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1970" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="D1970" s="10" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="1971" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1971" t="s">
-        <v>501</v>
+        <v>480</v>
       </c>
       <c r="B1971" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1971" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1971" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A1972" t="s">
+        <v>481</v>
+      </c>
+      <c r="B1972" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1972" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D1972" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A1973" t="s">
+        <v>481</v>
+      </c>
+      <c r="B1973" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C1971" s="9" t="s">
+      <c r="C1973" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="D1971" s="10" t="s">
+      <c r="D1973" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="1972" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1972" t="s">
-        <v>501</v>
-      </c>
-      <c r="B1972" s="10" t="s">
+    <row r="1974" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1974" t="s">
+        <v>481</v>
+      </c>
+      <c r="B1974" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C1972" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="D1972" s="10" t="s">
+      <c r="C1974" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1974" s="10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="1973" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1973" t="s">
-        <v>502</v>
-      </c>
-      <c r="B1973" s="10" t="s">
+    <row r="1975" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1975" t="s">
+        <v>481</v>
+      </c>
+      <c r="B1975" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C1973" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="D1973" s="10" t="s">
+      <c r="C1975" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1975" s="10" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="1974" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A1974" t="s">
-        <v>502</v>
-      </c>
-      <c r="B1974" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1974" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1974" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="1975" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A1975" t="s">
-        <v>502</v>
-      </c>
-      <c r="B1975" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1975" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="D1975" s="10" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="1976" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1976" t="s">
-        <v>502</v>
+        <v>481</v>
       </c>
       <c r="B1976" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1976" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1976" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A1977" t="s">
+        <v>482</v>
+      </c>
+      <c r="B1977" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1977" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D1977" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A1978" t="s">
+        <v>482</v>
+      </c>
+      <c r="B1978" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C1976" s="9" t="s">
+      <c r="C1978" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="D1976" s="10" t="s">
+      <c r="D1978" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="1977" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1977" t="s">
-        <v>503</v>
-      </c>
-      <c r="B1977" s="10" t="s">
+    <row r="1979" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1979" t="s">
+        <v>482</v>
+      </c>
+      <c r="B1979" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C1977" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="D1977" s="10" t="s">
+      <c r="C1979" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1979" s="10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="1978" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1978" t="s">
-        <v>503</v>
-      </c>
-      <c r="B1978" s="10" t="s">
+    <row r="1980" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1980" t="s">
+        <v>482</v>
+      </c>
+      <c r="B1980" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C1978" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="D1978" s="10" t="s">
+      <c r="C1980" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1980" s="10" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="1979" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A1979" t="s">
-        <v>503</v>
-      </c>
-      <c r="B1979" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1979" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1979" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="1980" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A1980" t="s">
-        <v>503</v>
-      </c>
-      <c r="B1980" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1980" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="D1980" s="10" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="1981" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1981" t="s">
-        <v>503</v>
+        <v>482</v>
       </c>
       <c r="B1981" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1981" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1981" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A1982" t="s">
+        <v>483</v>
+      </c>
+      <c r="B1982" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1982" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D1982" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A1983" t="s">
+        <v>483</v>
+      </c>
+      <c r="B1983" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C1981" s="9" t="s">
+      <c r="C1983" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="D1981" s="10" t="s">
+      <c r="D1983" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="1982" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1982" t="s">
-        <v>504</v>
-      </c>
-      <c r="B1982" s="10" t="s">
+    <row r="1984" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1984" t="s">
+        <v>483</v>
+      </c>
+      <c r="B1984" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C1982" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="D1982" s="10" t="s">
+      <c r="C1984" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1984" s="10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="1983" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1983" t="s">
-        <v>504</v>
-      </c>
-      <c r="B1983" s="10" t="s">
+    <row r="1985" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1985" t="s">
+        <v>483</v>
+      </c>
+      <c r="B1985" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C1983" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="D1983" s="10" t="s">
+      <c r="C1985" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1985" s="10" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="1984" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A1984" t="s">
-        <v>504</v>
-      </c>
-      <c r="B1984" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1984" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1984" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="1985" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A1985" t="s">
-        <v>504</v>
-      </c>
-      <c r="B1985" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1985" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="D1985" s="10" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="1986" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1986" t="s">
-        <v>505</v>
+        <v>483</v>
       </c>
       <c r="B1986" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1986" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1986" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A1987" t="s">
+        <v>484</v>
+      </c>
+      <c r="B1987" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1987" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D1987" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A1988" t="s">
+        <v>484</v>
+      </c>
+      <c r="B1988" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C1986" s="9" t="s">
+      <c r="C1988" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="D1986" s="10" t="s">
+      <c r="D1988" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="1987" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1987" t="s">
-        <v>505</v>
-      </c>
-      <c r="B1987" s="10" t="s">
+    <row r="1989" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1989" t="s">
+        <v>484</v>
+      </c>
+      <c r="B1989" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C1987" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="D1987" s="10" t="s">
+      <c r="C1989" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1989" s="10" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="1988" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1988" t="s">
-        <v>505</v>
-      </c>
-      <c r="B1988" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1988" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="D1988" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="1989" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A1989" t="s">
-        <v>505</v>
-      </c>
-      <c r="B1989" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1989" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1989" s="10" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="1990" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1990" t="s">
-        <v>136</v>
+        <v>484</v>
       </c>
       <c r="B1990" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C1990" s="9" t="s">
         <v>509</v>
       </c>
       <c r="D1990" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="1991" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1991" t="s">
-        <v>136</v>
+        <v>484</v>
       </c>
       <c r="B1991" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C1991" s="9" t="s">
-        <v>509</v>
+        <v>68</v>
       </c>
       <c r="D1991" s="10" t="s">
-        <v>77</v>
+        <v>317</v>
       </c>
     </row>
     <row r="1992" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1992" t="s">
-        <v>136</v>
+        <v>485</v>
       </c>
       <c r="B1992" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C1992" s="9" t="s">
-        <v>68</v>
+        <v>510</v>
       </c>
       <c r="D1992" s="10" t="s">
-        <v>317</v>
+        <v>74</v>
       </c>
     </row>
     <row r="1993" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1993" t="s">
-        <v>136</v>
+        <v>485</v>
       </c>
       <c r="B1993" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C1993" s="9" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D1993" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="1994" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1994" t="s">
-        <v>137</v>
+        <v>485</v>
       </c>
       <c r="B1994" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C1994" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D1994" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="1995" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1995" t="s">
-        <v>137</v>
+        <v>485</v>
       </c>
       <c r="B1995" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C1995" s="9" t="s">
         <v>509</v>
       </c>
       <c r="D1995" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="1996" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1996" t="s">
-        <v>137</v>
+        <v>485</v>
       </c>
       <c r="B1996" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C1996" s="9" t="s">
-        <v>509</v>
+        <v>68</v>
       </c>
       <c r="D1996" s="10" t="s">
-        <v>77</v>
+        <v>317</v>
       </c>
     </row>
     <row r="1997" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1997" t="s">
-        <v>137</v>
+        <v>486</v>
       </c>
       <c r="B1997" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C1997" s="9" t="s">
-        <v>68</v>
+        <v>510</v>
       </c>
       <c r="D1997" s="10" t="s">
-        <v>317</v>
+        <v>74</v>
       </c>
     </row>
     <row r="1998" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1998" t="s">
-        <v>206</v>
+        <v>486</v>
       </c>
       <c r="B1998" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C1998" s="9" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D1998" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="1999" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1999" t="s">
-        <v>206</v>
+        <v>486</v>
       </c>
       <c r="B1999" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C1999" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D1999" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2000" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2000" t="s">
-        <v>206</v>
+        <v>486</v>
       </c>
       <c r="B2000" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C2000" s="9" t="s">
         <v>509</v>
       </c>
       <c r="D2000" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2001" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2001" t="s">
-        <v>206</v>
+        <v>486</v>
       </c>
       <c r="B2001" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C2001" s="9" t="s">
-        <v>509</v>
+        <v>68</v>
       </c>
       <c r="D2001" s="10" t="s">
-        <v>77</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2002" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2002" t="s">
-        <v>207</v>
+        <v>487</v>
       </c>
       <c r="B2002" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2002" s="9" t="s">
-        <v>68</v>
+        <v>510</v>
       </c>
       <c r="D2002" s="10" t="s">
-        <v>317</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2003" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2003" t="s">
-        <v>207</v>
+        <v>487</v>
       </c>
       <c r="B2003" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2003" s="9" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D2003" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2004" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2004" t="s">
-        <v>207</v>
+        <v>487</v>
       </c>
       <c r="B2004" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2004" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D2004" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2005" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2005" t="s">
-        <v>207</v>
+        <v>487</v>
       </c>
       <c r="B2005" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C2005" s="9" t="s">
         <v>509</v>
       </c>
       <c r="D2005" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2006" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2006" t="s">
-        <v>268</v>
+        <v>487</v>
       </c>
       <c r="B2006" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C2006" s="9" t="s">
-        <v>509</v>
+        <v>68</v>
       </c>
       <c r="D2006" s="10" t="s">
-        <v>77</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2007" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2007" t="s">
-        <v>268</v>
+        <v>488</v>
       </c>
       <c r="B2007" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2007" s="9" t="s">
-        <v>68</v>
+        <v>510</v>
       </c>
       <c r="D2007" s="10" t="s">
-        <v>317</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2008" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2008" t="s">
-        <v>268</v>
+        <v>488</v>
       </c>
       <c r="B2008" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2008" s="9" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D2008" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2009" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2009" t="s">
-        <v>268</v>
+        <v>488</v>
       </c>
       <c r="B2009" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2009" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D2009" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2010" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2010" t="s">
-        <v>269</v>
+        <v>488</v>
       </c>
       <c r="B2010" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C2010" s="9" t="s">
         <v>509</v>
       </c>
       <c r="D2010" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2011" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2011" t="s">
-        <v>269</v>
+        <v>488</v>
       </c>
       <c r="B2011" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C2011" s="9" t="s">
-        <v>509</v>
+        <v>68</v>
       </c>
       <c r="D2011" s="10" t="s">
-        <v>77</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2012" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2012" t="s">
-        <v>269</v>
+        <v>489</v>
       </c>
       <c r="B2012" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2012" s="9" t="s">
-        <v>68</v>
+        <v>510</v>
       </c>
       <c r="D2012" s="10" t="s">
-        <v>317</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2013" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2013" t="s">
-        <v>269</v>
+        <v>489</v>
       </c>
       <c r="B2013" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2013" s="9" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D2013" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2014" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2014" t="s">
-        <v>269</v>
+        <v>489</v>
       </c>
       <c r="B2014" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2014" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D2014" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2015" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2015" t="s">
-        <v>315</v>
+        <v>489</v>
       </c>
       <c r="B2015" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C2015" s="9" t="s">
         <v>509</v>
       </c>
       <c r="D2015" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2016" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2016" t="s">
-        <v>315</v>
+        <v>489</v>
       </c>
       <c r="B2016" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C2016" s="9" t="s">
-        <v>509</v>
+        <v>68</v>
       </c>
       <c r="D2016" s="10" t="s">
-        <v>77</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2017" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2017" t="s">
-        <v>315</v>
+        <v>490</v>
       </c>
       <c r="B2017" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2017" s="9" t="s">
-        <v>68</v>
+        <v>510</v>
       </c>
       <c r="D2017" s="10" t="s">
-        <v>317</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2018" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2018" t="s">
-        <v>315</v>
+        <v>490</v>
       </c>
       <c r="B2018" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2018" s="9" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D2018" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2019" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2019" t="s">
-        <v>316</v>
+        <v>490</v>
       </c>
       <c r="B2019" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2019" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D2019" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2020" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2020" t="s">
-        <v>316</v>
+        <v>490</v>
       </c>
       <c r="B2020" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C2020" s="9" t="s">
         <v>509</v>
       </c>
       <c r="D2020" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2021" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2021" t="s">
-        <v>316</v>
+        <v>490</v>
       </c>
       <c r="B2021" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C2021" s="9" t="s">
-        <v>509</v>
+        <v>68</v>
       </c>
       <c r="D2021" s="10" t="s">
-        <v>77</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2022" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2022" t="s">
-        <v>316</v>
+        <v>491</v>
       </c>
       <c r="B2022" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2022" s="9" t="s">
-        <v>68</v>
+        <v>510</v>
       </c>
       <c r="D2022" s="10" t="s">
-        <v>317</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2023" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2023" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="B2023" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2023" s="9" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D2023" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2024" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2024" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="B2024" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2024" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D2024" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2025" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2025" t="s">
+        <v>491</v>
+      </c>
+      <c r="B2025" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2025" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2025" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2026" t="s">
+        <v>491</v>
+      </c>
+      <c r="B2026" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2026" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2026" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2027" t="s">
+        <v>492</v>
+      </c>
+      <c r="B2027" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2027" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D2027" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2028" t="s">
+        <v>492</v>
+      </c>
+      <c r="B2028" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2028" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="D2028" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2029" t="s">
+        <v>492</v>
+      </c>
+      <c r="B2029" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2029" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2029" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2030" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2030" t="s">
+        <v>492</v>
+      </c>
+      <c r="B2030" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2030" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2030" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2031" t="s">
+        <v>492</v>
+      </c>
+      <c r="B2031" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2031" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2031" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2032" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2032" t="s">
+        <v>493</v>
+      </c>
+      <c r="B2032" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2032" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D2032" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2033" t="s">
+        <v>493</v>
+      </c>
+      <c r="B2033" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2033" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="D2033" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2034" t="s">
+        <v>493</v>
+      </c>
+      <c r="B2034" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2034" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2034" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2035" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2035" t="s">
+        <v>493</v>
+      </c>
+      <c r="B2035" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2035" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2035" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2036" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2036" t="s">
+        <v>493</v>
+      </c>
+      <c r="B2036" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2036" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2036" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2037" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2037" t="s">
+        <v>494</v>
+      </c>
+      <c r="B2037" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2037" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D2037" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2038" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2038" t="s">
+        <v>494</v>
+      </c>
+      <c r="B2038" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2038" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="D2038" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2039" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2039" t="s">
+        <v>494</v>
+      </c>
+      <c r="B2039" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2039" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2039" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2040" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2040" t="s">
+        <v>494</v>
+      </c>
+      <c r="B2040" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2040" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2040" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2041" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2041" t="s">
+        <v>494</v>
+      </c>
+      <c r="B2041" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2041" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2041" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2042" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2042" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B2042" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2042" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D2042" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2043" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B2043" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2043" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="D2043" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2044" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2044" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B2044" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2044" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2044" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2045" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2045" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B2045" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2045" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2045" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2046" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2046" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B2046" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2046" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2046" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2047" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2047" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B2047" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2047" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D2047" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2048" s="9" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B2048" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2048" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="D2048" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2049" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2049" s="9" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B2049" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2049" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2049" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2050" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2050" s="9" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B2050" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2050" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2050" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2051" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2051" s="9" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B2051" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2051" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2051" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2052" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2052" s="9" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B2052" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2052" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D2052" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2053" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2053" s="9" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B2053" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2053" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="D2053" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2054" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2054" s="9" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B2054" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2054" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2054" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2055" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2055" s="9" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B2055" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2055" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2055" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2056" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2056" s="9" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B2056" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2056" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2056" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2057" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2057" s="9" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B2057" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2057" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D2057" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2058" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2058" s="9" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B2058" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2058" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="D2058" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2059" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2059" s="9" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B2059" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2059" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2059" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2060" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2060" s="9" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B2060" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2060" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2060" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2061" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2061" s="9" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B2061" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2061" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2061" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2062" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2062" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="B2062" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2062" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D2062" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2063" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2063" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="B2063" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2063" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="D2063" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2064" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2064" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="B2064" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2064" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2064" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2065" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2065" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="B2065" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2065" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2065" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2066" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="B2066" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2066" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2066" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2067" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2067" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="B2067" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2067" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D2067" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2068" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2068" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="B2068" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2068" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="D2068" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2069" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="B2069" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2069" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2069" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2070" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2070" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="B2070" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2070" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2070" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2071" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2071" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="B2071" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2071" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2071" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2072" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2072" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="B2072" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2072" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D2072" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2073" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2073" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="B2073" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2073" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="D2073" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2074" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2074" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="B2074" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2074" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2074" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2075" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2075" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="B2075" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2075" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2075" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2076" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2076" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="B2076" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2076" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2076" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2077" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2077" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="B2077" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2077" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D2077" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2078" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2078" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="B2078" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2078" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="D2078" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2079" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2079" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="B2079" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2079" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2079" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2080" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="B2080" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2080" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2080" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2081" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="B2081" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2081" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2081" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2082" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="B2082" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2082" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D2082" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2083" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="B2083" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2083" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="D2083" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2084" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="B2084" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2084" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2084" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2085" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="B2085" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2085" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2085" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2086" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="B2086" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2086" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2086" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2087" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2087" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="B2087" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2087" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D2087" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2088" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2088" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="B2088" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2088" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="D2088" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2089" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2089" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="B2089" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2089" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2089" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2090" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="B2090" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2090" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2090" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2091" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="B2091" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2091" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2091" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2092" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="B2092" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2092" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D2092" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2093" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2093" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="B2093" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2093" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="D2093" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2094" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="B2094" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2094" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2094" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2095" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2095" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="B2095" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2095" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2095" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2096" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="B2096" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2096" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2096" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2097" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="B2097" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2097" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D2097" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2098" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="B2098" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2098" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="D2098" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2099" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2099" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="B2099" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2099" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2099" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2100" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2100" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="B2100" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2100" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2100" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2101" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="B2101" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2101" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2101" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2102" t="s">
+        <v>503</v>
+      </c>
+      <c r="B2102" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2102" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D2102" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2103" t="s">
+        <v>503</v>
+      </c>
+      <c r="B2103" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2103" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="D2103" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2104" t="s">
+        <v>503</v>
+      </c>
+      <c r="B2104" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2104" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2104" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2105" t="s">
+        <v>503</v>
+      </c>
+      <c r="B2105" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2105" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2105" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2106" t="s">
+        <v>503</v>
+      </c>
+      <c r="B2106" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2106" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2106" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2107" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="B2107" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2107" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D2107" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2108" t="s">
+        <v>504</v>
+      </c>
+      <c r="B2108" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2108" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="D2108" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2109" t="s">
+        <v>504</v>
+      </c>
+      <c r="B2109" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2109" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2109" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2110" t="s">
+        <v>504</v>
+      </c>
+      <c r="B2110" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2110" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2110" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2111" t="s">
+        <v>504</v>
+      </c>
+      <c r="B2111" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2111" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2111" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2112" t="s">
+        <v>505</v>
+      </c>
+      <c r="B2112" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2112" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D2112" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2113" t="s">
+        <v>505</v>
+      </c>
+      <c r="B2113" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2113" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="D2113" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2114" t="s">
+        <v>505</v>
+      </c>
+      <c r="B2114" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2114" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2114" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2115" t="s">
+        <v>505</v>
+      </c>
+      <c r="B2115" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2115" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2115" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2116" t="s">
+        <v>505</v>
+      </c>
+      <c r="B2116" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2116" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2116" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2117" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B2117" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2117" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D2117" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2118" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B2118" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2118" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="D2118" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2119" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2119" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B2119" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2119" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2119" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2120" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2120" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B2120" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2120" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2120" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2121" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B2121" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2121" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2121" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2122" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B2122" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2122" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D2122" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2123" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B2123" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2123" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="D2123" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2124" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B2124" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2124" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2124" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2125" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B2125" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2125" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2125" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2126" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B2126" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2126" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2126" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2127" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B2127" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2127" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D2127" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2128" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B2128" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2128" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="D2128" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2129" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B2129" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2129" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2129" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2130" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B2130" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2130" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2130" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2131" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B2131" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2131" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2131" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2132" t="s">
+        <v>506</v>
+      </c>
+      <c r="B2132" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2132" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D2132" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2133" t="s">
+        <v>506</v>
+      </c>
+      <c r="B2133" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2133" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="D2133" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2134" t="s">
+        <v>506</v>
+      </c>
+      <c r="B2134" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2134" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2134" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2135" t="s">
+        <v>506</v>
+      </c>
+      <c r="B2135" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2135" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2135" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2136" t="s">
+        <v>506</v>
+      </c>
+      <c r="B2136" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2136" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2136" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2137" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2137" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2137" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D2137" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2138" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2138" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2138" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="D2138" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2139" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2139" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2139" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2139" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2139" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2140" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2140" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2140" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2140" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2140" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2141" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2141" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2141" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2141" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2141" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2142" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2142" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2142" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D2142" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2143" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2143" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2143" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="D2143" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2144" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2144" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2144" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2144" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2144" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2145" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2145" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2145" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2145" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2146" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2146" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2146" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2146" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2147" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2147" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2147" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D2147" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2148" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2148" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2148" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="D2148" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2149" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2149" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2149" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2149" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2150" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2150" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2150" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2150" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2151" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2151" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2151" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2151" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2152" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2152" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2152" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D2152" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2153" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2153" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2153" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="D2153" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2154" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2154" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2154" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2154" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2155" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2155" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2155" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2155" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2156" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2156" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2156" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2156" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2157" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2157" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2157" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2157" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D2157" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2158" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2158" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2158" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2158" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="D2158" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2159" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2159" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2159" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2159" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2159" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2160" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2160" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2160" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2160" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2160" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2161" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2161" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2161" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2161" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2161" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2162" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2162" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2162" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D2162" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2163" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2163" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2163" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2163" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="D2163" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2164" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2164" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2164" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2164" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2165" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2165" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2165" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2165" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2166" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2166" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2166" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2166" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2167" t="s">
+        <v>315</v>
+      </c>
+      <c r="B2167" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2167" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D2167" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2168" t="s">
+        <v>315</v>
+      </c>
+      <c r="B2168" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2168" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="D2168" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2169" t="s">
+        <v>315</v>
+      </c>
+      <c r="B2169" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2169" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2169" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2170" t="s">
+        <v>315</v>
+      </c>
+      <c r="B2170" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2170" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2170" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2171" t="s">
+        <v>315</v>
+      </c>
+      <c r="B2171" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2171" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2171" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2172" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2172" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2172" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D2172" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2173" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2173" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2173" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="D2173" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2174" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2174" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2174" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2174" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2175" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2175" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2175" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2175" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2176" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2176" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2176" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2176" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2177" t="s">
         <v>507</v>
       </c>
-      <c r="B2025" s="10" t="s">
+      <c r="B2177" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2177" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D2177" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2178" t="s">
+        <v>507</v>
+      </c>
+      <c r="B2178" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2178" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="D2178" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2179" t="s">
+        <v>507</v>
+      </c>
+      <c r="B2179" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C2025" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="D2025" s="10" t="s">
+      <c r="C2179" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2179" s="10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2026" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2026" t="s">
+    <row r="2180" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2180" t="s">
         <v>507</v>
       </c>
-      <c r="B2026" s="10" t="s">
+      <c r="B2180" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C2026" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="D2026" s="10" t="s">
+      <c r="C2180" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2180" s="10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2027" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A2027" s="9" t="s">
+    <row r="2181" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2181" t="s">
         <v>507</v>
       </c>
-      <c r="B2027" s="10" t="s">
+      <c r="B2181" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C2027" s="9" t="s">
+      <c r="C2181" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D2027" s="10" t="s">
+      <c r="D2181" s="10" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="2028" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A2028" s="9" t="s">
-        <v>511</v>
-      </c>
-      <c r="B2028" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2028" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="D2028" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2029" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A2029" s="9" t="s">
-        <v>511</v>
-      </c>
-      <c r="B2029" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2029" s="9" t="s">
-        <v>508</v>
-      </c>
-      <c r="D2029" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2030" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2030" s="9" t="s">
-        <v>511</v>
-      </c>
-      <c r="B2030" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2030" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="D2030" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2031" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2031" s="9" t="s">
-        <v>511</v>
-      </c>
-      <c r="B2031" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2031" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="D2031" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2032" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A2032" s="9" t="s">
-        <v>511</v>
-      </c>
-      <c r="B2032" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2032" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2032" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="2033" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A2033" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="B2033" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2033" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="D2033" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2034" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A2034" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="B2034" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2034" s="9" t="s">
-        <v>508</v>
-      </c>
-      <c r="D2034" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2035" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2035" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="B2035" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2035" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="D2035" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2036" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2036" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="B2036" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2036" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="D2036" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2037" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A2037" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="B2037" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2037" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2037" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="2038" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A2038" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="B2038" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2038" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="D2038" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2039" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A2039" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="B2039" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2039" s="9" t="s">
-        <v>508</v>
-      </c>
-      <c r="D2039" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2040" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2040" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="B2040" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2040" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="D2040" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2041" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2041" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="B2041" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2041" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="D2041" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2042" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A2042" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="B2042" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2042" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2042" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="2043" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A2043" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="B2043" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2043" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="D2043" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2044" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A2044" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="B2044" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2044" s="9" t="s">
-        <v>508</v>
-      </c>
-      <c r="D2044" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2045" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2045" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="B2045" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2045" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="D2045" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2046" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2046" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="B2046" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2046" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="D2046" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2047" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A2047" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="B2047" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2047" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2047" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="2048" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2048" s="9"/>
-      <c r="B2048" s="10"/>
-      <c r="C2048" s="9"/>
-      <c r="D2048" s="10"/>
-    </row>
-    <row r="2049" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2049" s="9"/>
-      <c r="B2049" s="10"/>
-      <c r="C2049" s="9"/>
-      <c r="D2049" s="10"/>
-    </row>
-    <row r="2050" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2050" s="9"/>
-      <c r="B2050" s="10"/>
-      <c r="C2050" s="9"/>
-      <c r="D2050" s="10"/>
-    </row>
-    <row r="2051" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2051" s="9"/>
-      <c r="B2051" s="10"/>
-      <c r="C2051" s="9"/>
-      <c r="D2051" s="10"/>
-    </row>
-    <row r="2052" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2052" s="9"/>
-      <c r="B2052" s="10"/>
-      <c r="C2052" s="9"/>
-      <c r="D2052" s="10"/>
-    </row>
-    <row r="2053" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2053" s="9"/>
-      <c r="B2053" s="10"/>
-      <c r="C2053" s="9"/>
-      <c r="D2053" s="10"/>
-    </row>
-    <row r="2054" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2054" s="9"/>
-      <c r="B2054" s="10"/>
-      <c r="C2054" s="9"/>
-      <c r="D2054" s="10"/>
-    </row>
-    <row r="2055" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2055" s="9"/>
-      <c r="B2055" s="10"/>
-      <c r="C2055" s="9"/>
-      <c r="D2055" s="10"/>
-    </row>
-    <row r="2056" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2056" s="9"/>
-      <c r="B2056" s="10"/>
-      <c r="C2056" s="9"/>
-      <c r="D2056" s="10"/>
-    </row>
-    <row r="2057" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2057" s="9"/>
-      <c r="B2057" s="10"/>
-      <c r="C2057" s="9"/>
-      <c r="D2057" s="10"/>
-    </row>
-    <row r="2058" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2058" s="9"/>
-      <c r="B2058" s="10"/>
-      <c r="C2058" s="9"/>
-      <c r="D2058" s="10"/>
-    </row>
-    <row r="2059" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2059" s="9"/>
-      <c r="B2059" s="10"/>
-      <c r="C2059" s="9"/>
-      <c r="D2059" s="10"/>
-    </row>
-    <row r="2060" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2060" s="9"/>
-      <c r="B2060" s="10"/>
-      <c r="C2060" s="9"/>
-      <c r="D2060" s="10"/>
-    </row>
-    <row r="2061" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2061" s="9"/>
-      <c r="B2061" s="10"/>
-      <c r="C2061" s="9"/>
-      <c r="D2061" s="10"/>
-    </row>
-    <row r="2062" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2062" s="9"/>
-      <c r="B2062" s="10"/>
-      <c r="C2062" s="9"/>
-      <c r="D2062" s="10"/>
-    </row>
-    <row r="2063" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2063" s="9"/>
-      <c r="B2063" s="10"/>
-      <c r="C2063" s="9"/>
-      <c r="D2063" s="10"/>
-    </row>
-    <row r="2064" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2064" s="9"/>
-      <c r="B2064" s="10"/>
-      <c r="C2064" s="9"/>
-      <c r="D2064" s="10"/>
-    </row>
-    <row r="2065" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2065" s="9"/>
-      <c r="B2065" s="10"/>
-      <c r="C2065" s="9"/>
-      <c r="D2065" s="10"/>
-    </row>
-    <row r="2066" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2066" s="9"/>
-      <c r="B2066" s="10"/>
-      <c r="C2066" s="9"/>
-      <c r="D2066" s="10"/>
-    </row>
-    <row r="2067" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2067" s="9"/>
-      <c r="B2067" s="10"/>
-      <c r="C2067" s="9"/>
-      <c r="D2067" s="10"/>
-    </row>
-    <row r="2068" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2068" s="9"/>
-      <c r="B2068" s="10"/>
-      <c r="C2068" s="9"/>
-      <c r="D2068" s="10"/>
-    </row>
-    <row r="2069" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2069" s="9"/>
-      <c r="B2069" s="10"/>
-      <c r="C2069" s="9"/>
-      <c r="D2069" s="10"/>
-    </row>
-    <row r="2070" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2070" s="9"/>
-      <c r="B2070" s="10"/>
-      <c r="C2070" s="9"/>
-      <c r="D2070" s="10"/>
-    </row>
-    <row r="2071" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2071" s="9"/>
-      <c r="B2071" s="10"/>
-      <c r="C2071" s="9"/>
-      <c r="D2071" s="10"/>
-    </row>
-    <row r="2072" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2072" s="9"/>
-      <c r="B2072" s="10"/>
-      <c r="C2072" s="9"/>
-      <c r="D2072" s="10"/>
-    </row>
-    <row r="2073" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2073" s="9"/>
-      <c r="B2073" s="10"/>
-      <c r="C2073" s="9"/>
-      <c r="D2073" s="10"/>
-    </row>
-    <row r="2074" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2074" s="9"/>
-      <c r="B2074" s="10"/>
-      <c r="C2074" s="9"/>
-      <c r="D2074" s="10"/>
-    </row>
-    <row r="2075" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2075" s="9"/>
-      <c r="B2075" s="10"/>
-      <c r="C2075" s="9"/>
-      <c r="D2075" s="10"/>
-    </row>
-    <row r="2076" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2076" s="9"/>
-      <c r="B2076" s="10"/>
-      <c r="C2076" s="9"/>
-      <c r="D2076" s="10"/>
-    </row>
-    <row r="2077" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2077" s="9"/>
-      <c r="B2077" s="10"/>
-      <c r="C2077" s="9"/>
-      <c r="D2077" s="10"/>
-    </row>
-    <row r="2078" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2078" s="9"/>
-      <c r="B2078" s="10"/>
-      <c r="C2078" s="9"/>
-      <c r="D2078" s="10"/>
-    </row>
-    <row r="2079" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2079" s="9"/>
-      <c r="B2079" s="10"/>
-      <c r="C2079" s="9"/>
-      <c r="D2079" s="10"/>
-    </row>
-    <row r="2080" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2080" s="9"/>
-      <c r="B2080" s="10"/>
-      <c r="C2080" s="9"/>
-      <c r="D2080" s="10"/>
-    </row>
-    <row r="2081" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2081" s="9"/>
-      <c r="B2081" s="10"/>
-      <c r="C2081" s="9"/>
-      <c r="D2081" s="10"/>
-    </row>
-    <row r="2082" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2082" s="9"/>
-      <c r="B2082" s="10"/>
-      <c r="C2082" s="9"/>
-      <c r="D2082" s="10"/>
-    </row>
-    <row r="2083" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2083" s="9"/>
-      <c r="B2083" s="10"/>
-      <c r="C2083" s="9"/>
-      <c r="D2083" s="10"/>
-    </row>
-    <row r="2084" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2084" s="9"/>
-      <c r="B2084" s="10"/>
-      <c r="C2084" s="9"/>
-      <c r="D2084" s="10"/>
-    </row>
-    <row r="2085" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2085" s="9"/>
-      <c r="B2085" s="10"/>
-      <c r="C2085" s="9"/>
-      <c r="D2085" s="10"/>
-    </row>
-    <row r="2086" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2086" s="9"/>
-      <c r="B2086" s="10"/>
-      <c r="C2086" s="9"/>
-      <c r="D2086" s="10"/>
-    </row>
-    <row r="2087" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2087" s="9"/>
-      <c r="B2087" s="10"/>
-      <c r="C2087" s="9"/>
-      <c r="D2087" s="10"/>
-    </row>
-    <row r="2088" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2088" s="9"/>
-      <c r="B2088" s="10"/>
-      <c r="C2088" s="9"/>
-      <c r="D2088" s="10"/>
-    </row>
-    <row r="2089" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2089" s="9"/>
-      <c r="B2089" s="10"/>
-      <c r="C2089" s="9"/>
-      <c r="D2089" s="10"/>
-    </row>
-    <row r="2090" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2090" s="9"/>
-      <c r="B2090" s="10"/>
-      <c r="C2090" s="9"/>
-      <c r="D2090" s="10"/>
-    </row>
-    <row r="2091" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2091" s="9"/>
-      <c r="B2091" s="10"/>
-      <c r="C2091" s="9"/>
-      <c r="D2091" s="10"/>
-    </row>
-    <row r="2092" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2092" s="9"/>
-      <c r="B2092" s="10"/>
-      <c r="C2092" s="9"/>
-      <c r="D2092" s="10"/>
-    </row>
-    <row r="2093" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2093" s="9"/>
-      <c r="B2093" s="10"/>
-      <c r="C2093" s="9"/>
-      <c r="D2093" s="10"/>
-    </row>
-    <row r="2094" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2094" s="9"/>
-      <c r="B2094" s="10"/>
-      <c r="C2094" s="9"/>
-      <c r="D2094" s="10"/>
-    </row>
-    <row r="2095" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2095" s="9"/>
-      <c r="B2095" s="10"/>
-      <c r="C2095" s="9"/>
-      <c r="D2095" s="10"/>
-    </row>
-    <row r="2096" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2096" s="9"/>
-      <c r="B2096" s="10"/>
-      <c r="C2096" s="9"/>
-      <c r="D2096" s="10"/>
-    </row>
-    <row r="2097" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2097" s="9"/>
-      <c r="B2097" s="10"/>
-      <c r="C2097" s="9"/>
-      <c r="D2097" s="10"/>
-    </row>
-    <row r="2098" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2098" s="9"/>
-      <c r="B2098" s="10"/>
-      <c r="C2098" s="9"/>
-      <c r="D2098" s="10"/>
-    </row>
-    <row r="2099" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2099" s="9"/>
-      <c r="B2099" s="10"/>
-      <c r="C2099" s="9"/>
-      <c r="D2099" s="10"/>
-    </row>
-    <row r="2100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2100" s="9"/>
-      <c r="B2100" s="10"/>
-      <c r="C2100" s="9"/>
-      <c r="D2100" s="10"/>
-    </row>
-    <row r="2101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2101" s="9"/>
-      <c r="B2101" s="10"/>
-      <c r="C2101" s="9"/>
-      <c r="D2101" s="10"/>
-    </row>
-    <row r="2102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2102" s="10"/>
-      <c r="C2102" s="9"/>
-      <c r="D2102" s="10"/>
-    </row>
-    <row r="2103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2103" s="10"/>
-      <c r="C2103" s="9"/>
-      <c r="D2103" s="10"/>
-    </row>
-    <row r="2104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2104" s="10"/>
-      <c r="C2104" s="9"/>
-      <c r="D2104" s="10"/>
-    </row>
-    <row r="2105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2105" s="10"/>
-      <c r="C2105" s="9"/>
-      <c r="D2105" s="10"/>
-    </row>
-    <row r="2106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2106" s="10"/>
-      <c r="C2106" s="9"/>
-      <c r="D2106" s="10"/>
-    </row>
-    <row r="2107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2107" s="9"/>
-      <c r="B2107" s="10"/>
-      <c r="C2107" s="9"/>
-      <c r="D2107" s="10"/>
-    </row>
-    <row r="2108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2108" s="10"/>
-      <c r="C2108" s="9"/>
-      <c r="D2108" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:B2108" xr:uid="{00000000-0001-0000-0200-000000000000}"/>

--- a/UDMI-CREATION/DELTA/VAV/VAV-ALL.xlsx
+++ b/UDMI-CREATION/DELTA/VAV/VAV-ALL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\UDMI-CREATION\DELTA\VAV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1525666E-C418-47B2-9BEC-DE87AEBAC338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E94CFB7-F8DF-4B53-AC54-E32F5E9C75EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="690" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="690" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="1" r:id="rId1"/>
@@ -23871,7 +23871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H2181"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showFormulas="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
@@ -55881,8 +55881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D433"/>
   <sheetViews>
-    <sheetView topLeftCell="A419" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A409" sqref="A409"/>
+    <sheetView tabSelected="1" topLeftCell="A173" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H189" sqref="H189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/UDMI-CREATION/DELTA/VAV/VAV-ALL.xlsx
+++ b/UDMI-CREATION/DELTA/VAV/VAV-ALL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\UDMI-CREATION\DELTA\VAV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E94CFB7-F8DF-4B53-AC54-E32F5E9C75EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583775F0-D974-48DA-B8C7-090B497442B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="690" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55881,8 +55881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D433"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H189" sqref="H189"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/UDMI-CREATION/DELTA/VAV/VAV-ALL.xlsx
+++ b/UDMI-CREATION/DELTA/VAV/VAV-ALL.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\UDMI-CREATION\DELTA\VAV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KYOTO-W-BOS\UDMI-CREATION\DELTA\VAV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583775F0-D974-48DA-B8C7-090B497442B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="690" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="690" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="1" r:id="rId1"/>
@@ -4130,7 +4129,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -4349,23 +4348,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4401,23 +4383,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4593,7 +4558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
@@ -4732,7 +4697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U433"/>
   <sheetViews>
     <sheetView zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
@@ -23860,7 +23825,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U932" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:U932"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -23868,12 +23833,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2181"/>
   <sheetViews>
     <sheetView showFormulas="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A78" sqref="A78:XFD78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -55870,7 +55835,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B2108" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <autoFilter ref="B1:B2108"/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -55878,11 +55843,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D433"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -60665,8 +60630,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A307" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D310">
+  <autoFilter ref="A1:A307"/>
+  <sortState ref="A2:D310">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -60680,7 +60645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F146"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -61073,7 +61038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">

--- a/UDMI-CREATION/DELTA/VAV/VAV-ALL.xlsx
+++ b/UDMI-CREATION/DELTA/VAV/VAV-ALL.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KYOTO-W-BOS\UDMI-CREATION\DELTA\VAV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\UDMI-CREATION\DELTA\VAV\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE248B04-EC6A-459E-BCDE-47FB83F42E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="690" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="690" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="1" r:id="rId1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13996" uniqueCount="1363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14428" uniqueCount="1364">
   <si>
     <t>dbo.section</t>
   </si>
@@ -4124,12 +4125,15 @@
   </si>
   <si>
     <t>MV12.Present_Value</t>
+  </si>
+  <si>
+    <t>1.4.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -4348,6 +4352,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4383,6 +4404,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4558,7 +4596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
@@ -4697,13 +4735,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U433"/>
   <sheetViews>
     <sheetView zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="E284" sqref="E284"/>
+      <selection pane="bottomLeft" activeCell="E135" sqref="E135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4799,8 +4837,8 @@
       <c r="A2" t="s">
         <v>316</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>1363</v>
       </c>
       <c r="C2" t="s">
         <v>513</v>
@@ -4850,8 +4888,8 @@
       <c r="A3" t="s">
         <v>317</v>
       </c>
-      <c r="B3">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>1363</v>
       </c>
       <c r="C3" t="s">
         <v>513</v>
@@ -4901,8 +4939,8 @@
       <c r="A4" t="s">
         <v>318</v>
       </c>
-      <c r="B4">
-        <v>1</v>
+      <c r="B4" t="s">
+        <v>1363</v>
       </c>
       <c r="C4" t="s">
         <v>513</v>
@@ -4946,8 +4984,8 @@
       <c r="A5" t="s">
         <v>319</v>
       </c>
-      <c r="B5">
-        <v>1</v>
+      <c r="B5" t="s">
+        <v>1363</v>
       </c>
       <c r="C5" t="s">
         <v>513</v>
@@ -4991,8 +5029,8 @@
       <c r="A6" t="s">
         <v>378</v>
       </c>
-      <c r="B6">
-        <v>1</v>
+      <c r="B6" t="s">
+        <v>1363</v>
       </c>
       <c r="C6" t="s">
         <v>513</v>
@@ -5036,8 +5074,8 @@
       <c r="A7" t="s">
         <v>379</v>
       </c>
-      <c r="B7">
-        <v>1</v>
+      <c r="B7" t="s">
+        <v>1363</v>
       </c>
       <c r="C7" t="s">
         <v>513</v>
@@ -5081,8 +5119,8 @@
       <c r="A8" t="s">
         <v>380</v>
       </c>
-      <c r="B8">
-        <v>1</v>
+      <c r="B8" t="s">
+        <v>1363</v>
       </c>
       <c r="C8" t="s">
         <v>513</v>
@@ -5126,8 +5164,8 @@
       <c r="A9" t="s">
         <v>381</v>
       </c>
-      <c r="B9">
-        <v>1</v>
+      <c r="B9" t="s">
+        <v>1363</v>
       </c>
       <c r="C9" t="s">
         <v>513</v>
@@ -5171,8 +5209,8 @@
       <c r="A10" t="s">
         <v>382</v>
       </c>
-      <c r="B10">
-        <v>1</v>
+      <c r="B10" t="s">
+        <v>1363</v>
       </c>
       <c r="C10" t="s">
         <v>513</v>
@@ -5215,8 +5253,8 @@
       <c r="A11" t="s">
         <v>320</v>
       </c>
-      <c r="B11">
-        <v>1</v>
+      <c r="B11" t="s">
+        <v>1363</v>
       </c>
       <c r="C11" t="s">
         <v>513</v>
@@ -5259,8 +5297,8 @@
       <c r="A12" t="s">
         <v>321</v>
       </c>
-      <c r="B12">
-        <v>1</v>
+      <c r="B12" t="s">
+        <v>1363</v>
       </c>
       <c r="C12" t="s">
         <v>513</v>
@@ -5303,8 +5341,8 @@
       <c r="A13" t="s">
         <v>322</v>
       </c>
-      <c r="B13">
-        <v>1</v>
+      <c r="B13" t="s">
+        <v>1363</v>
       </c>
       <c r="C13" t="s">
         <v>513</v>
@@ -5347,8 +5385,8 @@
       <c r="A14" t="s">
         <v>323</v>
       </c>
-      <c r="B14">
-        <v>1</v>
+      <c r="B14" t="s">
+        <v>1363</v>
       </c>
       <c r="C14" t="s">
         <v>513</v>
@@ -5391,8 +5429,8 @@
       <c r="A15" t="s">
         <v>324</v>
       </c>
-      <c r="B15">
-        <v>1</v>
+      <c r="B15" t="s">
+        <v>1363</v>
       </c>
       <c r="C15" t="s">
         <v>513</v>
@@ -5435,8 +5473,8 @@
       <c r="A16" t="s">
         <v>325</v>
       </c>
-      <c r="B16">
-        <v>1</v>
+      <c r="B16" t="s">
+        <v>1363</v>
       </c>
       <c r="C16" t="s">
         <v>513</v>
@@ -5479,8 +5517,8 @@
       <c r="A17" t="s">
         <v>326</v>
       </c>
-      <c r="B17">
-        <v>1</v>
+      <c r="B17" t="s">
+        <v>1363</v>
       </c>
       <c r="C17" t="s">
         <v>513</v>
@@ -5527,8 +5565,8 @@
       <c r="A18" t="s">
         <v>327</v>
       </c>
-      <c r="B18">
-        <v>1</v>
+      <c r="B18" t="s">
+        <v>1363</v>
       </c>
       <c r="C18" t="s">
         <v>513</v>
@@ -5572,8 +5610,8 @@
       <c r="A19" t="s">
         <v>328</v>
       </c>
-      <c r="B19">
-        <v>1</v>
+      <c r="B19" t="s">
+        <v>1363</v>
       </c>
       <c r="C19" t="s">
         <v>513</v>
@@ -5617,8 +5655,8 @@
       <c r="A20" t="s">
         <v>329</v>
       </c>
-      <c r="B20">
-        <v>1</v>
+      <c r="B20" t="s">
+        <v>1363</v>
       </c>
       <c r="C20" t="s">
         <v>513</v>
@@ -5662,8 +5700,8 @@
       <c r="A21" t="s">
         <v>330</v>
       </c>
-      <c r="B21">
-        <v>1</v>
+      <c r="B21" t="s">
+        <v>1363</v>
       </c>
       <c r="C21" t="s">
         <v>513</v>
@@ -5706,8 +5744,8 @@
       <c r="A22" t="s">
         <v>331</v>
       </c>
-      <c r="B22">
-        <v>1</v>
+      <c r="B22" t="s">
+        <v>1363</v>
       </c>
       <c r="C22" t="s">
         <v>513</v>
@@ -5750,8 +5788,8 @@
       <c r="A23" t="s">
         <v>332</v>
       </c>
-      <c r="B23">
-        <v>1</v>
+      <c r="B23" t="s">
+        <v>1363</v>
       </c>
       <c r="C23" t="s">
         <v>513</v>
@@ -5794,8 +5832,8 @@
       <c r="A24" t="s">
         <v>333</v>
       </c>
-      <c r="B24">
-        <v>1</v>
+      <c r="B24" t="s">
+        <v>1363</v>
       </c>
       <c r="C24" t="s">
         <v>513</v>
@@ -5838,8 +5876,8 @@
       <c r="A25" t="s">
         <v>334</v>
       </c>
-      <c r="B25">
-        <v>1</v>
+      <c r="B25" t="s">
+        <v>1363</v>
       </c>
       <c r="C25" t="s">
         <v>513</v>
@@ -5882,8 +5920,8 @@
       <c r="A26" t="s">
         <v>335</v>
       </c>
-      <c r="B26">
-        <v>1</v>
+      <c r="B26" t="s">
+        <v>1363</v>
       </c>
       <c r="C26" t="s">
         <v>513</v>
@@ -5926,8 +5964,8 @@
       <c r="A27" t="s">
         <v>336</v>
       </c>
-      <c r="B27">
-        <v>1</v>
+      <c r="B27" t="s">
+        <v>1363</v>
       </c>
       <c r="C27" t="s">
         <v>513</v>
@@ -5970,8 +6008,8 @@
       <c r="A28" t="s">
         <v>337</v>
       </c>
-      <c r="B28">
-        <v>1</v>
+      <c r="B28" t="s">
+        <v>1363</v>
       </c>
       <c r="C28" t="s">
         <v>513</v>
@@ -6014,8 +6052,8 @@
       <c r="A29" t="s">
         <v>338</v>
       </c>
-      <c r="B29">
-        <v>1</v>
+      <c r="B29" t="s">
+        <v>1363</v>
       </c>
       <c r="C29" t="s">
         <v>513</v>
@@ -6058,8 +6096,8 @@
       <c r="A30" t="s">
         <v>339</v>
       </c>
-      <c r="B30">
-        <v>1</v>
+      <c r="B30" t="s">
+        <v>1363</v>
       </c>
       <c r="C30" t="s">
         <v>513</v>
@@ -6102,8 +6140,8 @@
       <c r="A31" t="s">
         <v>340</v>
       </c>
-      <c r="B31">
-        <v>1</v>
+      <c r="B31" t="s">
+        <v>1363</v>
       </c>
       <c r="C31" t="s">
         <v>513</v>
@@ -6146,8 +6184,8 @@
       <c r="A32" t="s">
         <v>341</v>
       </c>
-      <c r="B32">
-        <v>1</v>
+      <c r="B32" t="s">
+        <v>1363</v>
       </c>
       <c r="C32" t="s">
         <v>513</v>
@@ -6190,8 +6228,8 @@
       <c r="A33" t="s">
         <v>342</v>
       </c>
-      <c r="B33">
-        <v>1</v>
+      <c r="B33" t="s">
+        <v>1363</v>
       </c>
       <c r="C33" t="s">
         <v>513</v>
@@ -6234,8 +6272,8 @@
       <c r="A34" t="s">
         <v>343</v>
       </c>
-      <c r="B34">
-        <v>1</v>
+      <c r="B34" t="s">
+        <v>1363</v>
       </c>
       <c r="C34" t="s">
         <v>513</v>
@@ -6278,8 +6316,8 @@
       <c r="A35" t="s">
         <v>344</v>
       </c>
-      <c r="B35">
-        <v>1</v>
+      <c r="B35" t="s">
+        <v>1363</v>
       </c>
       <c r="C35" t="s">
         <v>513</v>
@@ -6322,8 +6360,8 @@
       <c r="A36" t="s">
         <v>345</v>
       </c>
-      <c r="B36">
-        <v>1</v>
+      <c r="B36" t="s">
+        <v>1363</v>
       </c>
       <c r="C36" t="s">
         <v>513</v>
@@ -6366,8 +6404,8 @@
       <c r="A37" t="s">
         <v>346</v>
       </c>
-      <c r="B37">
-        <v>1</v>
+      <c r="B37" t="s">
+        <v>1363</v>
       </c>
       <c r="C37" t="s">
         <v>513</v>
@@ -6410,8 +6448,8 @@
       <c r="A38" t="s">
         <v>347</v>
       </c>
-      <c r="B38">
-        <v>1</v>
+      <c r="B38" t="s">
+        <v>1363</v>
       </c>
       <c r="C38" t="s">
         <v>513</v>
@@ -6454,8 +6492,8 @@
       <c r="A39" t="s">
         <v>348</v>
       </c>
-      <c r="B39">
-        <v>1</v>
+      <c r="B39" t="s">
+        <v>1363</v>
       </c>
       <c r="C39" t="s">
         <v>513</v>
@@ -6498,8 +6536,8 @@
       <c r="A40" t="s">
         <v>349</v>
       </c>
-      <c r="B40">
-        <v>1</v>
+      <c r="B40" t="s">
+        <v>1363</v>
       </c>
       <c r="C40" t="s">
         <v>513</v>
@@ -6542,8 +6580,8 @@
       <c r="A41" t="s">
         <v>350</v>
       </c>
-      <c r="B41">
-        <v>1</v>
+      <c r="B41" t="s">
+        <v>1363</v>
       </c>
       <c r="C41" t="s">
         <v>513</v>
@@ -6586,8 +6624,8 @@
       <c r="A42" t="s">
         <v>351</v>
       </c>
-      <c r="B42">
-        <v>1</v>
+      <c r="B42" t="s">
+        <v>1363</v>
       </c>
       <c r="C42" t="s">
         <v>513</v>
@@ -6630,8 +6668,8 @@
       <c r="A43" t="s">
         <v>352</v>
       </c>
-      <c r="B43">
-        <v>1</v>
+      <c r="B43" t="s">
+        <v>1363</v>
       </c>
       <c r="C43" t="s">
         <v>513</v>
@@ -6674,8 +6712,8 @@
       <c r="A44" t="s">
         <v>353</v>
       </c>
-      <c r="B44">
-        <v>1</v>
+      <c r="B44" t="s">
+        <v>1363</v>
       </c>
       <c r="C44" t="s">
         <v>513</v>
@@ -6718,8 +6756,8 @@
       <c r="A45" t="s">
         <v>354</v>
       </c>
-      <c r="B45">
-        <v>1</v>
+      <c r="B45" t="s">
+        <v>1363</v>
       </c>
       <c r="C45" t="s">
         <v>513</v>
@@ -6762,8 +6800,8 @@
       <c r="A46" t="s">
         <v>355</v>
       </c>
-      <c r="B46">
-        <v>1</v>
+      <c r="B46" t="s">
+        <v>1363</v>
       </c>
       <c r="C46" t="s">
         <v>513</v>
@@ -6806,8 +6844,8 @@
       <c r="A47" t="s">
         <v>356</v>
       </c>
-      <c r="B47">
-        <v>1</v>
+      <c r="B47" t="s">
+        <v>1363</v>
       </c>
       <c r="C47" t="s">
         <v>513</v>
@@ -6850,8 +6888,8 @@
       <c r="A48" t="s">
         <v>357</v>
       </c>
-      <c r="B48">
-        <v>1</v>
+      <c r="B48" t="s">
+        <v>1363</v>
       </c>
       <c r="C48" t="s">
         <v>513</v>
@@ -6894,8 +6932,8 @@
       <c r="A49" t="s">
         <v>358</v>
       </c>
-      <c r="B49">
-        <v>1</v>
+      <c r="B49" t="s">
+        <v>1363</v>
       </c>
       <c r="C49" t="s">
         <v>513</v>
@@ -6938,8 +6976,8 @@
       <c r="A50" t="s">
         <v>359</v>
       </c>
-      <c r="B50">
-        <v>1</v>
+      <c r="B50" t="s">
+        <v>1363</v>
       </c>
       <c r="C50" t="s">
         <v>513</v>
@@ -6982,8 +7020,8 @@
       <c r="A51" t="s">
         <v>360</v>
       </c>
-      <c r="B51">
-        <v>1</v>
+      <c r="B51" t="s">
+        <v>1363</v>
       </c>
       <c r="C51" t="s">
         <v>513</v>
@@ -7026,8 +7064,8 @@
       <c r="A52" t="s">
         <v>361</v>
       </c>
-      <c r="B52">
-        <v>1</v>
+      <c r="B52" t="s">
+        <v>1363</v>
       </c>
       <c r="C52" t="s">
         <v>513</v>
@@ -7070,8 +7108,8 @@
       <c r="A53" t="s">
         <v>362</v>
       </c>
-      <c r="B53">
-        <v>1</v>
+      <c r="B53" t="s">
+        <v>1363</v>
       </c>
       <c r="C53" t="s">
         <v>513</v>
@@ -7114,8 +7152,8 @@
       <c r="A54" t="s">
         <v>363</v>
       </c>
-      <c r="B54">
-        <v>1</v>
+      <c r="B54" t="s">
+        <v>1363</v>
       </c>
       <c r="C54" t="s">
         <v>513</v>
@@ -7158,8 +7196,8 @@
       <c r="A55" t="s">
         <v>364</v>
       </c>
-      <c r="B55">
-        <v>1</v>
+      <c r="B55" t="s">
+        <v>1363</v>
       </c>
       <c r="C55" t="s">
         <v>513</v>
@@ -7202,8 +7240,8 @@
       <c r="A56" t="s">
         <v>365</v>
       </c>
-      <c r="B56">
-        <v>1</v>
+      <c r="B56" t="s">
+        <v>1363</v>
       </c>
       <c r="C56" t="s">
         <v>513</v>
@@ -7246,8 +7284,8 @@
       <c r="A57" t="s">
         <v>366</v>
       </c>
-      <c r="B57">
-        <v>1</v>
+      <c r="B57" t="s">
+        <v>1363</v>
       </c>
       <c r="C57" t="s">
         <v>513</v>
@@ -7290,8 +7328,8 @@
       <c r="A58" t="s">
         <v>367</v>
       </c>
-      <c r="B58">
-        <v>1</v>
+      <c r="B58" t="s">
+        <v>1363</v>
       </c>
       <c r="C58" t="s">
         <v>513</v>
@@ -7334,8 +7372,8 @@
       <c r="A59" t="s">
         <v>368</v>
       </c>
-      <c r="B59">
-        <v>1</v>
+      <c r="B59" t="s">
+        <v>1363</v>
       </c>
       <c r="C59" t="s">
         <v>513</v>
@@ -7378,8 +7416,8 @@
       <c r="A60" t="s">
         <v>369</v>
       </c>
-      <c r="B60">
-        <v>1</v>
+      <c r="B60" t="s">
+        <v>1363</v>
       </c>
       <c r="C60" t="s">
         <v>513</v>
@@ -7422,8 +7460,8 @@
       <c r="A61" t="s">
         <v>370</v>
       </c>
-      <c r="B61">
-        <v>1</v>
+      <c r="B61" t="s">
+        <v>1363</v>
       </c>
       <c r="C61" t="s">
         <v>513</v>
@@ -7466,8 +7504,8 @@
       <c r="A62" t="s">
         <v>371</v>
       </c>
-      <c r="B62">
-        <v>1</v>
+      <c r="B62" t="s">
+        <v>1363</v>
       </c>
       <c r="C62" t="s">
         <v>513</v>
@@ -7510,8 +7548,8 @@
       <c r="A63" t="s">
         <v>372</v>
       </c>
-      <c r="B63">
-        <v>1</v>
+      <c r="B63" t="s">
+        <v>1363</v>
       </c>
       <c r="C63" t="s">
         <v>513</v>
@@ -7554,8 +7592,8 @@
       <c r="A64" t="s">
         <v>373</v>
       </c>
-      <c r="B64">
-        <v>1</v>
+      <c r="B64" t="s">
+        <v>1363</v>
       </c>
       <c r="C64" t="s">
         <v>513</v>
@@ -7598,8 +7636,8 @@
       <c r="A65" t="s">
         <v>374</v>
       </c>
-      <c r="B65">
-        <v>1</v>
+      <c r="B65" t="s">
+        <v>1363</v>
       </c>
       <c r="C65" t="s">
         <v>513</v>
@@ -7642,8 +7680,8 @@
       <c r="A66" t="s">
         <v>375</v>
       </c>
-      <c r="B66">
-        <v>1</v>
+      <c r="B66" t="s">
+        <v>1363</v>
       </c>
       <c r="C66" t="s">
         <v>513</v>
@@ -7686,8 +7724,8 @@
       <c r="A67" t="s">
         <v>376</v>
       </c>
-      <c r="B67">
-        <v>1</v>
+      <c r="B67" t="s">
+        <v>1363</v>
       </c>
       <c r="C67" t="s">
         <v>513</v>
@@ -7730,8 +7768,8 @@
       <c r="A68" t="s">
         <v>377</v>
       </c>
-      <c r="B68">
-        <v>1</v>
+      <c r="B68" t="s">
+        <v>1363</v>
       </c>
       <c r="C68" t="s">
         <v>513</v>
@@ -7774,8 +7812,8 @@
       <c r="A69" t="s">
         <v>77</v>
       </c>
-      <c r="B69">
-        <v>1</v>
+      <c r="B69" t="s">
+        <v>1363</v>
       </c>
       <c r="C69" t="s">
         <v>513</v>
@@ -7818,8 +7856,8 @@
       <c r="A70" t="s">
         <v>78</v>
       </c>
-      <c r="B70">
-        <v>1</v>
+      <c r="B70" t="s">
+        <v>1363</v>
       </c>
       <c r="C70" t="s">
         <v>513</v>
@@ -7862,8 +7900,8 @@
       <c r="A71" t="s">
         <v>79</v>
       </c>
-      <c r="B71">
-        <v>1</v>
+      <c r="B71" t="s">
+        <v>1363</v>
       </c>
       <c r="C71" t="s">
         <v>513</v>
@@ -7906,8 +7944,8 @@
       <c r="A72" t="s">
         <v>80</v>
       </c>
-      <c r="B72">
-        <v>1</v>
+      <c r="B72" t="s">
+        <v>1363</v>
       </c>
       <c r="C72" t="s">
         <v>513</v>
@@ -7950,8 +7988,8 @@
       <c r="A73" t="s">
         <v>81</v>
       </c>
-      <c r="B73">
-        <v>1</v>
+      <c r="B73" t="s">
+        <v>1363</v>
       </c>
       <c r="C73" t="s">
         <v>513</v>
@@ -7994,8 +8032,8 @@
       <c r="A74" t="s">
         <v>82</v>
       </c>
-      <c r="B74">
-        <v>1</v>
+      <c r="B74" t="s">
+        <v>1363</v>
       </c>
       <c r="C74" t="s">
         <v>513</v>
@@ -8038,8 +8076,8 @@
       <c r="A75" t="s">
         <v>83</v>
       </c>
-      <c r="B75">
-        <v>1</v>
+      <c r="B75" t="s">
+        <v>1363</v>
       </c>
       <c r="C75" t="s">
         <v>513</v>
@@ -8082,8 +8120,8 @@
       <c r="A76" t="s">
         <v>84</v>
       </c>
-      <c r="B76">
-        <v>1</v>
+      <c r="B76" t="s">
+        <v>1363</v>
       </c>
       <c r="C76" t="s">
         <v>513</v>
@@ -8126,8 +8164,8 @@
       <c r="A77" t="s">
         <v>85</v>
       </c>
-      <c r="B77">
-        <v>1</v>
+      <c r="B77" t="s">
+        <v>1363</v>
       </c>
       <c r="C77" t="s">
         <v>513</v>
@@ -8170,8 +8208,8 @@
       <c r="A78" t="s">
         <v>86</v>
       </c>
-      <c r="B78">
-        <v>1</v>
+      <c r="B78" t="s">
+        <v>1363</v>
       </c>
       <c r="C78" t="s">
         <v>513</v>
@@ -8214,8 +8252,8 @@
       <c r="A79" t="s">
         <v>87</v>
       </c>
-      <c r="B79">
-        <v>1</v>
+      <c r="B79" t="s">
+        <v>1363</v>
       </c>
       <c r="C79" t="s">
         <v>513</v>
@@ -8258,8 +8296,8 @@
       <c r="A80" t="s">
         <v>88</v>
       </c>
-      <c r="B80">
-        <v>1</v>
+      <c r="B80" t="s">
+        <v>1363</v>
       </c>
       <c r="C80" t="s">
         <v>513</v>
@@ -8302,8 +8340,8 @@
       <c r="A81" t="s">
         <v>89</v>
       </c>
-      <c r="B81">
-        <v>1</v>
+      <c r="B81" t="s">
+        <v>1363</v>
       </c>
       <c r="C81" t="s">
         <v>513</v>
@@ -8346,8 +8384,8 @@
       <c r="A82" t="s">
         <v>90</v>
       </c>
-      <c r="B82">
-        <v>1</v>
+      <c r="B82" t="s">
+        <v>1363</v>
       </c>
       <c r="C82" t="s">
         <v>513</v>
@@ -8390,8 +8428,8 @@
       <c r="A83" t="s">
         <v>91</v>
       </c>
-      <c r="B83">
-        <v>1</v>
+      <c r="B83" t="s">
+        <v>1363</v>
       </c>
       <c r="C83" t="s">
         <v>513</v>
@@ -8434,8 +8472,8 @@
       <c r="A84" t="s">
         <v>92</v>
       </c>
-      <c r="B84">
-        <v>1</v>
+      <c r="B84" t="s">
+        <v>1363</v>
       </c>
       <c r="C84" t="s">
         <v>513</v>
@@ -8478,8 +8516,8 @@
       <c r="A85" t="s">
         <v>93</v>
       </c>
-      <c r="B85">
-        <v>1</v>
+      <c r="B85" t="s">
+        <v>1363</v>
       </c>
       <c r="C85" t="s">
         <v>513</v>
@@ -8522,8 +8560,8 @@
       <c r="A86" t="s">
         <v>94</v>
       </c>
-      <c r="B86">
-        <v>1</v>
+      <c r="B86" t="s">
+        <v>1363</v>
       </c>
       <c r="C86" t="s">
         <v>513</v>
@@ -8566,8 +8604,8 @@
       <c r="A87" t="s">
         <v>95</v>
       </c>
-      <c r="B87">
-        <v>1</v>
+      <c r="B87" t="s">
+        <v>1363</v>
       </c>
       <c r="C87" t="s">
         <v>513</v>
@@ -8610,8 +8648,8 @@
       <c r="A88" t="s">
         <v>96</v>
       </c>
-      <c r="B88">
-        <v>1</v>
+      <c r="B88" t="s">
+        <v>1363</v>
       </c>
       <c r="C88" t="s">
         <v>513</v>
@@ -8654,8 +8692,8 @@
       <c r="A89" t="s">
         <v>97</v>
       </c>
-      <c r="B89">
-        <v>1</v>
+      <c r="B89" t="s">
+        <v>1363</v>
       </c>
       <c r="C89" t="s">
         <v>513</v>
@@ -8698,8 +8736,8 @@
       <c r="A90" t="s">
         <v>98</v>
       </c>
-      <c r="B90">
-        <v>1</v>
+      <c r="B90" t="s">
+        <v>1363</v>
       </c>
       <c r="C90" t="s">
         <v>513</v>
@@ -8742,8 +8780,8 @@
       <c r="A91" t="s">
         <v>99</v>
       </c>
-      <c r="B91">
-        <v>1</v>
+      <c r="B91" t="s">
+        <v>1363</v>
       </c>
       <c r="C91" t="s">
         <v>513</v>
@@ -8786,8 +8824,8 @@
       <c r="A92" t="s">
         <v>100</v>
       </c>
-      <c r="B92">
-        <v>1</v>
+      <c r="B92" t="s">
+        <v>1363</v>
       </c>
       <c r="C92" t="s">
         <v>513</v>
@@ -8830,8 +8868,8 @@
       <c r="A93" t="s">
         <v>101</v>
       </c>
-      <c r="B93">
-        <v>1</v>
+      <c r="B93" t="s">
+        <v>1363</v>
       </c>
       <c r="C93" t="s">
         <v>513</v>
@@ -8874,8 +8912,8 @@
       <c r="A94" t="s">
         <v>102</v>
       </c>
-      <c r="B94">
-        <v>1</v>
+      <c r="B94" t="s">
+        <v>1363</v>
       </c>
       <c r="C94" t="s">
         <v>513</v>
@@ -8918,8 +8956,8 @@
       <c r="A95" t="s">
         <v>103</v>
       </c>
-      <c r="B95">
-        <v>1</v>
+      <c r="B95" t="s">
+        <v>1363</v>
       </c>
       <c r="C95" t="s">
         <v>513</v>
@@ -8962,8 +9000,8 @@
       <c r="A96" t="s">
         <v>104</v>
       </c>
-      <c r="B96">
-        <v>1</v>
+      <c r="B96" t="s">
+        <v>1363</v>
       </c>
       <c r="C96" t="s">
         <v>513</v>
@@ -9006,8 +9044,8 @@
       <c r="A97" t="s">
         <v>105</v>
       </c>
-      <c r="B97">
-        <v>1</v>
+      <c r="B97" t="s">
+        <v>1363</v>
       </c>
       <c r="C97" t="s">
         <v>513</v>
@@ -9050,8 +9088,8 @@
       <c r="A98" t="s">
         <v>106</v>
       </c>
-      <c r="B98">
-        <v>1</v>
+      <c r="B98" t="s">
+        <v>1363</v>
       </c>
       <c r="C98" t="s">
         <v>513</v>
@@ -9094,8 +9132,8 @@
       <c r="A99" t="s">
         <v>107</v>
       </c>
-      <c r="B99">
-        <v>1</v>
+      <c r="B99" t="s">
+        <v>1363</v>
       </c>
       <c r="C99" t="s">
         <v>513</v>
@@ -9138,8 +9176,8 @@
       <c r="A100" t="s">
         <v>108</v>
       </c>
-      <c r="B100">
-        <v>1</v>
+      <c r="B100" t="s">
+        <v>1363</v>
       </c>
       <c r="C100" t="s">
         <v>513</v>
@@ -9182,8 +9220,8 @@
       <c r="A101" t="s">
         <v>109</v>
       </c>
-      <c r="B101">
-        <v>1</v>
+      <c r="B101" t="s">
+        <v>1363</v>
       </c>
       <c r="C101" t="s">
         <v>513</v>
@@ -9226,8 +9264,8 @@
       <c r="A102" t="s">
         <v>110</v>
       </c>
-      <c r="B102">
-        <v>1</v>
+      <c r="B102" t="s">
+        <v>1363</v>
       </c>
       <c r="C102" t="s">
         <v>513</v>
@@ -9270,8 +9308,8 @@
       <c r="A103" t="s">
         <v>111</v>
       </c>
-      <c r="B103">
-        <v>1</v>
+      <c r="B103" t="s">
+        <v>1363</v>
       </c>
       <c r="C103" t="s">
         <v>513</v>
@@ -9314,8 +9352,8 @@
       <c r="A104" t="s">
         <v>112</v>
       </c>
-      <c r="B104">
-        <v>1</v>
+      <c r="B104" t="s">
+        <v>1363</v>
       </c>
       <c r="C104" t="s">
         <v>513</v>
@@ -9358,8 +9396,8 @@
       <c r="A105" t="s">
         <v>113</v>
       </c>
-      <c r="B105">
-        <v>1</v>
+      <c r="B105" t="s">
+        <v>1363</v>
       </c>
       <c r="C105" t="s">
         <v>513</v>
@@ -9402,8 +9440,8 @@
       <c r="A106" t="s">
         <v>114</v>
       </c>
-      <c r="B106">
-        <v>1</v>
+      <c r="B106" t="s">
+        <v>1363</v>
       </c>
       <c r="C106" t="s">
         <v>513</v>
@@ -9446,8 +9484,8 @@
       <c r="A107" t="s">
         <v>115</v>
       </c>
-      <c r="B107">
-        <v>1</v>
+      <c r="B107" t="s">
+        <v>1363</v>
       </c>
       <c r="C107" t="s">
         <v>513</v>
@@ -9490,8 +9528,8 @@
       <c r="A108" t="s">
         <v>116</v>
       </c>
-      <c r="B108">
-        <v>1</v>
+      <c r="B108" t="s">
+        <v>1363</v>
       </c>
       <c r="C108" t="s">
         <v>513</v>
@@ -9534,8 +9572,8 @@
       <c r="A109" t="s">
         <v>117</v>
       </c>
-      <c r="B109">
-        <v>1</v>
+      <c r="B109" t="s">
+        <v>1363</v>
       </c>
       <c r="C109" t="s">
         <v>513</v>
@@ -9578,8 +9616,8 @@
       <c r="A110" t="s">
         <v>118</v>
       </c>
-      <c r="B110">
-        <v>1</v>
+      <c r="B110" t="s">
+        <v>1363</v>
       </c>
       <c r="C110" t="s">
         <v>513</v>
@@ -9622,8 +9660,8 @@
       <c r="A111" t="s">
         <v>119</v>
       </c>
-      <c r="B111">
-        <v>1</v>
+      <c r="B111" t="s">
+        <v>1363</v>
       </c>
       <c r="C111" t="s">
         <v>513</v>
@@ -9666,8 +9704,8 @@
       <c r="A112" t="s">
         <v>120</v>
       </c>
-      <c r="B112">
-        <v>1</v>
+      <c r="B112" t="s">
+        <v>1363</v>
       </c>
       <c r="C112" t="s">
         <v>513</v>
@@ -9710,8 +9748,8 @@
       <c r="A113" t="s">
         <v>121</v>
       </c>
-      <c r="B113">
-        <v>1</v>
+      <c r="B113" t="s">
+        <v>1363</v>
       </c>
       <c r="C113" t="s">
         <v>513</v>
@@ -9754,8 +9792,8 @@
       <c r="A114" t="s">
         <v>122</v>
       </c>
-      <c r="B114">
-        <v>1</v>
+      <c r="B114" t="s">
+        <v>1363</v>
       </c>
       <c r="C114" t="s">
         <v>513</v>
@@ -9798,8 +9836,8 @@
       <c r="A115" t="s">
         <v>123</v>
       </c>
-      <c r="B115">
-        <v>1</v>
+      <c r="B115" t="s">
+        <v>1363</v>
       </c>
       <c r="C115" t="s">
         <v>513</v>
@@ -9842,8 +9880,8 @@
       <c r="A116" t="s">
         <v>124</v>
       </c>
-      <c r="B116">
-        <v>1</v>
+      <c r="B116" t="s">
+        <v>1363</v>
       </c>
       <c r="C116" t="s">
         <v>513</v>
@@ -9886,8 +9924,8 @@
       <c r="A117" t="s">
         <v>125</v>
       </c>
-      <c r="B117">
-        <v>1</v>
+      <c r="B117" t="s">
+        <v>1363</v>
       </c>
       <c r="C117" t="s">
         <v>513</v>
@@ -9930,8 +9968,8 @@
       <c r="A118" t="s">
         <v>126</v>
       </c>
-      <c r="B118">
-        <v>1</v>
+      <c r="B118" t="s">
+        <v>1363</v>
       </c>
       <c r="C118" t="s">
         <v>513</v>
@@ -9974,8 +10012,8 @@
       <c r="A119" t="s">
         <v>127</v>
       </c>
-      <c r="B119">
-        <v>1</v>
+      <c r="B119" t="s">
+        <v>1363</v>
       </c>
       <c r="C119" t="s">
         <v>513</v>
@@ -10018,8 +10056,8 @@
       <c r="A120" t="s">
         <v>128</v>
       </c>
-      <c r="B120">
-        <v>1</v>
+      <c r="B120" t="s">
+        <v>1363</v>
       </c>
       <c r="C120" t="s">
         <v>513</v>
@@ -10062,8 +10100,8 @@
       <c r="A121" t="s">
         <v>129</v>
       </c>
-      <c r="B121">
-        <v>1</v>
+      <c r="B121" t="s">
+        <v>1363</v>
       </c>
       <c r="C121" t="s">
         <v>513</v>
@@ -10106,8 +10144,8 @@
       <c r="A122" t="s">
         <v>130</v>
       </c>
-      <c r="B122">
-        <v>1</v>
+      <c r="B122" t="s">
+        <v>1363</v>
       </c>
       <c r="C122" t="s">
         <v>513</v>
@@ -10150,8 +10188,8 @@
       <c r="A123" t="s">
         <v>131</v>
       </c>
-      <c r="B123">
-        <v>1</v>
+      <c r="B123" t="s">
+        <v>1363</v>
       </c>
       <c r="C123" t="s">
         <v>513</v>
@@ -10194,8 +10232,8 @@
       <c r="A124" t="s">
         <v>132</v>
       </c>
-      <c r="B124">
-        <v>1</v>
+      <c r="B124" t="s">
+        <v>1363</v>
       </c>
       <c r="C124" t="s">
         <v>513</v>
@@ -10238,8 +10276,8 @@
       <c r="A125" t="s">
         <v>133</v>
       </c>
-      <c r="B125">
-        <v>1</v>
+      <c r="B125" t="s">
+        <v>1363</v>
       </c>
       <c r="C125" t="s">
         <v>513</v>
@@ -10282,8 +10320,8 @@
       <c r="A126" t="s">
         <v>134</v>
       </c>
-      <c r="B126">
-        <v>1</v>
+      <c r="B126" t="s">
+        <v>1363</v>
       </c>
       <c r="C126" t="s">
         <v>513</v>
@@ -10326,8 +10364,8 @@
       <c r="A127" t="s">
         <v>137</v>
       </c>
-      <c r="B127">
-        <v>1</v>
+      <c r="B127" t="s">
+        <v>1363</v>
       </c>
       <c r="C127" t="s">
         <v>513</v>
@@ -10370,8 +10408,8 @@
       <c r="A128" t="s">
         <v>138</v>
       </c>
-      <c r="B128">
-        <v>1</v>
+      <c r="B128" t="s">
+        <v>1363</v>
       </c>
       <c r="C128" t="s">
         <v>513</v>
@@ -10414,8 +10452,8 @@
       <c r="A129" t="s">
         <v>139</v>
       </c>
-      <c r="B129">
-        <v>1</v>
+      <c r="B129" t="s">
+        <v>1363</v>
       </c>
       <c r="C129" t="s">
         <v>513</v>
@@ -10458,8 +10496,8 @@
       <c r="A130" t="s">
         <v>140</v>
       </c>
-      <c r="B130">
-        <v>1</v>
+      <c r="B130" t="s">
+        <v>1363</v>
       </c>
       <c r="C130" t="s">
         <v>513</v>
@@ -10502,8 +10540,8 @@
       <c r="A131" t="s">
         <v>141</v>
       </c>
-      <c r="B131">
-        <v>1</v>
+      <c r="B131" t="s">
+        <v>1363</v>
       </c>
       <c r="C131" t="s">
         <v>513</v>
@@ -10546,8 +10584,8 @@
       <c r="A132" t="s">
         <v>142</v>
       </c>
-      <c r="B132">
-        <v>1</v>
+      <c r="B132" t="s">
+        <v>1363</v>
       </c>
       <c r="C132" t="s">
         <v>513</v>
@@ -10590,8 +10628,8 @@
       <c r="A133" t="s">
         <v>143</v>
       </c>
-      <c r="B133">
-        <v>1</v>
+      <c r="B133" t="s">
+        <v>1363</v>
       </c>
       <c r="C133" t="s">
         <v>513</v>
@@ -10634,8 +10672,8 @@
       <c r="A134" t="s">
         <v>144</v>
       </c>
-      <c r="B134">
-        <v>1</v>
+      <c r="B134" t="s">
+        <v>1363</v>
       </c>
       <c r="C134" t="s">
         <v>513</v>
@@ -10678,8 +10716,8 @@
       <c r="A135" t="s">
         <v>145</v>
       </c>
-      <c r="B135">
-        <v>1</v>
+      <c r="B135" t="s">
+        <v>1363</v>
       </c>
       <c r="C135" t="s">
         <v>513</v>
@@ -10722,8 +10760,8 @@
       <c r="A136" t="s">
         <v>146</v>
       </c>
-      <c r="B136">
-        <v>1</v>
+      <c r="B136" t="s">
+        <v>1363</v>
       </c>
       <c r="C136" t="s">
         <v>513</v>
@@ -10766,8 +10804,8 @@
       <c r="A137" t="s">
         <v>147</v>
       </c>
-      <c r="B137">
-        <v>1</v>
+      <c r="B137" t="s">
+        <v>1363</v>
       </c>
       <c r="C137" t="s">
         <v>513</v>
@@ -10810,8 +10848,8 @@
       <c r="A138" t="s">
         <v>148</v>
       </c>
-      <c r="B138">
-        <v>1</v>
+      <c r="B138" t="s">
+        <v>1363</v>
       </c>
       <c r="C138" t="s">
         <v>513</v>
@@ -10854,8 +10892,8 @@
       <c r="A139" t="s">
         <v>149</v>
       </c>
-      <c r="B139">
-        <v>1</v>
+      <c r="B139" t="s">
+        <v>1363</v>
       </c>
       <c r="C139" t="s">
         <v>513</v>
@@ -10898,8 +10936,8 @@
       <c r="A140" t="s">
         <v>150</v>
       </c>
-      <c r="B140">
-        <v>1</v>
+      <c r="B140" t="s">
+        <v>1363</v>
       </c>
       <c r="C140" t="s">
         <v>513</v>
@@ -10942,8 +10980,8 @@
       <c r="A141" t="s">
         <v>151</v>
       </c>
-      <c r="B141">
-        <v>1</v>
+      <c r="B141" t="s">
+        <v>1363</v>
       </c>
       <c r="C141" t="s">
         <v>513</v>
@@ -10986,8 +11024,8 @@
       <c r="A142" t="s">
         <v>152</v>
       </c>
-      <c r="B142">
-        <v>1</v>
+      <c r="B142" t="s">
+        <v>1363</v>
       </c>
       <c r="C142" t="s">
         <v>513</v>
@@ -11030,8 +11068,8 @@
       <c r="A143" t="s">
         <v>153</v>
       </c>
-      <c r="B143">
-        <v>1</v>
+      <c r="B143" t="s">
+        <v>1363</v>
       </c>
       <c r="C143" t="s">
         <v>513</v>
@@ -11074,8 +11112,8 @@
       <c r="A144" t="s">
         <v>154</v>
       </c>
-      <c r="B144">
-        <v>1</v>
+      <c r="B144" t="s">
+        <v>1363</v>
       </c>
       <c r="C144" t="s">
         <v>513</v>
@@ -11118,8 +11156,8 @@
       <c r="A145" t="s">
         <v>155</v>
       </c>
-      <c r="B145">
-        <v>1</v>
+      <c r="B145" t="s">
+        <v>1363</v>
       </c>
       <c r="C145" t="s">
         <v>513</v>
@@ -11162,8 +11200,8 @@
       <c r="A146" t="s">
         <v>156</v>
       </c>
-      <c r="B146">
-        <v>1</v>
+      <c r="B146" t="s">
+        <v>1363</v>
       </c>
       <c r="C146" t="s">
         <v>513</v>
@@ -11206,8 +11244,8 @@
       <c r="A147" t="s">
         <v>157</v>
       </c>
-      <c r="B147">
-        <v>1</v>
+      <c r="B147" t="s">
+        <v>1363</v>
       </c>
       <c r="C147" t="s">
         <v>513</v>
@@ -11250,8 +11288,8 @@
       <c r="A148" t="s">
         <v>158</v>
       </c>
-      <c r="B148">
-        <v>1</v>
+      <c r="B148" t="s">
+        <v>1363</v>
       </c>
       <c r="C148" t="s">
         <v>513</v>
@@ -11294,8 +11332,8 @@
       <c r="A149" t="s">
         <v>159</v>
       </c>
-      <c r="B149">
-        <v>1</v>
+      <c r="B149" t="s">
+        <v>1363</v>
       </c>
       <c r="C149" t="s">
         <v>513</v>
@@ -11338,8 +11376,8 @@
       <c r="A150" t="s">
         <v>160</v>
       </c>
-      <c r="B150">
-        <v>1</v>
+      <c r="B150" t="s">
+        <v>1363</v>
       </c>
       <c r="C150" t="s">
         <v>513</v>
@@ -11382,8 +11420,8 @@
       <c r="A151" t="s">
         <v>161</v>
       </c>
-      <c r="B151">
-        <v>1</v>
+      <c r="B151" t="s">
+        <v>1363</v>
       </c>
       <c r="C151" t="s">
         <v>513</v>
@@ -11426,8 +11464,8 @@
       <c r="A152" t="s">
         <v>162</v>
       </c>
-      <c r="B152">
-        <v>1</v>
+      <c r="B152" t="s">
+        <v>1363</v>
       </c>
       <c r="C152" t="s">
         <v>513</v>
@@ -11470,8 +11508,8 @@
       <c r="A153" t="s">
         <v>163</v>
       </c>
-      <c r="B153">
-        <v>1</v>
+      <c r="B153" t="s">
+        <v>1363</v>
       </c>
       <c r="C153" t="s">
         <v>513</v>
@@ -11514,8 +11552,8 @@
       <c r="A154" t="s">
         <v>164</v>
       </c>
-      <c r="B154">
-        <v>1</v>
+      <c r="B154" t="s">
+        <v>1363</v>
       </c>
       <c r="C154" t="s">
         <v>513</v>
@@ -11558,8 +11596,8 @@
       <c r="A155" t="s">
         <v>165</v>
       </c>
-      <c r="B155">
-        <v>1</v>
+      <c r="B155" t="s">
+        <v>1363</v>
       </c>
       <c r="C155" t="s">
         <v>513</v>
@@ -11602,8 +11640,8 @@
       <c r="A156" t="s">
         <v>166</v>
       </c>
-      <c r="B156">
-        <v>1</v>
+      <c r="B156" t="s">
+        <v>1363</v>
       </c>
       <c r="C156" t="s">
         <v>513</v>
@@ -11646,8 +11684,8 @@
       <c r="A157" t="s">
         <v>167</v>
       </c>
-      <c r="B157">
-        <v>1</v>
+      <c r="B157" t="s">
+        <v>1363</v>
       </c>
       <c r="C157" t="s">
         <v>513</v>
@@ -11690,8 +11728,8 @@
       <c r="A158" t="s">
         <v>168</v>
       </c>
-      <c r="B158">
-        <v>1</v>
+      <c r="B158" t="s">
+        <v>1363</v>
       </c>
       <c r="C158" t="s">
         <v>513</v>
@@ -11734,8 +11772,8 @@
       <c r="A159" t="s">
         <v>169</v>
       </c>
-      <c r="B159">
-        <v>1</v>
+      <c r="B159" t="s">
+        <v>1363</v>
       </c>
       <c r="C159" t="s">
         <v>513</v>
@@ -11778,8 +11816,8 @@
       <c r="A160" t="s">
         <v>170</v>
       </c>
-      <c r="B160">
-        <v>1</v>
+      <c r="B160" t="s">
+        <v>1363</v>
       </c>
       <c r="C160" t="s">
         <v>513</v>
@@ -11822,8 +11860,8 @@
       <c r="A161" t="s">
         <v>171</v>
       </c>
-      <c r="B161">
-        <v>1</v>
+      <c r="B161" t="s">
+        <v>1363</v>
       </c>
       <c r="C161" t="s">
         <v>513</v>
@@ -11866,8 +11904,8 @@
       <c r="A162" t="s">
         <v>172</v>
       </c>
-      <c r="B162">
-        <v>1</v>
+      <c r="B162" t="s">
+        <v>1363</v>
       </c>
       <c r="C162" t="s">
         <v>513</v>
@@ -11910,8 +11948,8 @@
       <c r="A163" t="s">
         <v>173</v>
       </c>
-      <c r="B163">
-        <v>1</v>
+      <c r="B163" t="s">
+        <v>1363</v>
       </c>
       <c r="C163" t="s">
         <v>513</v>
@@ -11954,8 +11992,8 @@
       <c r="A164" t="s">
         <v>174</v>
       </c>
-      <c r="B164">
-        <v>1</v>
+      <c r="B164" t="s">
+        <v>1363</v>
       </c>
       <c r="C164" t="s">
         <v>513</v>
@@ -11998,8 +12036,8 @@
       <c r="A165" t="s">
         <v>175</v>
       </c>
-      <c r="B165">
-        <v>1</v>
+      <c r="B165" t="s">
+        <v>1363</v>
       </c>
       <c r="C165" t="s">
         <v>513</v>
@@ -12042,8 +12080,8 @@
       <c r="A166" t="s">
         <v>176</v>
       </c>
-      <c r="B166">
-        <v>1</v>
+      <c r="B166" t="s">
+        <v>1363</v>
       </c>
       <c r="C166" t="s">
         <v>513</v>
@@ -12086,8 +12124,8 @@
       <c r="A167" t="s">
         <v>177</v>
       </c>
-      <c r="B167">
-        <v>1</v>
+      <c r="B167" t="s">
+        <v>1363</v>
       </c>
       <c r="C167" t="s">
         <v>513</v>
@@ -12130,8 +12168,8 @@
       <c r="A168" t="s">
         <v>178</v>
       </c>
-      <c r="B168">
-        <v>1</v>
+      <c r="B168" t="s">
+        <v>1363</v>
       </c>
       <c r="C168" t="s">
         <v>513</v>
@@ -12174,8 +12212,8 @@
       <c r="A169" t="s">
         <v>179</v>
       </c>
-      <c r="B169">
-        <v>1</v>
+      <c r="B169" t="s">
+        <v>1363</v>
       </c>
       <c r="C169" t="s">
         <v>513</v>
@@ -12218,8 +12256,8 @@
       <c r="A170" t="s">
         <v>180</v>
       </c>
-      <c r="B170">
-        <v>1</v>
+      <c r="B170" t="s">
+        <v>1363</v>
       </c>
       <c r="C170" t="s">
         <v>513</v>
@@ -12262,8 +12300,8 @@
       <c r="A171" t="s">
         <v>181</v>
       </c>
-      <c r="B171">
-        <v>1</v>
+      <c r="B171" t="s">
+        <v>1363</v>
       </c>
       <c r="C171" t="s">
         <v>513</v>
@@ -12306,8 +12344,8 @@
       <c r="A172" t="s">
         <v>182</v>
       </c>
-      <c r="B172">
-        <v>1</v>
+      <c r="B172" t="s">
+        <v>1363</v>
       </c>
       <c r="C172" t="s">
         <v>513</v>
@@ -12350,8 +12388,8 @@
       <c r="A173" t="s">
         <v>183</v>
       </c>
-      <c r="B173">
-        <v>1</v>
+      <c r="B173" t="s">
+        <v>1363</v>
       </c>
       <c r="C173" t="s">
         <v>513</v>
@@ -12394,8 +12432,8 @@
       <c r="A174" t="s">
         <v>184</v>
       </c>
-      <c r="B174">
-        <v>1</v>
+      <c r="B174" t="s">
+        <v>1363</v>
       </c>
       <c r="C174" t="s">
         <v>513</v>
@@ -12438,8 +12476,8 @@
       <c r="A175" t="s">
         <v>185</v>
       </c>
-      <c r="B175">
-        <v>1</v>
+      <c r="B175" t="s">
+        <v>1363</v>
       </c>
       <c r="C175" t="s">
         <v>513</v>
@@ -12482,8 +12520,8 @@
       <c r="A176" t="s">
         <v>186</v>
       </c>
-      <c r="B176">
-        <v>1</v>
+      <c r="B176" t="s">
+        <v>1363</v>
       </c>
       <c r="C176" t="s">
         <v>513</v>
@@ -12526,8 +12564,8 @@
       <c r="A177" t="s">
         <v>187</v>
       </c>
-      <c r="B177">
-        <v>1</v>
+      <c r="B177" t="s">
+        <v>1363</v>
       </c>
       <c r="C177" t="s">
         <v>513</v>
@@ -12570,8 +12608,8 @@
       <c r="A178" t="s">
         <v>188</v>
       </c>
-      <c r="B178">
-        <v>1</v>
+      <c r="B178" t="s">
+        <v>1363</v>
       </c>
       <c r="C178" t="s">
         <v>513</v>
@@ -12614,8 +12652,8 @@
       <c r="A179" t="s">
         <v>189</v>
       </c>
-      <c r="B179">
-        <v>1</v>
+      <c r="B179" t="s">
+        <v>1363</v>
       </c>
       <c r="C179" t="s">
         <v>513</v>
@@ -12658,8 +12696,8 @@
       <c r="A180" t="s">
         <v>190</v>
       </c>
-      <c r="B180">
-        <v>1</v>
+      <c r="B180" t="s">
+        <v>1363</v>
       </c>
       <c r="C180" t="s">
         <v>513</v>
@@ -12702,8 +12740,8 @@
       <c r="A181" t="s">
         <v>191</v>
       </c>
-      <c r="B181">
-        <v>1</v>
+      <c r="B181" t="s">
+        <v>1363</v>
       </c>
       <c r="C181" t="s">
         <v>513</v>
@@ -12746,8 +12784,8 @@
       <c r="A182" t="s">
         <v>192</v>
       </c>
-      <c r="B182">
-        <v>1</v>
+      <c r="B182" t="s">
+        <v>1363</v>
       </c>
       <c r="C182" t="s">
         <v>513</v>
@@ -12790,8 +12828,8 @@
       <c r="A183" t="s">
         <v>193</v>
       </c>
-      <c r="B183">
-        <v>1</v>
+      <c r="B183" t="s">
+        <v>1363</v>
       </c>
       <c r="C183" t="s">
         <v>513</v>
@@ -12834,8 +12872,8 @@
       <c r="A184" t="s">
         <v>194</v>
       </c>
-      <c r="B184">
-        <v>1</v>
+      <c r="B184" t="s">
+        <v>1363</v>
       </c>
       <c r="C184" t="s">
         <v>513</v>
@@ -12878,8 +12916,8 @@
       <c r="A185" t="s">
         <v>195</v>
       </c>
-      <c r="B185">
-        <v>1</v>
+      <c r="B185" t="s">
+        <v>1363</v>
       </c>
       <c r="C185" t="s">
         <v>513</v>
@@ -12922,8 +12960,8 @@
       <c r="A186" t="s">
         <v>196</v>
       </c>
-      <c r="B186">
-        <v>1</v>
+      <c r="B186" t="s">
+        <v>1363</v>
       </c>
       <c r="C186" t="s">
         <v>513</v>
@@ -12966,8 +13004,8 @@
       <c r="A187" t="s">
         <v>197</v>
       </c>
-      <c r="B187">
-        <v>1</v>
+      <c r="B187" t="s">
+        <v>1363</v>
       </c>
       <c r="C187" t="s">
         <v>513</v>
@@ -13010,8 +13048,8 @@
       <c r="A188" t="s">
         <v>198</v>
       </c>
-      <c r="B188">
-        <v>1</v>
+      <c r="B188" t="s">
+        <v>1363</v>
       </c>
       <c r="C188" t="s">
         <v>513</v>
@@ -13054,8 +13092,8 @@
       <c r="A189" t="s">
         <v>199</v>
       </c>
-      <c r="B189">
-        <v>1</v>
+      <c r="B189" t="s">
+        <v>1363</v>
       </c>
       <c r="C189" t="s">
         <v>513</v>
@@ -13098,8 +13136,8 @@
       <c r="A190" t="s">
         <v>200</v>
       </c>
-      <c r="B190">
-        <v>1</v>
+      <c r="B190" t="s">
+        <v>1363</v>
       </c>
       <c r="C190" t="s">
         <v>513</v>
@@ -13142,8 +13180,8 @@
       <c r="A191" t="s">
         <v>201</v>
       </c>
-      <c r="B191">
-        <v>1</v>
+      <c r="B191" t="s">
+        <v>1363</v>
       </c>
       <c r="C191" t="s">
         <v>513</v>
@@ -13186,8 +13224,8 @@
       <c r="A192" t="s">
         <v>202</v>
       </c>
-      <c r="B192">
-        <v>1</v>
+      <c r="B192" t="s">
+        <v>1363</v>
       </c>
       <c r="C192" t="s">
         <v>513</v>
@@ -13230,8 +13268,8 @@
       <c r="A193" t="s">
         <v>203</v>
       </c>
-      <c r="B193">
-        <v>1</v>
+      <c r="B193" t="s">
+        <v>1363</v>
       </c>
       <c r="C193" t="s">
         <v>513</v>
@@ -13274,8 +13312,8 @@
       <c r="A194" t="s">
         <v>204</v>
       </c>
-      <c r="B194">
-        <v>1</v>
+      <c r="B194" t="s">
+        <v>1363</v>
       </c>
       <c r="C194" t="s">
         <v>513</v>
@@ -13318,8 +13356,8 @@
       <c r="A195" t="s">
         <v>207</v>
       </c>
-      <c r="B195">
-        <v>1</v>
+      <c r="B195" t="s">
+        <v>1363</v>
       </c>
       <c r="C195" t="s">
         <v>513</v>
@@ -13362,8 +13400,8 @@
       <c r="A196" t="s">
         <v>208</v>
       </c>
-      <c r="B196">
-        <v>1</v>
+      <c r="B196" t="s">
+        <v>1363</v>
       </c>
       <c r="C196" t="s">
         <v>513</v>
@@ -13406,8 +13444,8 @@
       <c r="A197" t="s">
         <v>209</v>
       </c>
-      <c r="B197">
-        <v>1</v>
+      <c r="B197" t="s">
+        <v>1363</v>
       </c>
       <c r="C197" t="s">
         <v>513</v>
@@ -13450,8 +13488,8 @@
       <c r="A198" t="s">
         <v>210</v>
       </c>
-      <c r="B198">
-        <v>1</v>
+      <c r="B198" t="s">
+        <v>1363</v>
       </c>
       <c r="C198" t="s">
         <v>513</v>
@@ -13494,8 +13532,8 @@
       <c r="A199" t="s">
         <v>211</v>
       </c>
-      <c r="B199">
-        <v>1</v>
+      <c r="B199" t="s">
+        <v>1363</v>
       </c>
       <c r="C199" t="s">
         <v>513</v>
@@ -13538,8 +13576,8 @@
       <c r="A200" t="s">
         <v>212</v>
       </c>
-      <c r="B200">
-        <v>1</v>
+      <c r="B200" t="s">
+        <v>1363</v>
       </c>
       <c r="C200" t="s">
         <v>513</v>
@@ -13582,8 +13620,8 @@
       <c r="A201" t="s">
         <v>213</v>
       </c>
-      <c r="B201">
-        <v>1</v>
+      <c r="B201" t="s">
+        <v>1363</v>
       </c>
       <c r="C201" t="s">
         <v>513</v>
@@ -13626,8 +13664,8 @@
       <c r="A202" t="s">
         <v>214</v>
       </c>
-      <c r="B202">
-        <v>1</v>
+      <c r="B202" t="s">
+        <v>1363</v>
       </c>
       <c r="C202" t="s">
         <v>513</v>
@@ -13670,8 +13708,8 @@
       <c r="A203" t="s">
         <v>215</v>
       </c>
-      <c r="B203">
-        <v>1</v>
+      <c r="B203" t="s">
+        <v>1363</v>
       </c>
       <c r="C203" t="s">
         <v>513</v>
@@ -13714,8 +13752,8 @@
       <c r="A204" t="s">
         <v>216</v>
       </c>
-      <c r="B204">
-        <v>1</v>
+      <c r="B204" t="s">
+        <v>1363</v>
       </c>
       <c r="C204" t="s">
         <v>513</v>
@@ -13758,8 +13796,8 @@
       <c r="A205" t="s">
         <v>217</v>
       </c>
-      <c r="B205">
-        <v>1</v>
+      <c r="B205" t="s">
+        <v>1363</v>
       </c>
       <c r="C205" t="s">
         <v>513</v>
@@ -13802,8 +13840,8 @@
       <c r="A206" t="s">
         <v>218</v>
       </c>
-      <c r="B206">
-        <v>1</v>
+      <c r="B206" t="s">
+        <v>1363</v>
       </c>
       <c r="C206" t="s">
         <v>513</v>
@@ -13846,8 +13884,8 @@
       <c r="A207" t="s">
         <v>219</v>
       </c>
-      <c r="B207">
-        <v>1</v>
+      <c r="B207" t="s">
+        <v>1363</v>
       </c>
       <c r="C207" t="s">
         <v>513</v>
@@ -13890,8 +13928,8 @@
       <c r="A208" t="s">
         <v>220</v>
       </c>
-      <c r="B208">
-        <v>1</v>
+      <c r="B208" t="s">
+        <v>1363</v>
       </c>
       <c r="C208" t="s">
         <v>513</v>
@@ -13934,8 +13972,8 @@
       <c r="A209" t="s">
         <v>221</v>
       </c>
-      <c r="B209">
-        <v>1</v>
+      <c r="B209" t="s">
+        <v>1363</v>
       </c>
       <c r="C209" t="s">
         <v>513</v>
@@ -13978,8 +14016,8 @@
       <c r="A210" t="s">
         <v>222</v>
       </c>
-      <c r="B210">
-        <v>1</v>
+      <c r="B210" t="s">
+        <v>1363</v>
       </c>
       <c r="C210" t="s">
         <v>513</v>
@@ -14022,8 +14060,8 @@
       <c r="A211" t="s">
         <v>223</v>
       </c>
-      <c r="B211">
-        <v>1</v>
+      <c r="B211" t="s">
+        <v>1363</v>
       </c>
       <c r="C211" t="s">
         <v>513</v>
@@ -14066,8 +14104,8 @@
       <c r="A212" t="s">
         <v>224</v>
       </c>
-      <c r="B212">
-        <v>1</v>
+      <c r="B212" t="s">
+        <v>1363</v>
       </c>
       <c r="C212" t="s">
         <v>513</v>
@@ -14110,8 +14148,8 @@
       <c r="A213" t="s">
         <v>225</v>
       </c>
-      <c r="B213">
-        <v>1</v>
+      <c r="B213" t="s">
+        <v>1363</v>
       </c>
       <c r="C213" t="s">
         <v>513</v>
@@ -14154,8 +14192,8 @@
       <c r="A214" t="s">
         <v>226</v>
       </c>
-      <c r="B214">
-        <v>1</v>
+      <c r="B214" t="s">
+        <v>1363</v>
       </c>
       <c r="C214" t="s">
         <v>513</v>
@@ -14198,8 +14236,8 @@
       <c r="A215" t="s">
         <v>227</v>
       </c>
-      <c r="B215">
-        <v>1</v>
+      <c r="B215" t="s">
+        <v>1363</v>
       </c>
       <c r="C215" t="s">
         <v>513</v>
@@ -14242,8 +14280,8 @@
       <c r="A216" t="s">
         <v>228</v>
       </c>
-      <c r="B216">
-        <v>1</v>
+      <c r="B216" t="s">
+        <v>1363</v>
       </c>
       <c r="C216" t="s">
         <v>513</v>
@@ -14286,8 +14324,8 @@
       <c r="A217" t="s">
         <v>229</v>
       </c>
-      <c r="B217">
-        <v>1</v>
+      <c r="B217" t="s">
+        <v>1363</v>
       </c>
       <c r="C217" t="s">
         <v>513</v>
@@ -14330,8 +14368,8 @@
       <c r="A218" t="s">
         <v>230</v>
       </c>
-      <c r="B218">
-        <v>1</v>
+      <c r="B218" t="s">
+        <v>1363</v>
       </c>
       <c r="C218" t="s">
         <v>513</v>
@@ -14374,8 +14412,8 @@
       <c r="A219" t="s">
         <v>231</v>
       </c>
-      <c r="B219">
-        <v>1</v>
+      <c r="B219" t="s">
+        <v>1363</v>
       </c>
       <c r="C219" t="s">
         <v>513</v>
@@ -14418,8 +14456,8 @@
       <c r="A220" t="s">
         <v>232</v>
       </c>
-      <c r="B220">
-        <v>1</v>
+      <c r="B220" t="s">
+        <v>1363</v>
       </c>
       <c r="C220" t="s">
         <v>513</v>
@@ -14462,8 +14500,8 @@
       <c r="A221" t="s">
         <v>233</v>
       </c>
-      <c r="B221">
-        <v>1</v>
+      <c r="B221" t="s">
+        <v>1363</v>
       </c>
       <c r="C221" t="s">
         <v>513</v>
@@ -14506,8 +14544,8 @@
       <c r="A222" t="s">
         <v>234</v>
       </c>
-      <c r="B222">
-        <v>1</v>
+      <c r="B222" t="s">
+        <v>1363</v>
       </c>
       <c r="C222" t="s">
         <v>513</v>
@@ -14550,8 +14588,8 @@
       <c r="A223" t="s">
         <v>235</v>
       </c>
-      <c r="B223">
-        <v>1</v>
+      <c r="B223" t="s">
+        <v>1363</v>
       </c>
       <c r="C223" t="s">
         <v>513</v>
@@ -14594,8 +14632,8 @@
       <c r="A224" t="s">
         <v>236</v>
       </c>
-      <c r="B224">
-        <v>1</v>
+      <c r="B224" t="s">
+        <v>1363</v>
       </c>
       <c r="C224" t="s">
         <v>513</v>
@@ -14638,8 +14676,8 @@
       <c r="A225" t="s">
         <v>237</v>
       </c>
-      <c r="B225">
-        <v>1</v>
+      <c r="B225" t="s">
+        <v>1363</v>
       </c>
       <c r="C225" t="s">
         <v>513</v>
@@ -14682,8 +14720,8 @@
       <c r="A226" t="s">
         <v>238</v>
       </c>
-      <c r="B226">
-        <v>1</v>
+      <c r="B226" t="s">
+        <v>1363</v>
       </c>
       <c r="C226" t="s">
         <v>513</v>
@@ -14726,8 +14764,8 @@
       <c r="A227" t="s">
         <v>239</v>
       </c>
-      <c r="B227">
-        <v>1</v>
+      <c r="B227" t="s">
+        <v>1363</v>
       </c>
       <c r="C227" t="s">
         <v>513</v>
@@ -14770,8 +14808,8 @@
       <c r="A228" t="s">
         <v>240</v>
       </c>
-      <c r="B228">
-        <v>1</v>
+      <c r="B228" t="s">
+        <v>1363</v>
       </c>
       <c r="C228" t="s">
         <v>513</v>
@@ -14814,8 +14852,8 @@
       <c r="A229" t="s">
         <v>241</v>
       </c>
-      <c r="B229">
-        <v>1</v>
+      <c r="B229" t="s">
+        <v>1363</v>
       </c>
       <c r="C229" t="s">
         <v>513</v>
@@ -14858,8 +14896,8 @@
       <c r="A230" t="s">
         <v>242</v>
       </c>
-      <c r="B230">
-        <v>1</v>
+      <c r="B230" t="s">
+        <v>1363</v>
       </c>
       <c r="C230" t="s">
         <v>513</v>
@@ -14902,8 +14940,8 @@
       <c r="A231" t="s">
         <v>243</v>
       </c>
-      <c r="B231">
-        <v>1</v>
+      <c r="B231" t="s">
+        <v>1363</v>
       </c>
       <c r="C231" t="s">
         <v>513</v>
@@ -14946,8 +14984,8 @@
       <c r="A232" t="s">
         <v>244</v>
       </c>
-      <c r="B232">
-        <v>1</v>
+      <c r="B232" t="s">
+        <v>1363</v>
       </c>
       <c r="C232" t="s">
         <v>513</v>
@@ -14990,8 +15028,8 @@
       <c r="A233" t="s">
         <v>245</v>
       </c>
-      <c r="B233">
-        <v>1</v>
+      <c r="B233" t="s">
+        <v>1363</v>
       </c>
       <c r="C233" t="s">
         <v>513</v>
@@ -15034,8 +15072,8 @@
       <c r="A234" t="s">
         <v>246</v>
       </c>
-      <c r="B234">
-        <v>1</v>
+      <c r="B234" t="s">
+        <v>1363</v>
       </c>
       <c r="C234" t="s">
         <v>513</v>
@@ -15078,8 +15116,8 @@
       <c r="A235" t="s">
         <v>247</v>
       </c>
-      <c r="B235">
-        <v>1</v>
+      <c r="B235" t="s">
+        <v>1363</v>
       </c>
       <c r="C235" t="s">
         <v>513</v>
@@ -15122,8 +15160,8 @@
       <c r="A236" t="s">
         <v>248</v>
       </c>
-      <c r="B236">
-        <v>1</v>
+      <c r="B236" t="s">
+        <v>1363</v>
       </c>
       <c r="C236" t="s">
         <v>513</v>
@@ -15166,8 +15204,8 @@
       <c r="A237" t="s">
         <v>249</v>
       </c>
-      <c r="B237">
-        <v>1</v>
+      <c r="B237" t="s">
+        <v>1363</v>
       </c>
       <c r="C237" t="s">
         <v>513</v>
@@ -15210,8 +15248,8 @@
       <c r="A238" t="s">
         <v>250</v>
       </c>
-      <c r="B238">
-        <v>1</v>
+      <c r="B238" t="s">
+        <v>1363</v>
       </c>
       <c r="C238" t="s">
         <v>513</v>
@@ -15254,8 +15292,8 @@
       <c r="A239" t="s">
         <v>251</v>
       </c>
-      <c r="B239">
-        <v>1</v>
+      <c r="B239" t="s">
+        <v>1363</v>
       </c>
       <c r="C239" t="s">
         <v>513</v>
@@ -15298,8 +15336,8 @@
       <c r="A240" t="s">
         <v>252</v>
       </c>
-      <c r="B240">
-        <v>1</v>
+      <c r="B240" t="s">
+        <v>1363</v>
       </c>
       <c r="C240" t="s">
         <v>513</v>
@@ -15342,8 +15380,8 @@
       <c r="A241" t="s">
         <v>253</v>
       </c>
-      <c r="B241">
-        <v>1</v>
+      <c r="B241" t="s">
+        <v>1363</v>
       </c>
       <c r="C241" t="s">
         <v>513</v>
@@ -15386,8 +15424,8 @@
       <c r="A242" t="s">
         <v>254</v>
       </c>
-      <c r="B242">
-        <v>1</v>
+      <c r="B242" t="s">
+        <v>1363</v>
       </c>
       <c r="C242" t="s">
         <v>513</v>
@@ -15430,8 +15468,8 @@
       <c r="A243" t="s">
         <v>255</v>
       </c>
-      <c r="B243">
-        <v>1</v>
+      <c r="B243" t="s">
+        <v>1363</v>
       </c>
       <c r="C243" t="s">
         <v>513</v>
@@ -15474,8 +15512,8 @@
       <c r="A244" t="s">
         <v>256</v>
       </c>
-      <c r="B244">
-        <v>1</v>
+      <c r="B244" t="s">
+        <v>1363</v>
       </c>
       <c r="C244" t="s">
         <v>513</v>
@@ -15518,8 +15556,8 @@
       <c r="A245" t="s">
         <v>257</v>
       </c>
-      <c r="B245">
-        <v>1</v>
+      <c r="B245" t="s">
+        <v>1363</v>
       </c>
       <c r="C245" t="s">
         <v>513</v>
@@ -15562,8 +15600,8 @@
       <c r="A246" t="s">
         <v>258</v>
       </c>
-      <c r="B246">
-        <v>1</v>
+      <c r="B246" t="s">
+        <v>1363</v>
       </c>
       <c r="C246" t="s">
         <v>513</v>
@@ -15606,8 +15644,8 @@
       <c r="A247" t="s">
         <v>259</v>
       </c>
-      <c r="B247">
-        <v>1</v>
+      <c r="B247" t="s">
+        <v>1363</v>
       </c>
       <c r="C247" t="s">
         <v>513</v>
@@ -15650,8 +15688,8 @@
       <c r="A248" t="s">
         <v>260</v>
       </c>
-      <c r="B248">
-        <v>1</v>
+      <c r="B248" t="s">
+        <v>1363</v>
       </c>
       <c r="C248" t="s">
         <v>513</v>
@@ -15694,8 +15732,8 @@
       <c r="A249" t="s">
         <v>261</v>
       </c>
-      <c r="B249">
-        <v>1</v>
+      <c r="B249" t="s">
+        <v>1363</v>
       </c>
       <c r="C249" t="s">
         <v>513</v>
@@ -15738,8 +15776,8 @@
       <c r="A250" t="s">
         <v>262</v>
       </c>
-      <c r="B250">
-        <v>1</v>
+      <c r="B250" t="s">
+        <v>1363</v>
       </c>
       <c r="C250" t="s">
         <v>513</v>
@@ -15782,8 +15820,8 @@
       <c r="A251" t="s">
         <v>263</v>
       </c>
-      <c r="B251">
-        <v>1</v>
+      <c r="B251" t="s">
+        <v>1363</v>
       </c>
       <c r="C251" t="s">
         <v>513</v>
@@ -15826,8 +15864,8 @@
       <c r="A252" t="s">
         <v>264</v>
       </c>
-      <c r="B252">
-        <v>1</v>
+      <c r="B252" t="s">
+        <v>1363</v>
       </c>
       <c r="C252" t="s">
         <v>513</v>
@@ -15870,8 +15908,8 @@
       <c r="A253" t="s">
         <v>265</v>
       </c>
-      <c r="B253">
-        <v>1</v>
+      <c r="B253" t="s">
+        <v>1363</v>
       </c>
       <c r="C253" t="s">
         <v>513</v>
@@ -15914,8 +15952,8 @@
       <c r="A254" t="s">
         <v>266</v>
       </c>
-      <c r="B254">
-        <v>1</v>
+      <c r="B254" t="s">
+        <v>1363</v>
       </c>
       <c r="C254" t="s">
         <v>513</v>
@@ -15958,8 +15996,8 @@
       <c r="A255" t="s">
         <v>269</v>
       </c>
-      <c r="B255">
-        <v>1</v>
+      <c r="B255" t="s">
+        <v>1363</v>
       </c>
       <c r="C255" t="s">
         <v>513</v>
@@ -16002,8 +16040,8 @@
       <c r="A256" t="s">
         <v>270</v>
       </c>
-      <c r="B256">
-        <v>1</v>
+      <c r="B256" t="s">
+        <v>1363</v>
       </c>
       <c r="C256" t="s">
         <v>513</v>
@@ -16046,8 +16084,8 @@
       <c r="A257" t="s">
         <v>271</v>
       </c>
-      <c r="B257">
-        <v>1</v>
+      <c r="B257" t="s">
+        <v>1363</v>
       </c>
       <c r="C257" t="s">
         <v>513</v>
@@ -16090,8 +16128,8 @@
       <c r="A258" t="s">
         <v>272</v>
       </c>
-      <c r="B258">
-        <v>1</v>
+      <c r="B258" t="s">
+        <v>1363</v>
       </c>
       <c r="C258" t="s">
         <v>513</v>
@@ -16134,8 +16172,8 @@
       <c r="A259" t="s">
         <v>273</v>
       </c>
-      <c r="B259">
-        <v>1</v>
+      <c r="B259" t="s">
+        <v>1363</v>
       </c>
       <c r="C259" t="s">
         <v>513</v>
@@ -16178,8 +16216,8 @@
       <c r="A260" t="s">
         <v>274</v>
       </c>
-      <c r="B260">
-        <v>1</v>
+      <c r="B260" t="s">
+        <v>1363</v>
       </c>
       <c r="C260" t="s">
         <v>513</v>
@@ -16222,8 +16260,8 @@
       <c r="A261" t="s">
         <v>275</v>
       </c>
-      <c r="B261">
-        <v>1</v>
+      <c r="B261" t="s">
+        <v>1363</v>
       </c>
       <c r="C261" t="s">
         <v>513</v>
@@ -16266,8 +16304,8 @@
       <c r="A262" t="s">
         <v>276</v>
       </c>
-      <c r="B262">
-        <v>1</v>
+      <c r="B262" t="s">
+        <v>1363</v>
       </c>
       <c r="C262" t="s">
         <v>513</v>
@@ -16310,8 +16348,8 @@
       <c r="A263" t="s">
         <v>277</v>
       </c>
-      <c r="B263">
-        <v>1</v>
+      <c r="B263" t="s">
+        <v>1363</v>
       </c>
       <c r="C263" t="s">
         <v>513</v>
@@ -16354,8 +16392,8 @@
       <c r="A264" t="s">
         <v>278</v>
       </c>
-      <c r="B264">
-        <v>1</v>
+      <c r="B264" t="s">
+        <v>1363</v>
       </c>
       <c r="C264" t="s">
         <v>513</v>
@@ -16398,8 +16436,8 @@
       <c r="A265" t="s">
         <v>279</v>
       </c>
-      <c r="B265">
-        <v>1</v>
+      <c r="B265" t="s">
+        <v>1363</v>
       </c>
       <c r="C265" t="s">
         <v>513</v>
@@ -16442,8 +16480,8 @@
       <c r="A266" t="s">
         <v>280</v>
       </c>
-      <c r="B266">
-        <v>1</v>
+      <c r="B266" t="s">
+        <v>1363</v>
       </c>
       <c r="C266" t="s">
         <v>513</v>
@@ -16486,8 +16524,8 @@
       <c r="A267" t="s">
         <v>281</v>
       </c>
-      <c r="B267">
-        <v>1</v>
+      <c r="B267" t="s">
+        <v>1363</v>
       </c>
       <c r="C267" t="s">
         <v>513</v>
@@ -16530,8 +16568,8 @@
       <c r="A268" t="s">
         <v>282</v>
       </c>
-      <c r="B268">
-        <v>1</v>
+      <c r="B268" t="s">
+        <v>1363</v>
       </c>
       <c r="C268" t="s">
         <v>513</v>
@@ -16574,8 +16612,8 @@
       <c r="A269" t="s">
         <v>283</v>
       </c>
-      <c r="B269">
-        <v>1</v>
+      <c r="B269" t="s">
+        <v>1363</v>
       </c>
       <c r="C269" t="s">
         <v>513</v>
@@ -16618,8 +16656,8 @@
       <c r="A270" t="s">
         <v>284</v>
       </c>
-      <c r="B270">
-        <v>1</v>
+      <c r="B270" t="s">
+        <v>1363</v>
       </c>
       <c r="C270" t="s">
         <v>513</v>
@@ -16662,8 +16700,8 @@
       <c r="A271" t="s">
         <v>285</v>
       </c>
-      <c r="B271">
-        <v>1</v>
+      <c r="B271" t="s">
+        <v>1363</v>
       </c>
       <c r="C271" t="s">
         <v>513</v>
@@ -16706,8 +16744,8 @@
       <c r="A272" t="s">
         <v>286</v>
       </c>
-      <c r="B272">
-        <v>1</v>
+      <c r="B272" t="s">
+        <v>1363</v>
       </c>
       <c r="C272" t="s">
         <v>513</v>
@@ -16750,8 +16788,8 @@
       <c r="A273" t="s">
         <v>287</v>
       </c>
-      <c r="B273">
-        <v>1</v>
+      <c r="B273" t="s">
+        <v>1363</v>
       </c>
       <c r="C273" t="s">
         <v>513</v>
@@ -16794,8 +16832,8 @@
       <c r="A274" t="s">
         <v>288</v>
       </c>
-      <c r="B274">
-        <v>1</v>
+      <c r="B274" t="s">
+        <v>1363</v>
       </c>
       <c r="C274" t="s">
         <v>513</v>
@@ -16838,8 +16876,8 @@
       <c r="A275" t="s">
         <v>289</v>
       </c>
-      <c r="B275">
-        <v>1</v>
+      <c r="B275" t="s">
+        <v>1363</v>
       </c>
       <c r="C275" t="s">
         <v>513</v>
@@ -16882,8 +16920,8 @@
       <c r="A276" t="s">
         <v>290</v>
       </c>
-      <c r="B276">
-        <v>1</v>
+      <c r="B276" t="s">
+        <v>1363</v>
       </c>
       <c r="C276" t="s">
         <v>513</v>
@@ -16926,8 +16964,8 @@
       <c r="A277" t="s">
         <v>291</v>
       </c>
-      <c r="B277">
-        <v>1</v>
+      <c r="B277" t="s">
+        <v>1363</v>
       </c>
       <c r="C277" t="s">
         <v>513</v>
@@ -16970,8 +17008,8 @@
       <c r="A278" t="s">
         <v>292</v>
       </c>
-      <c r="B278">
-        <v>1</v>
+      <c r="B278" t="s">
+        <v>1363</v>
       </c>
       <c r="C278" t="s">
         <v>513</v>
@@ -17014,8 +17052,8 @@
       <c r="A279" t="s">
         <v>293</v>
       </c>
-      <c r="B279">
-        <v>1</v>
+      <c r="B279" t="s">
+        <v>1363</v>
       </c>
       <c r="C279" t="s">
         <v>513</v>
@@ -17058,8 +17096,8 @@
       <c r="A280" t="s">
         <v>294</v>
       </c>
-      <c r="B280">
-        <v>1</v>
+      <c r="B280" t="s">
+        <v>1363</v>
       </c>
       <c r="C280" t="s">
         <v>513</v>
@@ -17102,8 +17140,8 @@
       <c r="A281" t="s">
         <v>295</v>
       </c>
-      <c r="B281">
-        <v>1</v>
+      <c r="B281" t="s">
+        <v>1363</v>
       </c>
       <c r="C281" t="s">
         <v>513</v>
@@ -17146,8 +17184,8 @@
       <c r="A282" t="s">
         <v>296</v>
       </c>
-      <c r="B282">
-        <v>1</v>
+      <c r="B282" t="s">
+        <v>1363</v>
       </c>
       <c r="C282" t="s">
         <v>513</v>
@@ -17190,8 +17228,8 @@
       <c r="A283" t="s">
         <v>297</v>
       </c>
-      <c r="B283">
-        <v>1</v>
+      <c r="B283" t="s">
+        <v>1363</v>
       </c>
       <c r="C283" t="s">
         <v>513</v>
@@ -17234,8 +17272,8 @@
       <c r="A284" t="s">
         <v>298</v>
       </c>
-      <c r="B284">
-        <v>1</v>
+      <c r="B284" t="s">
+        <v>1363</v>
       </c>
       <c r="C284" t="s">
         <v>513</v>
@@ -17278,8 +17316,8 @@
       <c r="A285" t="s">
         <v>299</v>
       </c>
-      <c r="B285">
-        <v>1</v>
+      <c r="B285" t="s">
+        <v>1363</v>
       </c>
       <c r="C285" t="s">
         <v>513</v>
@@ -17322,8 +17360,8 @@
       <c r="A286" t="s">
         <v>300</v>
       </c>
-      <c r="B286">
-        <v>1</v>
+      <c r="B286" t="s">
+        <v>1363</v>
       </c>
       <c r="C286" t="s">
         <v>513</v>
@@ -17366,8 +17404,8 @@
       <c r="A287" t="s">
         <v>301</v>
       </c>
-      <c r="B287">
-        <v>1</v>
+      <c r="B287" t="s">
+        <v>1363</v>
       </c>
       <c r="C287" t="s">
         <v>513</v>
@@ -17410,8 +17448,8 @@
       <c r="A288" t="s">
         <v>302</v>
       </c>
-      <c r="B288">
-        <v>1</v>
+      <c r="B288" t="s">
+        <v>1363</v>
       </c>
       <c r="C288" t="s">
         <v>513</v>
@@ -17454,8 +17492,8 @@
       <c r="A289" t="s">
         <v>303</v>
       </c>
-      <c r="B289">
-        <v>1</v>
+      <c r="B289" t="s">
+        <v>1363</v>
       </c>
       <c r="C289" t="s">
         <v>513</v>
@@ -17498,8 +17536,8 @@
       <c r="A290" t="s">
         <v>304</v>
       </c>
-      <c r="B290">
-        <v>1</v>
+      <c r="B290" t="s">
+        <v>1363</v>
       </c>
       <c r="C290" t="s">
         <v>513</v>
@@ -17542,8 +17580,8 @@
       <c r="A291" t="s">
         <v>305</v>
       </c>
-      <c r="B291">
-        <v>1</v>
+      <c r="B291" t="s">
+        <v>1363</v>
       </c>
       <c r="C291" t="s">
         <v>513</v>
@@ -17586,8 +17624,8 @@
       <c r="A292" t="s">
         <v>306</v>
       </c>
-      <c r="B292">
-        <v>1</v>
+      <c r="B292" t="s">
+        <v>1363</v>
       </c>
       <c r="C292" t="s">
         <v>513</v>
@@ -17630,8 +17668,8 @@
       <c r="A293" t="s">
         <v>307</v>
       </c>
-      <c r="B293">
-        <v>1</v>
+      <c r="B293" t="s">
+        <v>1363</v>
       </c>
       <c r="C293" t="s">
         <v>513</v>
@@ -17674,8 +17712,8 @@
       <c r="A294" t="s">
         <v>308</v>
       </c>
-      <c r="B294">
-        <v>1</v>
+      <c r="B294" t="s">
+        <v>1363</v>
       </c>
       <c r="C294" t="s">
         <v>513</v>
@@ -17718,8 +17756,8 @@
       <c r="A295" t="s">
         <v>309</v>
       </c>
-      <c r="B295">
-        <v>1</v>
+      <c r="B295" t="s">
+        <v>1363</v>
       </c>
       <c r="C295" t="s">
         <v>513</v>
@@ -17762,8 +17800,8 @@
       <c r="A296" t="s">
         <v>310</v>
       </c>
-      <c r="B296">
-        <v>1</v>
+      <c r="B296" t="s">
+        <v>1363</v>
       </c>
       <c r="C296" t="s">
         <v>513</v>
@@ -17806,8 +17844,8 @@
       <c r="A297" t="s">
         <v>311</v>
       </c>
-      <c r="B297">
-        <v>1</v>
+      <c r="B297" t="s">
+        <v>1363</v>
       </c>
       <c r="C297" t="s">
         <v>513</v>
@@ -17850,8 +17888,8 @@
       <c r="A298" t="s">
         <v>312</v>
       </c>
-      <c r="B298">
-        <v>1</v>
+      <c r="B298" t="s">
+        <v>1363</v>
       </c>
       <c r="C298" t="s">
         <v>513</v>
@@ -17894,8 +17932,8 @@
       <c r="A299" t="s">
         <v>313</v>
       </c>
-      <c r="B299">
-        <v>1</v>
+      <c r="B299" t="s">
+        <v>1363</v>
       </c>
       <c r="C299" t="s">
         <v>513</v>
@@ -17938,8 +17976,8 @@
       <c r="A300" t="s">
         <v>383</v>
       </c>
-      <c r="B300">
-        <v>1</v>
+      <c r="B300" t="s">
+        <v>1363</v>
       </c>
       <c r="C300" t="s">
         <v>513</v>
@@ -17982,8 +18020,8 @@
       <c r="A301" t="s">
         <v>384</v>
       </c>
-      <c r="B301">
-        <v>1</v>
+      <c r="B301" t="s">
+        <v>1363</v>
       </c>
       <c r="C301" t="s">
         <v>513</v>
@@ -18026,8 +18064,8 @@
       <c r="A302" t="s">
         <v>385</v>
       </c>
-      <c r="B302">
-        <v>1</v>
+      <c r="B302" t="s">
+        <v>1363</v>
       </c>
       <c r="C302" t="s">
         <v>513</v>
@@ -18070,8 +18108,8 @@
       <c r="A303" t="s">
         <v>386</v>
       </c>
-      <c r="B303">
-        <v>1</v>
+      <c r="B303" t="s">
+        <v>1363</v>
       </c>
       <c r="C303" t="s">
         <v>513</v>
@@ -18114,8 +18152,8 @@
       <c r="A304" t="s">
         <v>387</v>
       </c>
-      <c r="B304">
-        <v>1</v>
+      <c r="B304" t="s">
+        <v>1363</v>
       </c>
       <c r="C304" t="s">
         <v>513</v>
@@ -18158,8 +18196,8 @@
       <c r="A305" t="s">
         <v>388</v>
       </c>
-      <c r="B305">
-        <v>1</v>
+      <c r="B305" t="s">
+        <v>1363</v>
       </c>
       <c r="C305" t="s">
         <v>513</v>
@@ -18202,8 +18240,8 @@
       <c r="A306" t="s">
         <v>389</v>
       </c>
-      <c r="B306">
-        <v>1</v>
+      <c r="B306" t="s">
+        <v>1363</v>
       </c>
       <c r="C306" t="s">
         <v>513</v>
@@ -18246,8 +18284,8 @@
       <c r="A307" t="s">
         <v>390</v>
       </c>
-      <c r="B307">
-        <v>1</v>
+      <c r="B307" t="s">
+        <v>1363</v>
       </c>
       <c r="C307" t="s">
         <v>513</v>
@@ -18290,8 +18328,8 @@
       <c r="A308" t="s">
         <v>391</v>
       </c>
-      <c r="B308">
-        <v>1</v>
+      <c r="B308" t="s">
+        <v>1363</v>
       </c>
       <c r="C308" t="s">
         <v>513</v>
@@ -18334,8 +18372,8 @@
       <c r="A309" t="s">
         <v>392</v>
       </c>
-      <c r="B309">
-        <v>1</v>
+      <c r="B309" t="s">
+        <v>1363</v>
       </c>
       <c r="C309" t="s">
         <v>513</v>
@@ -18378,8 +18416,8 @@
       <c r="A310" t="s">
         <v>393</v>
       </c>
-      <c r="B310">
-        <v>1</v>
+      <c r="B310" t="s">
+        <v>1363</v>
       </c>
       <c r="C310" t="s">
         <v>513</v>
@@ -18422,8 +18460,8 @@
       <c r="A311" t="s">
         <v>394</v>
       </c>
-      <c r="B311">
-        <v>1</v>
+      <c r="B311" t="s">
+        <v>1363</v>
       </c>
       <c r="C311" t="s">
         <v>513</v>
@@ -18466,8 +18504,8 @@
       <c r="A312" t="s">
         <v>395</v>
       </c>
-      <c r="B312">
-        <v>1</v>
+      <c r="B312" t="s">
+        <v>1363</v>
       </c>
       <c r="C312" t="s">
         <v>513</v>
@@ -18510,8 +18548,8 @@
       <c r="A313" t="s">
         <v>396</v>
       </c>
-      <c r="B313">
-        <v>1</v>
+      <c r="B313" t="s">
+        <v>1363</v>
       </c>
       <c r="C313" t="s">
         <v>513</v>
@@ -18554,8 +18592,8 @@
       <c r="A314" t="s">
         <v>397</v>
       </c>
-      <c r="B314">
-        <v>1</v>
+      <c r="B314" t="s">
+        <v>1363</v>
       </c>
       <c r="C314" t="s">
         <v>513</v>
@@ -18598,8 +18636,8 @@
       <c r="A315" t="s">
         <v>398</v>
       </c>
-      <c r="B315">
-        <v>1</v>
+      <c r="B315" t="s">
+        <v>1363</v>
       </c>
       <c r="C315" t="s">
         <v>513</v>
@@ -18642,8 +18680,8 @@
       <c r="A316" t="s">
         <v>399</v>
       </c>
-      <c r="B316">
-        <v>1</v>
+      <c r="B316" t="s">
+        <v>1363</v>
       </c>
       <c r="C316" t="s">
         <v>513</v>
@@ -18686,8 +18724,8 @@
       <c r="A317" t="s">
         <v>400</v>
       </c>
-      <c r="B317">
-        <v>1</v>
+      <c r="B317" t="s">
+        <v>1363</v>
       </c>
       <c r="C317" t="s">
         <v>513</v>
@@ -18730,8 +18768,8 @@
       <c r="A318" t="s">
         <v>401</v>
       </c>
-      <c r="B318">
-        <v>1</v>
+      <c r="B318" t="s">
+        <v>1363</v>
       </c>
       <c r="C318" t="s">
         <v>513</v>
@@ -18774,8 +18812,8 @@
       <c r="A319" t="s">
         <v>402</v>
       </c>
-      <c r="B319">
-        <v>1</v>
+      <c r="B319" t="s">
+        <v>1363</v>
       </c>
       <c r="C319" t="s">
         <v>513</v>
@@ -18818,8 +18856,8 @@
       <c r="A320" t="s">
         <v>403</v>
       </c>
-      <c r="B320">
-        <v>1</v>
+      <c r="B320" t="s">
+        <v>1363</v>
       </c>
       <c r="C320" t="s">
         <v>513</v>
@@ -18862,8 +18900,8 @@
       <c r="A321" t="s">
         <v>404</v>
       </c>
-      <c r="B321">
-        <v>1</v>
+      <c r="B321" t="s">
+        <v>1363</v>
       </c>
       <c r="C321" t="s">
         <v>513</v>
@@ -18906,8 +18944,8 @@
       <c r="A322" t="s">
         <v>405</v>
       </c>
-      <c r="B322">
-        <v>1</v>
+      <c r="B322" t="s">
+        <v>1363</v>
       </c>
       <c r="C322" t="s">
         <v>513</v>
@@ -18950,8 +18988,8 @@
       <c r="A323" t="s">
         <v>406</v>
       </c>
-      <c r="B323">
-        <v>1</v>
+      <c r="B323" t="s">
+        <v>1363</v>
       </c>
       <c r="C323" t="s">
         <v>513</v>
@@ -18994,8 +19032,8 @@
       <c r="A324" t="s">
         <v>407</v>
       </c>
-      <c r="B324">
-        <v>1</v>
+      <c r="B324" t="s">
+        <v>1363</v>
       </c>
       <c r="C324" t="s">
         <v>513</v>
@@ -19038,8 +19076,8 @@
       <c r="A325" t="s">
         <v>408</v>
       </c>
-      <c r="B325">
-        <v>1</v>
+      <c r="B325" t="s">
+        <v>1363</v>
       </c>
       <c r="C325" t="s">
         <v>513</v>
@@ -19082,8 +19120,8 @@
       <c r="A326" t="s">
         <v>409</v>
       </c>
-      <c r="B326">
-        <v>1</v>
+      <c r="B326" t="s">
+        <v>1363</v>
       </c>
       <c r="C326" t="s">
         <v>513</v>
@@ -19126,8 +19164,8 @@
       <c r="A327" t="s">
         <v>410</v>
       </c>
-      <c r="B327">
-        <v>1</v>
+      <c r="B327" t="s">
+        <v>1363</v>
       </c>
       <c r="C327" t="s">
         <v>513</v>
@@ -19170,8 +19208,8 @@
       <c r="A328" t="s">
         <v>411</v>
       </c>
-      <c r="B328">
-        <v>1</v>
+      <c r="B328" t="s">
+        <v>1363</v>
       </c>
       <c r="C328" t="s">
         <v>513</v>
@@ -19214,8 +19252,8 @@
       <c r="A329" t="s">
         <v>412</v>
       </c>
-      <c r="B329">
-        <v>1</v>
+      <c r="B329" t="s">
+        <v>1363</v>
       </c>
       <c r="C329" t="s">
         <v>513</v>
@@ -19258,8 +19296,8 @@
       <c r="A330" t="s">
         <v>413</v>
       </c>
-      <c r="B330">
-        <v>1</v>
+      <c r="B330" t="s">
+        <v>1363</v>
       </c>
       <c r="C330" t="s">
         <v>513</v>
@@ -19302,8 +19340,8 @@
       <c r="A331" t="s">
         <v>414</v>
       </c>
-      <c r="B331">
-        <v>1</v>
+      <c r="B331" t="s">
+        <v>1363</v>
       </c>
       <c r="C331" t="s">
         <v>513</v>
@@ -19346,8 +19384,8 @@
       <c r="A332" t="s">
         <v>415</v>
       </c>
-      <c r="B332">
-        <v>1</v>
+      <c r="B332" t="s">
+        <v>1363</v>
       </c>
       <c r="C332" t="s">
         <v>513</v>
@@ -19390,8 +19428,8 @@
       <c r="A333" t="s">
         <v>416</v>
       </c>
-      <c r="B333">
-        <v>1</v>
+      <c r="B333" t="s">
+        <v>1363</v>
       </c>
       <c r="C333" t="s">
         <v>513</v>
@@ -19434,8 +19472,8 @@
       <c r="A334" t="s">
         <v>417</v>
       </c>
-      <c r="B334">
-        <v>1</v>
+      <c r="B334" t="s">
+        <v>1363</v>
       </c>
       <c r="C334" t="s">
         <v>513</v>
@@ -19478,8 +19516,8 @@
       <c r="A335" t="s">
         <v>418</v>
       </c>
-      <c r="B335">
-        <v>1</v>
+      <c r="B335" t="s">
+        <v>1363</v>
       </c>
       <c r="C335" t="s">
         <v>513</v>
@@ -19522,8 +19560,8 @@
       <c r="A336" t="s">
         <v>419</v>
       </c>
-      <c r="B336">
-        <v>1</v>
+      <c r="B336" t="s">
+        <v>1363</v>
       </c>
       <c r="C336" t="s">
         <v>513</v>
@@ -19566,8 +19604,8 @@
       <c r="A337" t="s">
         <v>420</v>
       </c>
-      <c r="B337">
-        <v>1</v>
+      <c r="B337" t="s">
+        <v>1363</v>
       </c>
       <c r="C337" t="s">
         <v>513</v>
@@ -19610,8 +19648,8 @@
       <c r="A338" t="s">
         <v>421</v>
       </c>
-      <c r="B338">
-        <v>1</v>
+      <c r="B338" t="s">
+        <v>1363</v>
       </c>
       <c r="C338" t="s">
         <v>513</v>
@@ -19654,8 +19692,8 @@
       <c r="A339" t="s">
         <v>422</v>
       </c>
-      <c r="B339">
-        <v>1</v>
+      <c r="B339" t="s">
+        <v>1363</v>
       </c>
       <c r="C339" t="s">
         <v>513</v>
@@ -19698,8 +19736,8 @@
       <c r="A340" t="s">
         <v>423</v>
       </c>
-      <c r="B340">
-        <v>1</v>
+      <c r="B340" t="s">
+        <v>1363</v>
       </c>
       <c r="C340" t="s">
         <v>513</v>
@@ -19742,8 +19780,8 @@
       <c r="A341" t="s">
         <v>424</v>
       </c>
-      <c r="B341">
-        <v>1</v>
+      <c r="B341" t="s">
+        <v>1363</v>
       </c>
       <c r="C341" t="s">
         <v>513</v>
@@ -19786,8 +19824,8 @@
       <c r="A342" t="s">
         <v>425</v>
       </c>
-      <c r="B342">
-        <v>1</v>
+      <c r="B342" t="s">
+        <v>1363</v>
       </c>
       <c r="C342" t="s">
         <v>513</v>
@@ -19830,8 +19868,8 @@
       <c r="A343" t="s">
         <v>426</v>
       </c>
-      <c r="B343">
-        <v>1</v>
+      <c r="B343" t="s">
+        <v>1363</v>
       </c>
       <c r="C343" t="s">
         <v>513</v>
@@ -19874,8 +19912,8 @@
       <c r="A344" t="s">
         <v>427</v>
       </c>
-      <c r="B344">
-        <v>1</v>
+      <c r="B344" t="s">
+        <v>1363</v>
       </c>
       <c r="C344" t="s">
         <v>513</v>
@@ -19918,8 +19956,8 @@
       <c r="A345" t="s">
         <v>428</v>
       </c>
-      <c r="B345">
-        <v>1</v>
+      <c r="B345" t="s">
+        <v>1363</v>
       </c>
       <c r="C345" t="s">
         <v>513</v>
@@ -19962,8 +20000,8 @@
       <c r="A346" t="s">
         <v>429</v>
       </c>
-      <c r="B346">
-        <v>1</v>
+      <c r="B346" t="s">
+        <v>1363</v>
       </c>
       <c r="C346" t="s">
         <v>513</v>
@@ -20006,8 +20044,8 @@
       <c r="A347" t="s">
         <v>430</v>
       </c>
-      <c r="B347">
-        <v>1</v>
+      <c r="B347" t="s">
+        <v>1363</v>
       </c>
       <c r="C347" t="s">
         <v>513</v>
@@ -20050,8 +20088,8 @@
       <c r="A348" t="s">
         <v>431</v>
       </c>
-      <c r="B348">
-        <v>1</v>
+      <c r="B348" t="s">
+        <v>1363</v>
       </c>
       <c r="C348" t="s">
         <v>513</v>
@@ -20094,8 +20132,8 @@
       <c r="A349" t="s">
         <v>432</v>
       </c>
-      <c r="B349">
-        <v>1</v>
+      <c r="B349" t="s">
+        <v>1363</v>
       </c>
       <c r="C349" t="s">
         <v>513</v>
@@ -20138,8 +20176,8 @@
       <c r="A350" t="s">
         <v>433</v>
       </c>
-      <c r="B350">
-        <v>1</v>
+      <c r="B350" t="s">
+        <v>1363</v>
       </c>
       <c r="C350" t="s">
         <v>513</v>
@@ -20182,8 +20220,8 @@
       <c r="A351" t="s">
         <v>434</v>
       </c>
-      <c r="B351">
-        <v>1</v>
+      <c r="B351" t="s">
+        <v>1363</v>
       </c>
       <c r="C351" t="s">
         <v>513</v>
@@ -20226,8 +20264,8 @@
       <c r="A352" t="s">
         <v>435</v>
       </c>
-      <c r="B352">
-        <v>1</v>
+      <c r="B352" t="s">
+        <v>1363</v>
       </c>
       <c r="C352" t="s">
         <v>513</v>
@@ -20270,8 +20308,8 @@
       <c r="A353" t="s">
         <v>436</v>
       </c>
-      <c r="B353">
-        <v>1</v>
+      <c r="B353" t="s">
+        <v>1363</v>
       </c>
       <c r="C353" t="s">
         <v>513</v>
@@ -20314,8 +20352,8 @@
       <c r="A354" t="s">
         <v>437</v>
       </c>
-      <c r="B354">
-        <v>1</v>
+      <c r="B354" t="s">
+        <v>1363</v>
       </c>
       <c r="C354" t="s">
         <v>513</v>
@@ -20358,8 +20396,8 @@
       <c r="A355" t="s">
         <v>438</v>
       </c>
-      <c r="B355">
-        <v>1</v>
+      <c r="B355" t="s">
+        <v>1363</v>
       </c>
       <c r="C355" t="s">
         <v>513</v>
@@ -20402,8 +20440,8 @@
       <c r="A356" t="s">
         <v>439</v>
       </c>
-      <c r="B356">
-        <v>1</v>
+      <c r="B356" t="s">
+        <v>1363</v>
       </c>
       <c r="C356" t="s">
         <v>513</v>
@@ -20446,8 +20484,8 @@
       <c r="A357" t="s">
         <v>440</v>
       </c>
-      <c r="B357">
-        <v>1</v>
+      <c r="B357" t="s">
+        <v>1363</v>
       </c>
       <c r="C357" t="s">
         <v>513</v>
@@ -20490,8 +20528,8 @@
       <c r="A358" t="s">
         <v>441</v>
       </c>
-      <c r="B358">
-        <v>1</v>
+      <c r="B358" t="s">
+        <v>1363</v>
       </c>
       <c r="C358" t="s">
         <v>513</v>
@@ -20534,8 +20572,8 @@
       <c r="A359" t="s">
         <v>442</v>
       </c>
-      <c r="B359">
-        <v>1</v>
+      <c r="B359" t="s">
+        <v>1363</v>
       </c>
       <c r="C359" t="s">
         <v>513</v>
@@ -20578,8 +20616,8 @@
       <c r="A360" t="s">
         <v>443</v>
       </c>
-      <c r="B360">
-        <v>1</v>
+      <c r="B360" t="s">
+        <v>1363</v>
       </c>
       <c r="C360" t="s">
         <v>513</v>
@@ -20622,8 +20660,8 @@
       <c r="A361" t="s">
         <v>444</v>
       </c>
-      <c r="B361">
-        <v>1</v>
+      <c r="B361" t="s">
+        <v>1363</v>
       </c>
       <c r="C361" t="s">
         <v>513</v>
@@ -20666,8 +20704,8 @@
       <c r="A362" t="s">
         <v>445</v>
       </c>
-      <c r="B362">
-        <v>1</v>
+      <c r="B362" t="s">
+        <v>1363</v>
       </c>
       <c r="C362" t="s">
         <v>513</v>
@@ -20710,8 +20748,8 @@
       <c r="A363" t="s">
         <v>446</v>
       </c>
-      <c r="B363">
-        <v>1</v>
+      <c r="B363" t="s">
+        <v>1363</v>
       </c>
       <c r="C363" t="s">
         <v>513</v>
@@ -20754,8 +20792,8 @@
       <c r="A364" t="s">
         <v>447</v>
       </c>
-      <c r="B364">
-        <v>1</v>
+      <c r="B364" t="s">
+        <v>1363</v>
       </c>
       <c r="C364" t="s">
         <v>513</v>
@@ -20798,8 +20836,8 @@
       <c r="A365" t="s">
         <v>448</v>
       </c>
-      <c r="B365">
-        <v>1</v>
+      <c r="B365" t="s">
+        <v>1363</v>
       </c>
       <c r="C365" t="s">
         <v>513</v>
@@ -20842,8 +20880,8 @@
       <c r="A366" t="s">
         <v>449</v>
       </c>
-      <c r="B366">
-        <v>1</v>
+      <c r="B366" t="s">
+        <v>1363</v>
       </c>
       <c r="C366" t="s">
         <v>513</v>
@@ -20886,8 +20924,8 @@
       <c r="A367" t="s">
         <v>450</v>
       </c>
-      <c r="B367">
-        <v>1</v>
+      <c r="B367" t="s">
+        <v>1363</v>
       </c>
       <c r="C367" t="s">
         <v>513</v>
@@ -20930,8 +20968,8 @@
       <c r="A368" t="s">
         <v>451</v>
       </c>
-      <c r="B368">
-        <v>1</v>
+      <c r="B368" t="s">
+        <v>1363</v>
       </c>
       <c r="C368" t="s">
         <v>513</v>
@@ -20974,8 +21012,8 @@
       <c r="A369" t="s">
         <v>452</v>
       </c>
-      <c r="B369">
-        <v>1</v>
+      <c r="B369" t="s">
+        <v>1363</v>
       </c>
       <c r="C369" t="s">
         <v>513</v>
@@ -21018,8 +21056,8 @@
       <c r="A370" t="s">
         <v>453</v>
       </c>
-      <c r="B370">
-        <v>1</v>
+      <c r="B370" t="s">
+        <v>1363</v>
       </c>
       <c r="C370" t="s">
         <v>513</v>
@@ -21062,8 +21100,8 @@
       <c r="A371" t="s">
         <v>454</v>
       </c>
-      <c r="B371">
-        <v>1</v>
+      <c r="B371" t="s">
+        <v>1363</v>
       </c>
       <c r="C371" t="s">
         <v>513</v>
@@ -21106,8 +21144,8 @@
       <c r="A372" t="s">
         <v>455</v>
       </c>
-      <c r="B372">
-        <v>1</v>
+      <c r="B372" t="s">
+        <v>1363</v>
       </c>
       <c r="C372" t="s">
         <v>513</v>
@@ -21150,8 +21188,8 @@
       <c r="A373" t="s">
         <v>456</v>
       </c>
-      <c r="B373">
-        <v>1</v>
+      <c r="B373" t="s">
+        <v>1363</v>
       </c>
       <c r="C373" t="s">
         <v>513</v>
@@ -21194,8 +21232,8 @@
       <c r="A374" t="s">
         <v>457</v>
       </c>
-      <c r="B374">
-        <v>1</v>
+      <c r="B374" t="s">
+        <v>1363</v>
       </c>
       <c r="C374" t="s">
         <v>513</v>
@@ -21238,8 +21276,8 @@
       <c r="A375" t="s">
         <v>458</v>
       </c>
-      <c r="B375">
-        <v>1</v>
+      <c r="B375" t="s">
+        <v>1363</v>
       </c>
       <c r="C375" t="s">
         <v>513</v>
@@ -21282,8 +21320,8 @@
       <c r="A376" t="s">
         <v>459</v>
       </c>
-      <c r="B376">
-        <v>1</v>
+      <c r="B376" t="s">
+        <v>1363</v>
       </c>
       <c r="C376" t="s">
         <v>513</v>
@@ -21326,8 +21364,8 @@
       <c r="A377" t="s">
         <v>460</v>
       </c>
-      <c r="B377">
-        <v>1</v>
+      <c r="B377" t="s">
+        <v>1363</v>
       </c>
       <c r="C377" t="s">
         <v>513</v>
@@ -21370,8 +21408,8 @@
       <c r="A378" t="s">
         <v>461</v>
       </c>
-      <c r="B378">
-        <v>1</v>
+      <c r="B378" t="s">
+        <v>1363</v>
       </c>
       <c r="C378" t="s">
         <v>513</v>
@@ -21414,8 +21452,8 @@
       <c r="A379" t="s">
         <v>462</v>
       </c>
-      <c r="B379">
-        <v>1</v>
+      <c r="B379" t="s">
+        <v>1363</v>
       </c>
       <c r="C379" t="s">
         <v>513</v>
@@ -21458,8 +21496,8 @@
       <c r="A380" t="s">
         <v>463</v>
       </c>
-      <c r="B380">
-        <v>1</v>
+      <c r="B380" t="s">
+        <v>1363</v>
       </c>
       <c r="C380" t="s">
         <v>513</v>
@@ -21502,8 +21540,8 @@
       <c r="A381" t="s">
         <v>464</v>
       </c>
-      <c r="B381">
-        <v>1</v>
+      <c r="B381" t="s">
+        <v>1363</v>
       </c>
       <c r="C381" t="s">
         <v>513</v>
@@ -21546,8 +21584,8 @@
       <c r="A382" t="s">
         <v>465</v>
       </c>
-      <c r="B382">
-        <v>1</v>
+      <c r="B382" t="s">
+        <v>1363</v>
       </c>
       <c r="C382" t="s">
         <v>513</v>
@@ -21590,8 +21628,8 @@
       <c r="A383" t="s">
         <v>466</v>
       </c>
-      <c r="B383">
-        <v>1</v>
+      <c r="B383" t="s">
+        <v>1363</v>
       </c>
       <c r="C383" t="s">
         <v>513</v>
@@ -21634,8 +21672,8 @@
       <c r="A384" t="s">
         <v>467</v>
       </c>
-      <c r="B384">
-        <v>1</v>
+      <c r="B384" t="s">
+        <v>1363</v>
       </c>
       <c r="C384" t="s">
         <v>513</v>
@@ -21678,8 +21716,8 @@
       <c r="A385" t="s">
         <v>468</v>
       </c>
-      <c r="B385">
-        <v>1</v>
+      <c r="B385" t="s">
+        <v>1363</v>
       </c>
       <c r="C385" t="s">
         <v>513</v>
@@ -21722,8 +21760,8 @@
       <c r="A386" t="s">
         <v>469</v>
       </c>
-      <c r="B386">
-        <v>1</v>
+      <c r="B386" t="s">
+        <v>1363</v>
       </c>
       <c r="C386" t="s">
         <v>513</v>
@@ -21766,8 +21804,8 @@
       <c r="A387" t="s">
         <v>470</v>
       </c>
-      <c r="B387">
-        <v>1</v>
+      <c r="B387" t="s">
+        <v>1363</v>
       </c>
       <c r="C387" t="s">
         <v>513</v>
@@ -21810,8 +21848,8 @@
       <c r="A388" t="s">
         <v>471</v>
       </c>
-      <c r="B388">
-        <v>1</v>
+      <c r="B388" t="s">
+        <v>1363</v>
       </c>
       <c r="C388" t="s">
         <v>513</v>
@@ -21854,8 +21892,8 @@
       <c r="A389" t="s">
         <v>472</v>
       </c>
-      <c r="B389">
-        <v>1</v>
+      <c r="B389" t="s">
+        <v>1363</v>
       </c>
       <c r="C389" t="s">
         <v>513</v>
@@ -21898,8 +21936,8 @@
       <c r="A390" t="s">
         <v>473</v>
       </c>
-      <c r="B390">
-        <v>1</v>
+      <c r="B390" t="s">
+        <v>1363</v>
       </c>
       <c r="C390" t="s">
         <v>513</v>
@@ -21942,8 +21980,8 @@
       <c r="A391" t="s">
         <v>474</v>
       </c>
-      <c r="B391">
-        <v>1</v>
+      <c r="B391" t="s">
+        <v>1363</v>
       </c>
       <c r="C391" t="s">
         <v>513</v>
@@ -21986,8 +22024,8 @@
       <c r="A392" t="s">
         <v>475</v>
       </c>
-      <c r="B392">
-        <v>1</v>
+      <c r="B392" t="s">
+        <v>1363</v>
       </c>
       <c r="C392" t="s">
         <v>513</v>
@@ -22030,8 +22068,8 @@
       <c r="A393" t="s">
         <v>476</v>
       </c>
-      <c r="B393">
-        <v>1</v>
+      <c r="B393" t="s">
+        <v>1363</v>
       </c>
       <c r="C393" t="s">
         <v>513</v>
@@ -22074,8 +22112,8 @@
       <c r="A394" t="s">
         <v>477</v>
       </c>
-      <c r="B394">
-        <v>1</v>
+      <c r="B394" t="s">
+        <v>1363</v>
       </c>
       <c r="C394" t="s">
         <v>513</v>
@@ -22118,8 +22156,8 @@
       <c r="A395" t="s">
         <v>478</v>
       </c>
-      <c r="B395">
-        <v>1</v>
+      <c r="B395" t="s">
+        <v>1363</v>
       </c>
       <c r="C395" t="s">
         <v>513</v>
@@ -22162,8 +22200,8 @@
       <c r="A396" t="s">
         <v>479</v>
       </c>
-      <c r="B396">
-        <v>1</v>
+      <c r="B396" t="s">
+        <v>1363</v>
       </c>
       <c r="C396" t="s">
         <v>513</v>
@@ -22206,8 +22244,8 @@
       <c r="A397" t="s">
         <v>480</v>
       </c>
-      <c r="B397">
-        <v>1</v>
+      <c r="B397" t="s">
+        <v>1363</v>
       </c>
       <c r="C397" t="s">
         <v>513</v>
@@ -22250,8 +22288,8 @@
       <c r="A398" t="s">
         <v>481</v>
       </c>
-      <c r="B398">
-        <v>1</v>
+      <c r="B398" t="s">
+        <v>1363</v>
       </c>
       <c r="C398" t="s">
         <v>513</v>
@@ -22294,8 +22332,8 @@
       <c r="A399" t="s">
         <v>482</v>
       </c>
-      <c r="B399">
-        <v>1</v>
+      <c r="B399" t="s">
+        <v>1363</v>
       </c>
       <c r="C399" t="s">
         <v>513</v>
@@ -22338,8 +22376,8 @@
       <c r="A400" t="s">
         <v>483</v>
       </c>
-      <c r="B400">
-        <v>1</v>
+      <c r="B400" t="s">
+        <v>1363</v>
       </c>
       <c r="C400" t="s">
         <v>513</v>
@@ -22382,8 +22420,8 @@
       <c r="A401" t="s">
         <v>484</v>
       </c>
-      <c r="B401">
-        <v>1</v>
+      <c r="B401" t="s">
+        <v>1363</v>
       </c>
       <c r="C401" t="s">
         <v>513</v>
@@ -22426,8 +22464,8 @@
       <c r="A402" t="s">
         <v>485</v>
       </c>
-      <c r="B402">
-        <v>1</v>
+      <c r="B402" t="s">
+        <v>1363</v>
       </c>
       <c r="C402" t="s">
         <v>513</v>
@@ -22470,8 +22508,8 @@
       <c r="A403" t="s">
         <v>486</v>
       </c>
-      <c r="B403">
-        <v>1</v>
+      <c r="B403" t="s">
+        <v>1363</v>
       </c>
       <c r="C403" t="s">
         <v>513</v>
@@ -22514,8 +22552,8 @@
       <c r="A404" t="s">
         <v>487</v>
       </c>
-      <c r="B404">
-        <v>1</v>
+      <c r="B404" t="s">
+        <v>1363</v>
       </c>
       <c r="C404" t="s">
         <v>513</v>
@@ -22558,8 +22596,8 @@
       <c r="A405" t="s">
         <v>488</v>
       </c>
-      <c r="B405">
-        <v>1</v>
+      <c r="B405" t="s">
+        <v>1363</v>
       </c>
       <c r="C405" t="s">
         <v>513</v>
@@ -22602,8 +22640,8 @@
       <c r="A406" t="s">
         <v>489</v>
       </c>
-      <c r="B406">
-        <v>1</v>
+      <c r="B406" t="s">
+        <v>1363</v>
       </c>
       <c r="C406" t="s">
         <v>513</v>
@@ -22646,8 +22684,8 @@
       <c r="A407" t="s">
         <v>490</v>
       </c>
-      <c r="B407">
-        <v>1</v>
+      <c r="B407" t="s">
+        <v>1363</v>
       </c>
       <c r="C407" t="s">
         <v>513</v>
@@ -22690,8 +22728,8 @@
       <c r="A408" t="s">
         <v>491</v>
       </c>
-      <c r="B408">
-        <v>1</v>
+      <c r="B408" t="s">
+        <v>1363</v>
       </c>
       <c r="C408" t="s">
         <v>513</v>
@@ -22731,8 +22769,8 @@
       <c r="A409" t="s">
         <v>492</v>
       </c>
-      <c r="B409">
-        <v>1</v>
+      <c r="B409" t="s">
+        <v>1363</v>
       </c>
       <c r="C409" t="s">
         <v>513</v>
@@ -22772,8 +22810,8 @@
       <c r="A410" t="s">
         <v>493</v>
       </c>
-      <c r="B410">
-        <v>1</v>
+      <c r="B410" t="s">
+        <v>1363</v>
       </c>
       <c r="C410" t="s">
         <v>513</v>
@@ -22816,8 +22854,8 @@
       <c r="A411" t="s">
         <v>494</v>
       </c>
-      <c r="B411">
-        <v>1</v>
+      <c r="B411" t="s">
+        <v>1363</v>
       </c>
       <c r="C411" t="s">
         <v>513</v>
@@ -22860,8 +22898,8 @@
       <c r="A412" t="s">
         <v>495</v>
       </c>
-      <c r="B412">
-        <v>1</v>
+      <c r="B412" t="s">
+        <v>1363</v>
       </c>
       <c r="C412" t="s">
         <v>513</v>
@@ -22904,8 +22942,8 @@
       <c r="A413" t="s">
         <v>496</v>
       </c>
-      <c r="B413">
-        <v>1</v>
+      <c r="B413" t="s">
+        <v>1363</v>
       </c>
       <c r="C413" t="s">
         <v>513</v>
@@ -22948,8 +22986,8 @@
       <c r="A414" t="s">
         <v>497</v>
       </c>
-      <c r="B414">
-        <v>1</v>
+      <c r="B414" t="s">
+        <v>1363</v>
       </c>
       <c r="C414" t="s">
         <v>513</v>
@@ -22992,8 +23030,8 @@
       <c r="A415" t="s">
         <v>498</v>
       </c>
-      <c r="B415">
-        <v>1</v>
+      <c r="B415" t="s">
+        <v>1363</v>
       </c>
       <c r="C415" t="s">
         <v>513</v>
@@ -23036,8 +23074,8 @@
       <c r="A416" t="s">
         <v>499</v>
       </c>
-      <c r="B416">
-        <v>1</v>
+      <c r="B416" t="s">
+        <v>1363</v>
       </c>
       <c r="C416" t="s">
         <v>513</v>
@@ -23080,8 +23118,8 @@
       <c r="A417" t="s">
         <v>500</v>
       </c>
-      <c r="B417">
-        <v>1</v>
+      <c r="B417" t="s">
+        <v>1363</v>
       </c>
       <c r="C417" t="s">
         <v>513</v>
@@ -23124,8 +23162,8 @@
       <c r="A418" t="s">
         <v>501</v>
       </c>
-      <c r="B418">
-        <v>1</v>
+      <c r="B418" t="s">
+        <v>1363</v>
       </c>
       <c r="C418" t="s">
         <v>513</v>
@@ -23168,8 +23206,8 @@
       <c r="A419" t="s">
         <v>502</v>
       </c>
-      <c r="B419">
-        <v>1</v>
+      <c r="B419" t="s">
+        <v>1363</v>
       </c>
       <c r="C419" t="s">
         <v>513</v>
@@ -23212,8 +23250,8 @@
       <c r="A420" t="s">
         <v>503</v>
       </c>
-      <c r="B420">
-        <v>1</v>
+      <c r="B420" t="s">
+        <v>1363</v>
       </c>
       <c r="C420" t="s">
         <v>513</v>
@@ -23256,8 +23294,8 @@
       <c r="A421" t="s">
         <v>504</v>
       </c>
-      <c r="B421">
-        <v>1</v>
+      <c r="B421" t="s">
+        <v>1363</v>
       </c>
       <c r="C421" t="s">
         <v>513</v>
@@ -23300,8 +23338,8 @@
       <c r="A422" t="s">
         <v>135</v>
       </c>
-      <c r="B422">
-        <v>1</v>
+      <c r="B422" t="s">
+        <v>1363</v>
       </c>
       <c r="C422" t="s">
         <v>513</v>
@@ -23344,8 +23382,8 @@
       <c r="A423" t="s">
         <v>136</v>
       </c>
-      <c r="B423">
-        <v>1</v>
+      <c r="B423" t="s">
+        <v>1363</v>
       </c>
       <c r="C423" t="s">
         <v>513</v>
@@ -23388,8 +23426,8 @@
       <c r="A424" t="s">
         <v>205</v>
       </c>
-      <c r="B424">
-        <v>1</v>
+      <c r="B424" t="s">
+        <v>1363</v>
       </c>
       <c r="C424" t="s">
         <v>513</v>
@@ -23432,8 +23470,8 @@
       <c r="A425" t="s">
         <v>206</v>
       </c>
-      <c r="B425">
-        <v>1</v>
+      <c r="B425" t="s">
+        <v>1363</v>
       </c>
       <c r="C425" t="s">
         <v>513</v>
@@ -23476,8 +23514,8 @@
       <c r="A426" t="s">
         <v>267</v>
       </c>
-      <c r="B426">
-        <v>1</v>
+      <c r="B426" t="s">
+        <v>1363</v>
       </c>
       <c r="C426" t="s">
         <v>513</v>
@@ -23520,8 +23558,8 @@
       <c r="A427" t="s">
         <v>268</v>
       </c>
-      <c r="B427">
-        <v>1</v>
+      <c r="B427" t="s">
+        <v>1363</v>
       </c>
       <c r="C427" t="s">
         <v>513</v>
@@ -23564,8 +23602,8 @@
       <c r="A428" t="s">
         <v>314</v>
       </c>
-      <c r="B428">
-        <v>1</v>
+      <c r="B428" t="s">
+        <v>1363</v>
       </c>
       <c r="C428" t="s">
         <v>513</v>
@@ -23608,8 +23646,8 @@
       <c r="A429" t="s">
         <v>505</v>
       </c>
-      <c r="B429">
-        <v>1</v>
+      <c r="B429" t="s">
+        <v>1363</v>
       </c>
       <c r="C429" t="s">
         <v>513</v>
@@ -23652,8 +23690,8 @@
       <c r="A430" t="s">
         <v>509</v>
       </c>
-      <c r="B430">
-        <v>1</v>
+      <c r="B430" t="s">
+        <v>1363</v>
       </c>
       <c r="C430" t="s">
         <v>513</v>
@@ -23696,8 +23734,8 @@
       <c r="A431" t="s">
         <v>510</v>
       </c>
-      <c r="B431">
-        <v>1</v>
+      <c r="B431" t="s">
+        <v>1363</v>
       </c>
       <c r="C431" t="s">
         <v>513</v>
@@ -23740,8 +23778,8 @@
       <c r="A432" t="s">
         <v>511</v>
       </c>
-      <c r="B432">
-        <v>1</v>
+      <c r="B432" t="s">
+        <v>1363</v>
       </c>
       <c r="C432" t="s">
         <v>513</v>
@@ -23784,8 +23822,8 @@
       <c r="A433" t="s">
         <v>512</v>
       </c>
-      <c r="B433">
-        <v>1</v>
+      <c r="B433" t="s">
+        <v>1363</v>
       </c>
       <c r="C433" t="s">
         <v>513</v>
@@ -23825,7 +23863,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U932"/>
+  <autoFilter ref="A1:U932" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -23833,12 +23871,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H2181"/>
   <sheetViews>
     <sheetView showFormulas="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A78" sqref="A78:XFD78"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -55835,7 +55873,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B2108"/>
+  <autoFilter ref="B1:B2108" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -55843,11 +55881,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D433"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -60630,8 +60668,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A307"/>
-  <sortState ref="A2:D310">
+  <autoFilter ref="A1:A307" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D310">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -60645,7 +60683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F146"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -61038,7 +61076,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
